--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.441384216982517</v>
+        <v>2.441384216982541</v>
       </c>
       <c r="D2">
-        <v>2.420023688663141</v>
+        <v>2.42002368866301</v>
       </c>
       <c r="E2">
-        <v>5.153963315001566</v>
+        <v>5.15396331500151</v>
       </c>
       <c r="F2">
-        <v>26.09385311800121</v>
+        <v>26.09385311800119</v>
       </c>
       <c r="G2">
-        <v>19.65329665084716</v>
+        <v>19.65329665084712</v>
       </c>
       <c r="H2">
-        <v>19.12659937968526</v>
+        <v>19.12659937968524</v>
       </c>
       <c r="I2">
-        <v>4.515513634310504</v>
+        <v>4.515513634310532</v>
       </c>
       <c r="J2">
-        <v>60.05689026470095</v>
+        <v>60.05689026470087</v>
       </c>
       <c r="K2">
-        <v>5.011297940948172</v>
+        <v>5.01129794094815</v>
       </c>
       <c r="L2">
-        <v>38.51623914968242</v>
+        <v>38.51623914968237</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.2864371965049</v>
+        <v>2.286437196505007</v>
       </c>
       <c r="D3">
         <v>2.189817647795591</v>
       </c>
       <c r="E3">
-        <v>5.195940291905302</v>
+        <v>5.195940291905347</v>
       </c>
       <c r="F3">
-        <v>24.3454050607588</v>
+        <v>24.34540506075883</v>
       </c>
       <c r="G3">
-        <v>18.28080649528687</v>
+        <v>18.28080649528688</v>
       </c>
       <c r="H3">
-        <v>17.89415589189563</v>
+        <v>17.89415589189564</v>
       </c>
       <c r="I3">
-        <v>4.688765692317784</v>
+        <v>4.688765692317814</v>
       </c>
       <c r="J3">
-        <v>55.8205185265239</v>
+        <v>55.82051852652389</v>
       </c>
       <c r="K3">
-        <v>5.069190547308596</v>
+        <v>5.069190547308599</v>
       </c>
       <c r="L3">
-        <v>35.79577691746329</v>
+        <v>35.79577691746331</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.189541265658336</v>
+        <v>2.189541265658133</v>
       </c>
       <c r="D4">
-        <v>2.049234757278958</v>
+        <v>2.049234757279089</v>
       </c>
       <c r="E4">
-        <v>5.228670075071423</v>
+        <v>5.228670075071371</v>
       </c>
       <c r="F4">
-        <v>23.3957050997745</v>
+        <v>23.39570509977456</v>
       </c>
       <c r="G4">
-        <v>17.65960792265255</v>
+        <v>17.65960792265259</v>
       </c>
       <c r="H4">
-        <v>17.30411121031501</v>
+        <v>17.30411121031505</v>
       </c>
       <c r="I4">
-        <v>4.802445756905806</v>
+        <v>4.802445756905744</v>
       </c>
       <c r="J4">
-        <v>53.0912620992565</v>
+        <v>53.09126209925646</v>
       </c>
       <c r="K4">
-        <v>5.111169888669946</v>
+        <v>5.11116988867</v>
       </c>
       <c r="L4">
-        <v>34.04438589517195</v>
+        <v>34.04438589517194</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.149551626920897</v>
+        <v>2.149551626920806</v>
       </c>
       <c r="D5">
-        <v>1.991990453695742</v>
+        <v>1.991990453695544</v>
       </c>
       <c r="E5">
-        <v>5.243626557574565</v>
+        <v>5.243626557574562</v>
       </c>
       <c r="F5">
-        <v>23.02607057430143</v>
+        <v>23.02607057430145</v>
       </c>
       <c r="G5">
-        <v>17.42359526306005</v>
+        <v>17.42359526306008</v>
       </c>
       <c r="H5">
-        <v>17.07887975487261</v>
+        <v>17.07887975487264</v>
       </c>
       <c r="I5">
-        <v>4.850415335513154</v>
+        <v>4.850415335513247</v>
       </c>
       <c r="J5">
         <v>51.94598156622013</v>
       </c>
       <c r="K5">
-        <v>5.129761486086514</v>
+        <v>5.129761486086543</v>
       </c>
       <c r="L5">
-        <v>33.30973722166602</v>
+        <v>33.30973722166604</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.142879386650117</v>
+        <v>2.142879386650099</v>
       </c>
       <c r="D6">
-        <v>1.982483800120234</v>
+        <v>1.982483800120233</v>
       </c>
       <c r="E6">
-        <v>5.246204312763663</v>
+        <v>5.246204312763656</v>
       </c>
       <c r="F6">
-        <v>22.96573882559011</v>
+        <v>22.96573882559008</v>
       </c>
       <c r="G6">
-        <v>17.3854276781834</v>
+        <v>17.38542767818338</v>
       </c>
       <c r="H6">
         <v>17.04238782607236</v>
       </c>
       <c r="I6">
-        <v>4.858475200799347</v>
+        <v>4.858475200799314</v>
       </c>
       <c r="J6">
-        <v>51.75378634253543</v>
+        <v>51.75378634253535</v>
       </c>
       <c r="K6">
-        <v>5.132934730350755</v>
+        <v>5.132934730350745</v>
       </c>
       <c r="L6">
-        <v>33.18646890631699</v>
+        <v>33.18646890631693</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.189004063564096</v>
+        <v>2.189004063564095</v>
       </c>
       <c r="D7">
-        <v>2.048462742393684</v>
+        <v>2.048462742393618</v>
       </c>
       <c r="E7">
-        <v>5.228865390304441</v>
+        <v>5.22886539030455</v>
       </c>
       <c r="F7">
-        <v>23.39064989309581</v>
+        <v>23.39064989309578</v>
       </c>
       <c r="G7">
-        <v>17.65635616374267</v>
+        <v>17.65635616374264</v>
       </c>
       <c r="H7">
-        <v>17.3010125573517</v>
+        <v>17.30101255735168</v>
       </c>
       <c r="I7">
-        <v>4.803086254828107</v>
+        <v>4.803086254828165</v>
       </c>
       <c r="J7">
-        <v>53.07595150443888</v>
+        <v>53.07595150443893</v>
       </c>
       <c r="K7">
-        <v>5.111414772674508</v>
+        <v>5.111414772674541</v>
       </c>
       <c r="L7">
-        <v>34.03456367452885</v>
+        <v>34.03456367452888</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.388282027920884</v>
+        <v>2.388282027920861</v>
       </c>
       <c r="D8">
-        <v>2.340394452054436</v>
+        <v>2.340394452054234</v>
       </c>
       <c r="E8">
-        <v>5.166910162749132</v>
+        <v>5.166910162749115</v>
       </c>
       <c r="F8">
-        <v>25.41864636968678</v>
+        <v>25.41864636968677</v>
       </c>
       <c r="G8">
-        <v>19.06904030321737</v>
+        <v>19.06904030321735</v>
       </c>
       <c r="H8">
-        <v>18.57683971288139</v>
+        <v>18.5768397128814</v>
       </c>
       <c r="I8">
-        <v>4.573603615339749</v>
+        <v>4.573603615339796</v>
       </c>
       <c r="J8">
-        <v>58.62222397282828</v>
+        <v>58.62222397282822</v>
       </c>
       <c r="K8">
-        <v>5.029838201999694</v>
+        <v>5.029838201999729</v>
       </c>
       <c r="L8">
-        <v>37.59467572601413</v>
+        <v>37.59467572601409</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.768682425761699</v>
+        <v>2.768682425761618</v>
       </c>
       <c r="D9">
-        <v>2.926876721131487</v>
+        <v>2.926876721131619</v>
       </c>
       <c r="E9">
-        <v>5.107343105907799</v>
+        <v>5.107343105907754</v>
       </c>
       <c r="F9">
-        <v>30.73190330883303</v>
+        <v>30.73190330883306</v>
       </c>
       <c r="G9">
-        <v>23.40666325497486</v>
+        <v>23.40666325497491</v>
       </c>
       <c r="H9">
-        <v>22.71949761616137</v>
+        <v>22.71949761616145</v>
       </c>
       <c r="I9">
-        <v>4.30151525437312</v>
+        <v>4.301515254373199</v>
       </c>
       <c r="J9">
-        <v>68.52684544589175</v>
+        <v>68.52684544589178</v>
       </c>
       <c r="K9">
-        <v>4.928001442245646</v>
+        <v>4.92800144224566</v>
       </c>
       <c r="L9">
-        <v>43.96271400032375</v>
+        <v>43.9627140003238</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.048270085257724</v>
+        <v>3.04827008525776</v>
       </c>
       <c r="D10">
-        <v>3.379957451184083</v>
+        <v>3.379957451183884</v>
       </c>
       <c r="E10">
-        <v>5.112255124612171</v>
+        <v>5.1122551246121</v>
       </c>
       <c r="F10">
-        <v>34.90475717717293</v>
+        <v>34.90475717717266</v>
       </c>
       <c r="G10">
-        <v>26.76117800139938</v>
+        <v>26.76117800139914</v>
       </c>
       <c r="H10">
-        <v>25.90498078336501</v>
+        <v>25.90498078336478</v>
       </c>
       <c r="I10">
-        <v>4.84266275101352</v>
+        <v>4.842662751013567</v>
       </c>
       <c r="J10">
-        <v>75.28514290722566</v>
+        <v>75.28514290722561</v>
       </c>
       <c r="K10">
-        <v>5.12760321208605</v>
+        <v>5.12760321208616</v>
       </c>
       <c r="L10">
-        <v>48.31610283324386</v>
+        <v>48.31610283324382</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.177471489056761</v>
+        <v>3.177471489056767</v>
       </c>
       <c r="D11">
-        <v>3.594956930789732</v>
+        <v>3.594956930789867</v>
       </c>
       <c r="E11">
-        <v>5.128028275131187</v>
+        <v>5.128028275131236</v>
       </c>
       <c r="F11">
-        <v>36.87670524447026</v>
+        <v>36.87670524447046</v>
       </c>
       <c r="G11">
-        <v>28.34218889613954</v>
+        <v>28.34218889613972</v>
       </c>
       <c r="H11">
-        <v>27.40042119101199</v>
+        <v>27.40042119101215</v>
       </c>
       <c r="I11">
-        <v>5.091076067030921</v>
+        <v>5.091076067030897</v>
       </c>
       <c r="J11">
-        <v>78.26781130105658</v>
+        <v>78.26781130105665</v>
       </c>
       <c r="K11">
         <v>5.353613792361704</v>
       </c>
       <c r="L11">
-        <v>50.23974957031871</v>
+        <v>50.23974957031877</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.226909621181414</v>
+        <v>3.226909621181207</v>
       </c>
       <c r="D12">
-        <v>3.678099306998245</v>
+        <v>3.67809930699838</v>
       </c>
       <c r="E12">
-        <v>5.140115400131048</v>
+        <v>5.140115400131017</v>
       </c>
       <c r="F12">
-        <v>37.63680941861389</v>
+        <v>37.6368094186141</v>
       </c>
       <c r="G12">
-        <v>28.951102992894</v>
+        <v>28.9511029928942</v>
       </c>
       <c r="H12">
-        <v>27.97553670182872</v>
+        <v>27.97553670182891</v>
       </c>
       <c r="I12">
-        <v>5.185840964902755</v>
+        <v>5.185840964902759</v>
       </c>
       <c r="J12">
-        <v>79.38628516263628</v>
+        <v>79.38628516263637</v>
       </c>
       <c r="K12">
-        <v>5.439078812678764</v>
+        <v>5.439078812678696</v>
       </c>
       <c r="L12">
-        <v>50.96149610105487</v>
+        <v>50.96149610105491</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.21623524463486</v>
+        <v>3.216235244634771</v>
       </c>
       <c r="D13">
         <v>3.660107890718406</v>
       </c>
       <c r="E13">
-        <v>5.134373410007812</v>
+        <v>5.134373410007753</v>
       </c>
       <c r="F13">
-        <v>37.47245828162363</v>
+        <v>37.47245828162345</v>
       </c>
       <c r="G13">
-        <v>28.81946293659542</v>
+        <v>28.81946293659524</v>
       </c>
       <c r="H13">
-        <v>27.85124087594668</v>
+        <v>27.85124087594654</v>
       </c>
       <c r="I13">
-        <v>5.165393759096605</v>
+        <v>5.16539375909667</v>
       </c>
       <c r="J13">
-        <v>79.14585051054458</v>
+        <v>79.14585051054452</v>
       </c>
       <c r="K13">
-        <v>5.420673055609321</v>
+        <v>5.420673055609329</v>
       </c>
       <c r="L13">
-        <v>50.80632589939109</v>
+        <v>50.80632589939101</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.181527033910215</v>
+        <v>3.181527033910298</v>
       </c>
       <c r="D14">
-        <v>3.601759508192355</v>
+        <v>3.60175950819229</v>
       </c>
       <c r="E14">
-        <v>5.128657652518004</v>
+        <v>5.128657652517902</v>
       </c>
       <c r="F14">
-        <v>36.93895223342803</v>
+        <v>36.93895223342805</v>
       </c>
       <c r="G14">
-        <v>28.39206387397257</v>
+        <v>28.39206387397256</v>
       </c>
       <c r="H14">
-        <v>27.44754457472893</v>
+        <v>27.4475445747289</v>
       </c>
       <c r="I14">
-        <v>5.098856018143399</v>
+        <v>5.098856018143381</v>
       </c>
       <c r="J14">
-        <v>78.36003486127049</v>
+        <v>78.36003486127029</v>
       </c>
       <c r="K14">
-        <v>5.360645795893769</v>
+        <v>5.360645795893797</v>
       </c>
       <c r="L14">
-        <v>50.2992527031308</v>
+        <v>50.29925270313071</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.16034160680658</v>
+        <v>3.160341606806416</v>
       </c>
       <c r="D15">
-        <v>3.566259608558387</v>
+        <v>3.566259608558385</v>
       </c>
       <c r="E15">
-        <v>5.125459208690236</v>
+        <v>5.125459208690201</v>
       </c>
       <c r="F15">
-        <v>36.61400395455846</v>
+        <v>36.61400395455833</v>
       </c>
       <c r="G15">
-        <v>28.1316818542056</v>
+        <v>28.1316818542055</v>
       </c>
       <c r="H15">
-        <v>27.2014940317695</v>
+        <v>27.20149403176945</v>
       </c>
       <c r="I15">
-        <v>5.058203001679942</v>
+        <v>5.058203001679958</v>
       </c>
       <c r="J15">
-        <v>77.87734146935877</v>
+        <v>77.87734146935868</v>
       </c>
       <c r="K15">
-        <v>5.32387023710209</v>
+        <v>5.323870237102094</v>
       </c>
       <c r="L15">
-        <v>49.98783280298684</v>
+        <v>49.98783280298682</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.039884741742632</v>
+        <v>3.039884741742613</v>
       </c>
       <c r="D16">
-        <v>3.366121409848724</v>
+        <v>3.366121409848524</v>
       </c>
       <c r="E16">
-        <v>5.111521320921044</v>
+        <v>5.111521320921033</v>
       </c>
       <c r="F16">
-        <v>34.7775850432038</v>
+        <v>34.77758504320369</v>
       </c>
       <c r="G16">
-        <v>26.65914312324727</v>
+        <v>26.65914312324714</v>
       </c>
       <c r="H16">
-        <v>25.80835240558927</v>
+        <v>25.80835240558917</v>
       </c>
       <c r="I16">
-        <v>4.826503486238021</v>
+        <v>4.826503486237982</v>
       </c>
       <c r="J16">
-        <v>75.08854921610309</v>
+        <v>75.08854921610302</v>
       </c>
       <c r="K16">
-        <v>5.112800952231989</v>
+        <v>5.112800952231979</v>
       </c>
       <c r="L16">
-        <v>48.1893638839114</v>
+        <v>48.18936388391135</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.966645422247207</v>
+        <v>2.966645422247125</v>
       </c>
       <c r="D17">
-        <v>3.245905206977611</v>
+        <v>3.245905206977678</v>
       </c>
       <c r="E17">
-        <v>5.106636952393449</v>
+        <v>5.106636952393419</v>
       </c>
       <c r="F17">
-        <v>33.6715717345173</v>
+        <v>33.67157173451734</v>
       </c>
       <c r="G17">
-        <v>25.77130042534411</v>
+        <v>25.77130042534418</v>
       </c>
       <c r="H17">
-        <v>24.96690974008837</v>
+        <v>24.96690974008845</v>
       </c>
       <c r="I17">
-        <v>4.685177643682124</v>
+        <v>4.685177643682155</v>
       </c>
       <c r="J17">
-        <v>73.35563643627552</v>
+        <v>73.35563643627553</v>
       </c>
       <c r="K17">
-        <v>4.982813806711651</v>
+        <v>4.982813806711627</v>
       </c>
       <c r="L17">
-        <v>47.07247138877113</v>
+        <v>47.07247138877116</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.924693585427986</v>
+        <v>2.924693585428004</v>
       </c>
       <c r="D18">
-        <v>3.177564410122418</v>
+        <v>3.177564410122483</v>
       </c>
       <c r="E18">
-        <v>5.105081148032252</v>
+        <v>5.105081148032255</v>
       </c>
       <c r="F18">
-        <v>33.04214509903929</v>
+        <v>33.04214509903956</v>
       </c>
       <c r="G18">
-        <v>25.26563978004638</v>
+        <v>25.26563978004664</v>
       </c>
       <c r="H18">
-        <v>24.4871326631029</v>
+        <v>24.48713266310315</v>
       </c>
       <c r="I18">
-        <v>4.604075155330927</v>
+        <v>4.604075155330964</v>
       </c>
       <c r="J18">
-        <v>72.35012260178996</v>
+        <v>72.35012260179006</v>
       </c>
       <c r="K18">
-        <v>4.907785594695864</v>
+        <v>4.907785594695834</v>
       </c>
       <c r="L18">
-        <v>46.42462053826969</v>
+        <v>46.42462053826976</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.91051334213565</v>
+        <v>2.910513342135574</v>
       </c>
       <c r="D19">
-        <v>3.154551658038818</v>
+        <v>3.154551658038886</v>
       </c>
       <c r="E19">
-        <v>5.104761324076494</v>
+        <v>5.104761324076441</v>
       </c>
       <c r="F19">
-        <v>32.83011671027268</v>
+        <v>32.83011671027285</v>
       </c>
       <c r="G19">
-        <v>25.09523233430179</v>
+        <v>25.09523233430195</v>
       </c>
       <c r="H19">
-        <v>24.32535423896789</v>
+        <v>24.32535423896808</v>
       </c>
       <c r="I19">
-        <v>4.576636884439765</v>
+        <v>4.576636884439826</v>
       </c>
       <c r="J19">
-        <v>72.00810443974692</v>
+        <v>72.008104439747</v>
       </c>
       <c r="K19">
-        <v>4.90894922139181</v>
+        <v>4.908949221391834</v>
       </c>
       <c r="L19">
-        <v>46.20429504941113</v>
+        <v>46.2042950494112</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,31 +1102,31 @@
         <v>2.974422489225161</v>
       </c>
       <c r="D20">
-        <v>3.258616285281192</v>
+        <v>3.258616285281058</v>
       </c>
       <c r="E20">
         <v>5.107025145792429</v>
       </c>
       <c r="F20">
-        <v>33.78859574156125</v>
+        <v>33.78859574156107</v>
       </c>
       <c r="G20">
-        <v>25.86528060830204</v>
+        <v>25.86528060830187</v>
       </c>
       <c r="H20">
-        <v>25.05603468635527</v>
+        <v>25.05603468635513</v>
       </c>
       <c r="I20">
-        <v>4.700200501146631</v>
+        <v>4.700200501146591</v>
       </c>
       <c r="J20">
-        <v>73.54100318249085</v>
+        <v>73.54100318249081</v>
       </c>
       <c r="K20">
-        <v>4.996676722534638</v>
+        <v>4.996676722534613</v>
       </c>
       <c r="L20">
-        <v>47.19192037266195</v>
+        <v>47.19192037266192</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.191705695442514</v>
+        <v>3.19170569544249</v>
       </c>
       <c r="D21">
-        <v>3.618846818529299</v>
+        <v>3.618846818529432</v>
       </c>
       <c r="E21">
-        <v>5.130272826891778</v>
+        <v>5.130272826891909</v>
       </c>
       <c r="F21">
-        <v>37.09526619260139</v>
+        <v>37.09526619260164</v>
       </c>
       <c r="G21">
-        <v>28.51730180167932</v>
+        <v>28.51730180167957</v>
       </c>
       <c r="H21">
-        <v>27.56585978745917</v>
+        <v>27.5658597874594</v>
       </c>
       <c r="I21">
-        <v>5.118377445476361</v>
+        <v>5.11837744547632</v>
       </c>
       <c r="J21">
-        <v>78.591126443581</v>
+        <v>78.59112644358109</v>
       </c>
       <c r="K21">
-        <v>5.378278203248231</v>
+        <v>5.37827820324812</v>
       </c>
       <c r="L21">
-        <v>50.44836077735396</v>
+        <v>50.44836077735402</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.336850668301913</v>
+        <v>3.336850668301912</v>
       </c>
       <c r="D22">
-        <v>3.864644853516314</v>
+        <v>3.86464485351638</v>
       </c>
       <c r="E22">
-        <v>5.319171294418831</v>
+        <v>5.319171294418798</v>
       </c>
       <c r="F22">
-        <v>39.33632866449707</v>
+        <v>39.33632866449713</v>
       </c>
       <c r="G22">
-        <v>30.3117850039987</v>
+        <v>30.31178500399881</v>
       </c>
       <c r="H22">
-        <v>29.25915934483185</v>
+        <v>29.25915934483191</v>
       </c>
       <c r="I22">
-        <v>5.3959826822541</v>
+        <v>5.395982682254046</v>
       </c>
       <c r="J22">
-        <v>81.82899088728874</v>
+        <v>81.82899088728871</v>
       </c>
       <c r="K22">
-        <v>5.627140261952</v>
+        <v>5.627140261951959</v>
       </c>
       <c r="L22">
-        <v>52.53855036920876</v>
+        <v>52.53855036920878</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.259006479916768</v>
+        <v>3.259006479916933</v>
       </c>
       <c r="D23">
-        <v>3.732328159488576</v>
+        <v>3.732328159488844</v>
       </c>
       <c r="E23">
-        <v>5.192641916317039</v>
+        <v>5.192641916317</v>
       </c>
       <c r="F23">
-        <v>38.13173565413872</v>
+        <v>38.13173565413879</v>
       </c>
       <c r="G23">
-        <v>29.34745953034172</v>
+        <v>29.34745953034187</v>
       </c>
       <c r="H23">
-        <v>28.34965926904579</v>
+        <v>28.34965926904584</v>
       </c>
       <c r="I23">
-        <v>5.247277308733408</v>
+        <v>5.247277308733413</v>
       </c>
       <c r="J23">
-        <v>80.10575086535607</v>
+        <v>80.10575086535616</v>
       </c>
       <c r="K23">
-        <v>5.494266625640307</v>
+        <v>5.494266625640267</v>
       </c>
       <c r="L23">
-        <v>51.42588238639304</v>
+        <v>51.42588238639308</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.970906012201695</v>
+        <v>2.970906012201689</v>
       </c>
       <c r="D24">
-        <v>3.252867230936403</v>
+        <v>3.25286723093647</v>
       </c>
       <c r="E24">
-        <v>5.106845765011222</v>
+        <v>5.106845765011093</v>
       </c>
       <c r="F24">
-        <v>33.73566934013185</v>
+        <v>33.73566934013184</v>
       </c>
       <c r="G24">
-        <v>25.8227774677022</v>
+        <v>25.82277746770221</v>
       </c>
       <c r="H24">
-        <v>25.01572905630633</v>
+        <v>25.01572905630632</v>
       </c>
       <c r="I24">
-        <v>4.693408234444855</v>
+        <v>4.693408234444957</v>
       </c>
       <c r="J24">
-        <v>73.45722781286291</v>
+        <v>73.45722781286285</v>
       </c>
       <c r="K24">
-        <v>4.990410241339436</v>
+        <v>4.990410241339513</v>
       </c>
       <c r="L24">
         <v>47.13793545420098</v>
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.666310785203162</v>
+        <v>2.66631078520325</v>
       </c>
       <c r="D25">
-        <v>2.765473179747301</v>
+        <v>2.765473179747368</v>
       </c>
       <c r="E25">
-        <v>5.115797587124322</v>
+        <v>5.115797587124414</v>
       </c>
       <c r="F25">
-        <v>29.24666837301646</v>
+        <v>29.24666837301654</v>
       </c>
       <c r="G25">
-        <v>22.20842770028628</v>
+        <v>22.20842770028636</v>
       </c>
       <c r="H25">
-        <v>21.57646941333714</v>
+        <v>21.57646941333721</v>
       </c>
       <c r="I25">
-        <v>4.28680353286683</v>
+        <v>4.286803532866887</v>
       </c>
       <c r="J25">
-        <v>65.94451327061958</v>
+        <v>65.94451327061962</v>
       </c>
       <c r="K25">
-        <v>4.948225200027886</v>
+        <v>4.948225200027961</v>
       </c>
       <c r="L25">
-        <v>42.3011131276482</v>
+        <v>42.30111312764822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.441384216982541</v>
+        <v>2.441384216982517</v>
       </c>
       <c r="D2">
-        <v>2.42002368866301</v>
+        <v>2.420023688663141</v>
       </c>
       <c r="E2">
-        <v>5.15396331500151</v>
+        <v>5.153963315001566</v>
       </c>
       <c r="F2">
-        <v>26.09385311800119</v>
+        <v>26.09385311800121</v>
       </c>
       <c r="G2">
-        <v>19.65329665084712</v>
+        <v>19.65329665084716</v>
       </c>
       <c r="H2">
-        <v>19.12659937968524</v>
+        <v>19.12659937968526</v>
       </c>
       <c r="I2">
-        <v>4.515513634310532</v>
+        <v>4.515513634310504</v>
       </c>
       <c r="J2">
-        <v>60.05689026470087</v>
+        <v>60.05689026470095</v>
       </c>
       <c r="K2">
-        <v>5.01129794094815</v>
+        <v>5.011297940948172</v>
       </c>
       <c r="L2">
-        <v>38.51623914968237</v>
+        <v>38.51623914968242</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.286437196505007</v>
+        <v>2.2864371965049</v>
       </c>
       <c r="D3">
         <v>2.189817647795591</v>
       </c>
       <c r="E3">
-        <v>5.195940291905347</v>
+        <v>5.195940291905302</v>
       </c>
       <c r="F3">
-        <v>24.34540506075883</v>
+        <v>24.3454050607588</v>
       </c>
       <c r="G3">
-        <v>18.28080649528688</v>
+        <v>18.28080649528687</v>
       </c>
       <c r="H3">
-        <v>17.89415589189564</v>
+        <v>17.89415589189563</v>
       </c>
       <c r="I3">
-        <v>4.688765692317814</v>
+        <v>4.688765692317784</v>
       </c>
       <c r="J3">
-        <v>55.82051852652389</v>
+        <v>55.8205185265239</v>
       </c>
       <c r="K3">
-        <v>5.069190547308599</v>
+        <v>5.069190547308596</v>
       </c>
       <c r="L3">
-        <v>35.79577691746331</v>
+        <v>35.79577691746329</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.189541265658133</v>
+        <v>2.189541265658336</v>
       </c>
       <c r="D4">
-        <v>2.049234757279089</v>
+        <v>2.049234757278958</v>
       </c>
       <c r="E4">
-        <v>5.228670075071371</v>
+        <v>5.228670075071423</v>
       </c>
       <c r="F4">
-        <v>23.39570509977456</v>
+        <v>23.3957050997745</v>
       </c>
       <c r="G4">
-        <v>17.65960792265259</v>
+        <v>17.65960792265255</v>
       </c>
       <c r="H4">
-        <v>17.30411121031505</v>
+        <v>17.30411121031501</v>
       </c>
       <c r="I4">
-        <v>4.802445756905744</v>
+        <v>4.802445756905806</v>
       </c>
       <c r="J4">
-        <v>53.09126209925646</v>
+        <v>53.0912620992565</v>
       </c>
       <c r="K4">
-        <v>5.11116988867</v>
+        <v>5.111169888669946</v>
       </c>
       <c r="L4">
-        <v>34.04438589517194</v>
+        <v>34.04438589517195</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.149551626920806</v>
+        <v>2.149551626920897</v>
       </c>
       <c r="D5">
-        <v>1.991990453695544</v>
+        <v>1.991990453695742</v>
       </c>
       <c r="E5">
-        <v>5.243626557574562</v>
+        <v>5.243626557574565</v>
       </c>
       <c r="F5">
-        <v>23.02607057430145</v>
+        <v>23.02607057430143</v>
       </c>
       <c r="G5">
-        <v>17.42359526306008</v>
+        <v>17.42359526306005</v>
       </c>
       <c r="H5">
-        <v>17.07887975487264</v>
+        <v>17.07887975487261</v>
       </c>
       <c r="I5">
-        <v>4.850415335513247</v>
+        <v>4.850415335513154</v>
       </c>
       <c r="J5">
         <v>51.94598156622013</v>
       </c>
       <c r="K5">
-        <v>5.129761486086543</v>
+        <v>5.129761486086514</v>
       </c>
       <c r="L5">
-        <v>33.30973722166604</v>
+        <v>33.30973722166602</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.142879386650099</v>
+        <v>2.142879386650117</v>
       </c>
       <c r="D6">
-        <v>1.982483800120233</v>
+        <v>1.982483800120234</v>
       </c>
       <c r="E6">
-        <v>5.246204312763656</v>
+        <v>5.246204312763663</v>
       </c>
       <c r="F6">
-        <v>22.96573882559008</v>
+        <v>22.96573882559011</v>
       </c>
       <c r="G6">
-        <v>17.38542767818338</v>
+        <v>17.3854276781834</v>
       </c>
       <c r="H6">
         <v>17.04238782607236</v>
       </c>
       <c r="I6">
-        <v>4.858475200799314</v>
+        <v>4.858475200799347</v>
       </c>
       <c r="J6">
-        <v>51.75378634253535</v>
+        <v>51.75378634253543</v>
       </c>
       <c r="K6">
-        <v>5.132934730350745</v>
+        <v>5.132934730350755</v>
       </c>
       <c r="L6">
-        <v>33.18646890631693</v>
+        <v>33.18646890631699</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.189004063564095</v>
+        <v>2.189004063564096</v>
       </c>
       <c r="D7">
-        <v>2.048462742393618</v>
+        <v>2.048462742393684</v>
       </c>
       <c r="E7">
-        <v>5.22886539030455</v>
+        <v>5.228865390304441</v>
       </c>
       <c r="F7">
-        <v>23.39064989309578</v>
+        <v>23.39064989309581</v>
       </c>
       <c r="G7">
-        <v>17.65635616374264</v>
+        <v>17.65635616374267</v>
       </c>
       <c r="H7">
-        <v>17.30101255735168</v>
+        <v>17.3010125573517</v>
       </c>
       <c r="I7">
-        <v>4.803086254828165</v>
+        <v>4.803086254828107</v>
       </c>
       <c r="J7">
-        <v>53.07595150443893</v>
+        <v>53.07595150443888</v>
       </c>
       <c r="K7">
-        <v>5.111414772674541</v>
+        <v>5.111414772674508</v>
       </c>
       <c r="L7">
-        <v>34.03456367452888</v>
+        <v>34.03456367452885</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.388282027920861</v>
+        <v>2.388282027920884</v>
       </c>
       <c r="D8">
-        <v>2.340394452054234</v>
+        <v>2.340394452054436</v>
       </c>
       <c r="E8">
-        <v>5.166910162749115</v>
+        <v>5.166910162749132</v>
       </c>
       <c r="F8">
-        <v>25.41864636968677</v>
+        <v>25.41864636968678</v>
       </c>
       <c r="G8">
-        <v>19.06904030321735</v>
+        <v>19.06904030321737</v>
       </c>
       <c r="H8">
-        <v>18.5768397128814</v>
+        <v>18.57683971288139</v>
       </c>
       <c r="I8">
-        <v>4.573603615339796</v>
+        <v>4.573603615339749</v>
       </c>
       <c r="J8">
-        <v>58.62222397282822</v>
+        <v>58.62222397282828</v>
       </c>
       <c r="K8">
-        <v>5.029838201999729</v>
+        <v>5.029838201999694</v>
       </c>
       <c r="L8">
-        <v>37.59467572601409</v>
+        <v>37.59467572601413</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.768682425761618</v>
+        <v>2.768682425761699</v>
       </c>
       <c r="D9">
-        <v>2.926876721131619</v>
+        <v>2.926876721131487</v>
       </c>
       <c r="E9">
-        <v>5.107343105907754</v>
+        <v>5.107343105907799</v>
       </c>
       <c r="F9">
-        <v>30.73190330883306</v>
+        <v>30.73190330883303</v>
       </c>
       <c r="G9">
-        <v>23.40666325497491</v>
+        <v>23.40666325497486</v>
       </c>
       <c r="H9">
-        <v>22.71949761616145</v>
+        <v>22.71949761616137</v>
       </c>
       <c r="I9">
-        <v>4.301515254373199</v>
+        <v>4.30151525437312</v>
       </c>
       <c r="J9">
-        <v>68.52684544589178</v>
+        <v>68.52684544589175</v>
       </c>
       <c r="K9">
-        <v>4.92800144224566</v>
+        <v>4.928001442245646</v>
       </c>
       <c r="L9">
-        <v>43.9627140003238</v>
+        <v>43.96271400032375</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.04827008525776</v>
+        <v>3.048270085257724</v>
       </c>
       <c r="D10">
-        <v>3.379957451183884</v>
+        <v>3.379957451184083</v>
       </c>
       <c r="E10">
-        <v>5.1122551246121</v>
+        <v>5.112255124612171</v>
       </c>
       <c r="F10">
-        <v>34.90475717717266</v>
+        <v>34.90475717717293</v>
       </c>
       <c r="G10">
-        <v>26.76117800139914</v>
+        <v>26.76117800139938</v>
       </c>
       <c r="H10">
-        <v>25.90498078336478</v>
+        <v>25.90498078336501</v>
       </c>
       <c r="I10">
-        <v>4.842662751013567</v>
+        <v>4.84266275101352</v>
       </c>
       <c r="J10">
-        <v>75.28514290722561</v>
+        <v>75.28514290722566</v>
       </c>
       <c r="K10">
-        <v>5.12760321208616</v>
+        <v>5.12760321208605</v>
       </c>
       <c r="L10">
-        <v>48.31610283324382</v>
+        <v>48.31610283324386</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.177471489056767</v>
+        <v>3.177471489056761</v>
       </c>
       <c r="D11">
-        <v>3.594956930789867</v>
+        <v>3.594956930789732</v>
       </c>
       <c r="E11">
-        <v>5.128028275131236</v>
+        <v>5.128028275131187</v>
       </c>
       <c r="F11">
-        <v>36.87670524447046</v>
+        <v>36.87670524447026</v>
       </c>
       <c r="G11">
-        <v>28.34218889613972</v>
+        <v>28.34218889613954</v>
       </c>
       <c r="H11">
-        <v>27.40042119101215</v>
+        <v>27.40042119101199</v>
       </c>
       <c r="I11">
-        <v>5.091076067030897</v>
+        <v>5.091076067030921</v>
       </c>
       <c r="J11">
-        <v>78.26781130105665</v>
+        <v>78.26781130105658</v>
       </c>
       <c r="K11">
         <v>5.353613792361704</v>
       </c>
       <c r="L11">
-        <v>50.23974957031877</v>
+        <v>50.23974957031871</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.226909621181207</v>
+        <v>3.226909621181414</v>
       </c>
       <c r="D12">
-        <v>3.67809930699838</v>
+        <v>3.678099306998245</v>
       </c>
       <c r="E12">
-        <v>5.140115400131017</v>
+        <v>5.140115400131048</v>
       </c>
       <c r="F12">
-        <v>37.6368094186141</v>
+        <v>37.63680941861389</v>
       </c>
       <c r="G12">
-        <v>28.9511029928942</v>
+        <v>28.951102992894</v>
       </c>
       <c r="H12">
-        <v>27.97553670182891</v>
+        <v>27.97553670182872</v>
       </c>
       <c r="I12">
-        <v>5.185840964902759</v>
+        <v>5.185840964902755</v>
       </c>
       <c r="J12">
-        <v>79.38628516263637</v>
+        <v>79.38628516263628</v>
       </c>
       <c r="K12">
-        <v>5.439078812678696</v>
+        <v>5.439078812678764</v>
       </c>
       <c r="L12">
-        <v>50.96149610105491</v>
+        <v>50.96149610105487</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.216235244634771</v>
+        <v>3.21623524463486</v>
       </c>
       <c r="D13">
         <v>3.660107890718406</v>
       </c>
       <c r="E13">
-        <v>5.134373410007753</v>
+        <v>5.134373410007812</v>
       </c>
       <c r="F13">
-        <v>37.47245828162345</v>
+        <v>37.47245828162363</v>
       </c>
       <c r="G13">
-        <v>28.81946293659524</v>
+        <v>28.81946293659542</v>
       </c>
       <c r="H13">
-        <v>27.85124087594654</v>
+        <v>27.85124087594668</v>
       </c>
       <c r="I13">
-        <v>5.16539375909667</v>
+        <v>5.165393759096605</v>
       </c>
       <c r="J13">
-        <v>79.14585051054452</v>
+        <v>79.14585051054458</v>
       </c>
       <c r="K13">
-        <v>5.420673055609329</v>
+        <v>5.420673055609321</v>
       </c>
       <c r="L13">
-        <v>50.80632589939101</v>
+        <v>50.80632589939109</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.181527033910298</v>
+        <v>3.181527033910215</v>
       </c>
       <c r="D14">
-        <v>3.60175950819229</v>
+        <v>3.601759508192355</v>
       </c>
       <c r="E14">
-        <v>5.128657652517902</v>
+        <v>5.128657652518004</v>
       </c>
       <c r="F14">
-        <v>36.93895223342805</v>
+        <v>36.93895223342803</v>
       </c>
       <c r="G14">
-        <v>28.39206387397256</v>
+        <v>28.39206387397257</v>
       </c>
       <c r="H14">
-        <v>27.4475445747289</v>
+        <v>27.44754457472893</v>
       </c>
       <c r="I14">
-        <v>5.098856018143381</v>
+        <v>5.098856018143399</v>
       </c>
       <c r="J14">
-        <v>78.36003486127029</v>
+        <v>78.36003486127049</v>
       </c>
       <c r="K14">
-        <v>5.360645795893797</v>
+        <v>5.360645795893769</v>
       </c>
       <c r="L14">
-        <v>50.29925270313071</v>
+        <v>50.2992527031308</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.160341606806416</v>
+        <v>3.16034160680658</v>
       </c>
       <c r="D15">
-        <v>3.566259608558385</v>
+        <v>3.566259608558387</v>
       </c>
       <c r="E15">
-        <v>5.125459208690201</v>
+        <v>5.125459208690236</v>
       </c>
       <c r="F15">
-        <v>36.61400395455833</v>
+        <v>36.61400395455846</v>
       </c>
       <c r="G15">
-        <v>28.1316818542055</v>
+        <v>28.1316818542056</v>
       </c>
       <c r="H15">
-        <v>27.20149403176945</v>
+        <v>27.2014940317695</v>
       </c>
       <c r="I15">
-        <v>5.058203001679958</v>
+        <v>5.058203001679942</v>
       </c>
       <c r="J15">
-        <v>77.87734146935868</v>
+        <v>77.87734146935877</v>
       </c>
       <c r="K15">
-        <v>5.323870237102094</v>
+        <v>5.32387023710209</v>
       </c>
       <c r="L15">
-        <v>49.98783280298682</v>
+        <v>49.98783280298684</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.039884741742613</v>
+        <v>3.039884741742632</v>
       </c>
       <c r="D16">
-        <v>3.366121409848524</v>
+        <v>3.366121409848724</v>
       </c>
       <c r="E16">
-        <v>5.111521320921033</v>
+        <v>5.111521320921044</v>
       </c>
       <c r="F16">
-        <v>34.77758504320369</v>
+        <v>34.7775850432038</v>
       </c>
       <c r="G16">
-        <v>26.65914312324714</v>
+        <v>26.65914312324727</v>
       </c>
       <c r="H16">
-        <v>25.80835240558917</v>
+        <v>25.80835240558927</v>
       </c>
       <c r="I16">
-        <v>4.826503486237982</v>
+        <v>4.826503486238021</v>
       </c>
       <c r="J16">
-        <v>75.08854921610302</v>
+        <v>75.08854921610309</v>
       </c>
       <c r="K16">
-        <v>5.112800952231979</v>
+        <v>5.112800952231989</v>
       </c>
       <c r="L16">
-        <v>48.18936388391135</v>
+        <v>48.1893638839114</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.966645422247125</v>
+        <v>2.966645422247207</v>
       </c>
       <c r="D17">
-        <v>3.245905206977678</v>
+        <v>3.245905206977611</v>
       </c>
       <c r="E17">
-        <v>5.106636952393419</v>
+        <v>5.106636952393449</v>
       </c>
       <c r="F17">
-        <v>33.67157173451734</v>
+        <v>33.6715717345173</v>
       </c>
       <c r="G17">
-        <v>25.77130042534418</v>
+        <v>25.77130042534411</v>
       </c>
       <c r="H17">
-        <v>24.96690974008845</v>
+        <v>24.96690974008837</v>
       </c>
       <c r="I17">
-        <v>4.685177643682155</v>
+        <v>4.685177643682124</v>
       </c>
       <c r="J17">
-        <v>73.35563643627553</v>
+        <v>73.35563643627552</v>
       </c>
       <c r="K17">
-        <v>4.982813806711627</v>
+        <v>4.982813806711651</v>
       </c>
       <c r="L17">
-        <v>47.07247138877116</v>
+        <v>47.07247138877113</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.924693585428004</v>
+        <v>2.924693585427986</v>
       </c>
       <c r="D18">
-        <v>3.177564410122483</v>
+        <v>3.177564410122418</v>
       </c>
       <c r="E18">
-        <v>5.105081148032255</v>
+        <v>5.105081148032252</v>
       </c>
       <c r="F18">
-        <v>33.04214509903956</v>
+        <v>33.04214509903929</v>
       </c>
       <c r="G18">
-        <v>25.26563978004664</v>
+        <v>25.26563978004638</v>
       </c>
       <c r="H18">
-        <v>24.48713266310315</v>
+        <v>24.4871326631029</v>
       </c>
       <c r="I18">
-        <v>4.604075155330964</v>
+        <v>4.604075155330927</v>
       </c>
       <c r="J18">
-        <v>72.35012260179006</v>
+        <v>72.35012260178996</v>
       </c>
       <c r="K18">
-        <v>4.907785594695834</v>
+        <v>4.907785594695864</v>
       </c>
       <c r="L18">
-        <v>46.42462053826976</v>
+        <v>46.42462053826969</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.910513342135574</v>
+        <v>2.91051334213565</v>
       </c>
       <c r="D19">
-        <v>3.154551658038886</v>
+        <v>3.154551658038818</v>
       </c>
       <c r="E19">
-        <v>5.104761324076441</v>
+        <v>5.104761324076494</v>
       </c>
       <c r="F19">
-        <v>32.83011671027285</v>
+        <v>32.83011671027268</v>
       </c>
       <c r="G19">
-        <v>25.09523233430195</v>
+        <v>25.09523233430179</v>
       </c>
       <c r="H19">
-        <v>24.32535423896808</v>
+        <v>24.32535423896789</v>
       </c>
       <c r="I19">
-        <v>4.576636884439826</v>
+        <v>4.576636884439765</v>
       </c>
       <c r="J19">
-        <v>72.008104439747</v>
+        <v>72.00810443974692</v>
       </c>
       <c r="K19">
-        <v>4.908949221391834</v>
+        <v>4.90894922139181</v>
       </c>
       <c r="L19">
-        <v>46.2042950494112</v>
+        <v>46.20429504941113</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1102,31 +1102,31 @@
         <v>2.974422489225161</v>
       </c>
       <c r="D20">
-        <v>3.258616285281058</v>
+        <v>3.258616285281192</v>
       </c>
       <c r="E20">
         <v>5.107025145792429</v>
       </c>
       <c r="F20">
-        <v>33.78859574156107</v>
+        <v>33.78859574156125</v>
       </c>
       <c r="G20">
-        <v>25.86528060830187</v>
+        <v>25.86528060830204</v>
       </c>
       <c r="H20">
-        <v>25.05603468635513</v>
+        <v>25.05603468635527</v>
       </c>
       <c r="I20">
-        <v>4.700200501146591</v>
+        <v>4.700200501146631</v>
       </c>
       <c r="J20">
-        <v>73.54100318249081</v>
+        <v>73.54100318249085</v>
       </c>
       <c r="K20">
-        <v>4.996676722534613</v>
+        <v>4.996676722534638</v>
       </c>
       <c r="L20">
-        <v>47.19192037266192</v>
+        <v>47.19192037266195</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.19170569544249</v>
+        <v>3.191705695442514</v>
       </c>
       <c r="D21">
-        <v>3.618846818529432</v>
+        <v>3.618846818529299</v>
       </c>
       <c r="E21">
-        <v>5.130272826891909</v>
+        <v>5.130272826891778</v>
       </c>
       <c r="F21">
-        <v>37.09526619260164</v>
+        <v>37.09526619260139</v>
       </c>
       <c r="G21">
-        <v>28.51730180167957</v>
+        <v>28.51730180167932</v>
       </c>
       <c r="H21">
-        <v>27.5658597874594</v>
+        <v>27.56585978745917</v>
       </c>
       <c r="I21">
-        <v>5.11837744547632</v>
+        <v>5.118377445476361</v>
       </c>
       <c r="J21">
-        <v>78.59112644358109</v>
+        <v>78.591126443581</v>
       </c>
       <c r="K21">
-        <v>5.37827820324812</v>
+        <v>5.378278203248231</v>
       </c>
       <c r="L21">
-        <v>50.44836077735402</v>
+        <v>50.44836077735396</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.336850668301912</v>
+        <v>3.336850668301913</v>
       </c>
       <c r="D22">
-        <v>3.86464485351638</v>
+        <v>3.864644853516314</v>
       </c>
       <c r="E22">
-        <v>5.319171294418798</v>
+        <v>5.319171294418831</v>
       </c>
       <c r="F22">
-        <v>39.33632866449713</v>
+        <v>39.33632866449707</v>
       </c>
       <c r="G22">
-        <v>30.31178500399881</v>
+        <v>30.3117850039987</v>
       </c>
       <c r="H22">
-        <v>29.25915934483191</v>
+        <v>29.25915934483185</v>
       </c>
       <c r="I22">
-        <v>5.395982682254046</v>
+        <v>5.3959826822541</v>
       </c>
       <c r="J22">
-        <v>81.82899088728871</v>
+        <v>81.82899088728874</v>
       </c>
       <c r="K22">
-        <v>5.627140261951959</v>
+        <v>5.627140261952</v>
       </c>
       <c r="L22">
-        <v>52.53855036920878</v>
+        <v>52.53855036920876</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.259006479916933</v>
+        <v>3.259006479916768</v>
       </c>
       <c r="D23">
-        <v>3.732328159488844</v>
+        <v>3.732328159488576</v>
       </c>
       <c r="E23">
-        <v>5.192641916317</v>
+        <v>5.192641916317039</v>
       </c>
       <c r="F23">
-        <v>38.13173565413879</v>
+        <v>38.13173565413872</v>
       </c>
       <c r="G23">
-        <v>29.34745953034187</v>
+        <v>29.34745953034172</v>
       </c>
       <c r="H23">
-        <v>28.34965926904584</v>
+        <v>28.34965926904579</v>
       </c>
       <c r="I23">
-        <v>5.247277308733413</v>
+        <v>5.247277308733408</v>
       </c>
       <c r="J23">
-        <v>80.10575086535616</v>
+        <v>80.10575086535607</v>
       </c>
       <c r="K23">
-        <v>5.494266625640267</v>
+        <v>5.494266625640307</v>
       </c>
       <c r="L23">
-        <v>51.42588238639308</v>
+        <v>51.42588238639304</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.970906012201689</v>
+        <v>2.970906012201695</v>
       </c>
       <c r="D24">
-        <v>3.25286723093647</v>
+        <v>3.252867230936403</v>
       </c>
       <c r="E24">
-        <v>5.106845765011093</v>
+        <v>5.106845765011222</v>
       </c>
       <c r="F24">
-        <v>33.73566934013184</v>
+        <v>33.73566934013185</v>
       </c>
       <c r="G24">
-        <v>25.82277746770221</v>
+        <v>25.8227774677022</v>
       </c>
       <c r="H24">
-        <v>25.01572905630632</v>
+        <v>25.01572905630633</v>
       </c>
       <c r="I24">
-        <v>4.693408234444957</v>
+        <v>4.693408234444855</v>
       </c>
       <c r="J24">
-        <v>73.45722781286285</v>
+        <v>73.45722781286291</v>
       </c>
       <c r="K24">
-        <v>4.990410241339513</v>
+        <v>4.990410241339436</v>
       </c>
       <c r="L24">
         <v>47.13793545420098</v>
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.66631078520325</v>
+        <v>2.666310785203162</v>
       </c>
       <c r="D25">
-        <v>2.765473179747368</v>
+        <v>2.765473179747301</v>
       </c>
       <c r="E25">
-        <v>5.115797587124414</v>
+        <v>5.115797587124322</v>
       </c>
       <c r="F25">
-        <v>29.24666837301654</v>
+        <v>29.24666837301646</v>
       </c>
       <c r="G25">
-        <v>22.20842770028636</v>
+        <v>22.20842770028628</v>
       </c>
       <c r="H25">
-        <v>21.57646941333721</v>
+        <v>21.57646941333714</v>
       </c>
       <c r="I25">
-        <v>4.286803532866887</v>
+        <v>4.28680353286683</v>
       </c>
       <c r="J25">
-        <v>65.94451327061962</v>
+        <v>65.94451327061958</v>
       </c>
       <c r="K25">
-        <v>4.948225200027961</v>
+        <v>4.948225200027886</v>
       </c>
       <c r="L25">
-        <v>42.30111312764822</v>
+        <v>42.3011131276482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.441384216982517</v>
+        <v>2.443023026637182</v>
       </c>
       <c r="D2">
-        <v>2.420023688663141</v>
+        <v>2.419193519474388</v>
       </c>
       <c r="E2">
-        <v>5.153963315001566</v>
+        <v>5.152428986798575</v>
       </c>
       <c r="F2">
-        <v>26.09385311800121</v>
+        <v>26.07512504368557</v>
       </c>
       <c r="G2">
-        <v>19.65329665084716</v>
+        <v>19.68518069690791</v>
       </c>
       <c r="H2">
-        <v>19.12659937968526</v>
+        <v>19.44936386374186</v>
       </c>
       <c r="I2">
-        <v>4.515513634310504</v>
+        <v>19.11245805225789</v>
       </c>
       <c r="J2">
-        <v>60.05689026470095</v>
+        <v>4.515869855264123</v>
       </c>
       <c r="K2">
-        <v>5.011297940948172</v>
+        <v>60.05511343323432</v>
       </c>
       <c r="L2">
-        <v>38.51623914968242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5.011029020028275</v>
+      </c>
+      <c r="M2">
+        <v>38.51550508585588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.2864371965049</v>
+        <v>2.288150506656162</v>
       </c>
       <c r="D3">
-        <v>2.189817647795591</v>
+        <v>2.189369493903458</v>
       </c>
       <c r="E3">
-        <v>5.195940291905302</v>
+        <v>5.194676121298767</v>
       </c>
       <c r="F3">
-        <v>24.3454050607588</v>
+        <v>24.32901138927482</v>
       </c>
       <c r="G3">
-        <v>18.28080649528687</v>
+        <v>18.00264476123458</v>
       </c>
       <c r="H3">
-        <v>17.89415589189563</v>
+        <v>18.30997388663682</v>
       </c>
       <c r="I3">
-        <v>4.688765692317784</v>
+        <v>17.8822687292706</v>
       </c>
       <c r="J3">
-        <v>55.8205185265239</v>
+        <v>4.689046571262068</v>
       </c>
       <c r="K3">
-        <v>5.069190547308596</v>
+        <v>55.81918598700868</v>
       </c>
       <c r="L3">
-        <v>35.79577691746329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>5.068977464939536</v>
+      </c>
+      <c r="M3">
+        <v>35.7953222575936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.189541265658336</v>
+        <v>2.191292567979533</v>
       </c>
       <c r="D4">
-        <v>2.049234757278958</v>
+        <v>2.049018578282169</v>
       </c>
       <c r="E4">
-        <v>5.228670075071423</v>
+        <v>5.227586424162289</v>
       </c>
       <c r="F4">
-        <v>23.3957050997745</v>
+        <v>23.38022618255764</v>
       </c>
       <c r="G4">
-        <v>17.65960792265255</v>
+        <v>17.03533748803802</v>
       </c>
       <c r="H4">
-        <v>17.30411121031501</v>
+        <v>17.68776965004088</v>
       </c>
       <c r="I4">
-        <v>4.802445756905806</v>
+        <v>17.29291231915307</v>
       </c>
       <c r="J4">
-        <v>53.0912620992565</v>
+        <v>4.802686770126241</v>
       </c>
       <c r="K4">
-        <v>5.111169888669946</v>
+        <v>53.09017982956027</v>
       </c>
       <c r="L4">
-        <v>34.04438589517195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>5.110997367195317</v>
+      </c>
+      <c r="M4">
+        <v>34.04408692133354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.149551626920897</v>
+        <v>2.151316765289792</v>
       </c>
       <c r="D5">
-        <v>1.991990453695742</v>
+        <v>1.991868488210224</v>
       </c>
       <c r="E5">
-        <v>5.243626557574565</v>
+        <v>5.242619717807283</v>
       </c>
       <c r="F5">
-        <v>23.02607057430143</v>
+        <v>23.01095651535388</v>
       </c>
       <c r="G5">
-        <v>17.42359526306005</v>
+        <v>16.68159926096837</v>
       </c>
       <c r="H5">
-        <v>17.07887975487261</v>
+        <v>17.4513789866155</v>
       </c>
       <c r="I5">
-        <v>4.850415335513154</v>
+        <v>17.06795446135514</v>
       </c>
       <c r="J5">
-        <v>51.94598156622013</v>
+        <v>4.850641507391592</v>
       </c>
       <c r="K5">
-        <v>5.129761486086514</v>
+        <v>51.94499672101399</v>
       </c>
       <c r="L5">
-        <v>33.30973722166602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>5.129606909722566</v>
+      </c>
+      <c r="M5">
+        <v>33.30949845431285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.142879386650117</v>
+        <v>2.144646731403935</v>
       </c>
       <c r="D6">
-        <v>1.982483800120234</v>
+        <v>1.982377468069319</v>
       </c>
       <c r="E6">
-        <v>5.246204312763663</v>
+        <v>5.245210412002676</v>
       </c>
       <c r="F6">
-        <v>22.96573882559011</v>
+        <v>22.95068490085776</v>
       </c>
       <c r="G6">
-        <v>17.3854276781834</v>
+        <v>16.6234882014695</v>
       </c>
       <c r="H6">
-        <v>17.04238782607236</v>
+        <v>17.41315056884354</v>
       </c>
       <c r="I6">
-        <v>4.858475200799347</v>
+        <v>17.03150756198638</v>
       </c>
       <c r="J6">
-        <v>51.75378634253543</v>
+        <v>4.85869898723794</v>
       </c>
       <c r="K6">
-        <v>5.132934730350755</v>
+        <v>51.75281742781268</v>
       </c>
       <c r="L6">
-        <v>33.18646890631699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>5.132783214842861</v>
+      </c>
+      <c r="M6">
+        <v>33.18623996045926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.189004063564096</v>
+        <v>2.190755558767768</v>
       </c>
       <c r="D7">
-        <v>2.048462742393684</v>
+        <v>2.048247834886637</v>
       </c>
       <c r="E7">
-        <v>5.228865390304441</v>
+        <v>5.227782762678371</v>
       </c>
       <c r="F7">
-        <v>23.39064989309581</v>
+        <v>23.37517592721073</v>
       </c>
       <c r="G7">
-        <v>17.65635616374267</v>
+        <v>17.03052497944786</v>
       </c>
       <c r="H7">
-        <v>17.3010125573517</v>
+        <v>17.68451266377934</v>
       </c>
       <c r="I7">
-        <v>4.803086254828107</v>
+        <v>17.28981738319143</v>
       </c>
       <c r="J7">
-        <v>53.07595150443888</v>
+        <v>4.803327062473485</v>
       </c>
       <c r="K7">
-        <v>5.111414772674508</v>
+        <v>53.07487056579372</v>
       </c>
       <c r="L7">
-        <v>34.03456367452885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>5.111242487683096</v>
+      </c>
+      <c r="M7">
+        <v>34.0342655248547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.388282027920884</v>
+        <v>2.389948326427409</v>
       </c>
       <c r="D8">
-        <v>2.340394452054436</v>
+        <v>2.339696758109683</v>
       </c>
       <c r="E8">
-        <v>5.166910162749132</v>
+        <v>5.165465666492648</v>
       </c>
       <c r="F8">
-        <v>25.41864636968678</v>
+        <v>25.40124616608074</v>
       </c>
       <c r="G8">
-        <v>19.06904030321737</v>
+        <v>19.10005387170605</v>
       </c>
       <c r="H8">
-        <v>18.57683971288139</v>
+        <v>19.03368959563076</v>
       </c>
       <c r="I8">
-        <v>4.573603615339749</v>
+        <v>18.56419271923499</v>
       </c>
       <c r="J8">
-        <v>58.62222397282828</v>
+        <v>4.573932408631306</v>
       </c>
       <c r="K8">
-        <v>5.029838201999694</v>
+        <v>58.62060573540738</v>
       </c>
       <c r="L8">
-        <v>37.59467572601413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>5.029587129821733</v>
+      </c>
+      <c r="M8">
+        <v>37.59404178999219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.768682425761699</v>
+        <v>2.770104433722684</v>
       </c>
       <c r="D9">
-        <v>2.926876721131487</v>
+        <v>2.925192691662111</v>
       </c>
       <c r="E9">
-        <v>5.107343105907799</v>
+        <v>5.105327885177484</v>
       </c>
       <c r="F9">
-        <v>30.73190330883303</v>
+        <v>30.70961031834907</v>
       </c>
       <c r="G9">
-        <v>23.40666325497486</v>
+        <v>23.44417985708536</v>
       </c>
       <c r="H9">
-        <v>22.71949761616137</v>
+        <v>22.9446950129842</v>
       </c>
       <c r="I9">
-        <v>4.30151525437312</v>
+        <v>22.70269057699914</v>
       </c>
       <c r="J9">
-        <v>68.52684544589175</v>
+        <v>4.302726085148063</v>
       </c>
       <c r="K9">
-        <v>4.928001442245646</v>
+        <v>68.52393207373042</v>
       </c>
       <c r="L9">
-        <v>43.96271400032375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>4.92765360555999</v>
+      </c>
+      <c r="M9">
+        <v>43.96125297969432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.048270085257724</v>
+        <v>3.049438747797722</v>
       </c>
       <c r="D10">
-        <v>3.379957451184083</v>
+        <v>3.377488962732555</v>
       </c>
       <c r="E10">
-        <v>5.112255124612171</v>
+        <v>5.109941650434197</v>
       </c>
       <c r="F10">
-        <v>34.90475717717293</v>
+        <v>34.87902245638367</v>
       </c>
       <c r="G10">
-        <v>26.76117800139938</v>
+        <v>26.80367000622434</v>
       </c>
       <c r="H10">
-        <v>25.90498078336501</v>
+        <v>26.14102476322053</v>
       </c>
       <c r="I10">
-        <v>4.84266275101352</v>
+        <v>25.8855972387782</v>
       </c>
       <c r="J10">
-        <v>75.28514290722566</v>
+        <v>4.843947071079036</v>
       </c>
       <c r="K10">
-        <v>5.12760321208605</v>
+        <v>75.28101347238848</v>
       </c>
       <c r="L10">
-        <v>48.31610283324386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>5.128387503360266</v>
+      </c>
+      <c r="M10">
+        <v>48.31385181265119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.177471489056761</v>
+        <v>3.178500713421377</v>
       </c>
       <c r="D11">
-        <v>3.594956930789732</v>
+        <v>3.592106783693734</v>
       </c>
       <c r="E11">
-        <v>5.128028275131187</v>
+        <v>5.125614766412006</v>
       </c>
       <c r="F11">
-        <v>36.87670524447026</v>
+        <v>36.84924341907536</v>
       </c>
       <c r="G11">
-        <v>28.34218889613954</v>
+        <v>28.38697304438924</v>
       </c>
       <c r="H11">
-        <v>27.40042119101199</v>
+        <v>27.66318049947911</v>
       </c>
       <c r="I11">
-        <v>5.091076067030921</v>
+        <v>27.37974462396121</v>
       </c>
       <c r="J11">
-        <v>78.26781130105658</v>
+        <v>5.092382657729788</v>
       </c>
       <c r="K11">
-        <v>5.353613792361704</v>
+        <v>78.26303195776802</v>
       </c>
       <c r="L11">
-        <v>50.23974957031871</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>5.354452842716803</v>
+      </c>
+      <c r="M11">
+        <v>50.2370730054883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.226909621181414</v>
+        <v>3.22788162529862</v>
       </c>
       <c r="D12">
-        <v>3.678099306998245</v>
+        <v>3.6750996398238</v>
       </c>
       <c r="E12">
-        <v>5.140115400131048</v>
+        <v>5.139693955436704</v>
       </c>
       <c r="F12">
-        <v>37.63680941861389</v>
+        <v>37.60866191181891</v>
       </c>
       <c r="G12">
-        <v>28.951102992894</v>
+        <v>28.99675771276343</v>
       </c>
       <c r="H12">
-        <v>27.97553670182872</v>
+        <v>28.25154691564498</v>
       </c>
       <c r="I12">
-        <v>5.185840964902755</v>
+        <v>27.95434682641681</v>
       </c>
       <c r="J12">
-        <v>79.38628516263628</v>
+        <v>5.187153854548128</v>
       </c>
       <c r="K12">
-        <v>5.439078812678764</v>
+        <v>79.38124098958691</v>
       </c>
       <c r="L12">
-        <v>50.96149610105487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>5.439938070296747</v>
+      </c>
+      <c r="M12">
+        <v>50.95864562039291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.21623524463486</v>
+        <v>3.217219786828499</v>
       </c>
       <c r="D13">
-        <v>3.660107890718406</v>
+        <v>3.657140675669317</v>
       </c>
       <c r="E13">
-        <v>5.134373410007812</v>
+        <v>5.131934601054355</v>
       </c>
       <c r="F13">
-        <v>37.47245828162363</v>
+        <v>37.44446002567566</v>
       </c>
       <c r="G13">
-        <v>28.81946293659542</v>
+        <v>28.86493008033134</v>
       </c>
       <c r="H13">
-        <v>27.85124087594668</v>
+        <v>28.1242569567088</v>
       </c>
       <c r="I13">
-        <v>5.165393759096605</v>
+        <v>27.83016272886717</v>
       </c>
       <c r="J13">
-        <v>79.14585051054458</v>
+        <v>5.166705397943645</v>
       </c>
       <c r="K13">
-        <v>5.420673055609321</v>
+        <v>79.14086430187966</v>
       </c>
       <c r="L13">
-        <v>50.80632589939109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>5.421527988862421</v>
+      </c>
+      <c r="M13">
+        <v>50.80351350741091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.181527033910215</v>
+        <v>3.182551645711044</v>
       </c>
       <c r="D14">
-        <v>3.601759508192355</v>
+        <v>3.598897170044108</v>
       </c>
       <c r="E14">
-        <v>5.128657652518004</v>
+        <v>5.126241395153428</v>
       </c>
       <c r="F14">
-        <v>36.93895223342803</v>
+        <v>36.91143469083897</v>
       </c>
       <c r="G14">
-        <v>28.39206387397257</v>
+        <v>28.43691960414441</v>
       </c>
       <c r="H14">
-        <v>27.44754457472893</v>
+        <v>27.71133092313047</v>
       </c>
       <c r="I14">
-        <v>5.098856018143399</v>
+        <v>27.42682629618005</v>
       </c>
       <c r="J14">
-        <v>78.36003486127049</v>
+        <v>5.100163173666012</v>
       </c>
       <c r="K14">
-        <v>5.360645795893769</v>
+        <v>78.35523413937891</v>
       </c>
       <c r="L14">
-        <v>50.2992527031308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>5.361486520752547</v>
+      </c>
+      <c r="M14">
+        <v>50.29656210898615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.16034160680658</v>
+        <v>3.161390154191793</v>
       </c>
       <c r="D15">
-        <v>3.566259608558387</v>
+        <v>3.563460809368324</v>
       </c>
       <c r="E15">
-        <v>5.125459208690236</v>
+        <v>5.123057572280906</v>
       </c>
       <c r="F15">
-        <v>36.61400395455846</v>
+        <v>36.58677643552758</v>
       </c>
       <c r="G15">
-        <v>28.1316818542056</v>
+        <v>28.17616335542417</v>
       </c>
       <c r="H15">
-        <v>27.2014940317695</v>
+        <v>27.46003653367351</v>
       </c>
       <c r="I15">
-        <v>5.058203001679942</v>
+        <v>27.18099287498617</v>
       </c>
       <c r="J15">
-        <v>77.87734146935877</v>
+        <v>5.059507113616879</v>
       </c>
       <c r="K15">
-        <v>5.32387023710209</v>
+        <v>77.87265175269243</v>
       </c>
       <c r="L15">
-        <v>49.98783280298684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>5.324702182751209</v>
+      </c>
+      <c r="M15">
+        <v>49.98521503374364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.039884741742632</v>
+        <v>3.041061956087098</v>
       </c>
       <c r="D16">
-        <v>3.366121409848724</v>
+        <v>3.363677253168619</v>
       </c>
       <c r="E16">
-        <v>5.111521320921044</v>
+        <v>5.109215174335266</v>
       </c>
       <c r="F16">
-        <v>34.7775850432038</v>
+        <v>34.75195928858453</v>
       </c>
       <c r="G16">
-        <v>26.65914312324727</v>
+        <v>26.70148579103751</v>
       </c>
       <c r="H16">
-        <v>25.80835240558927</v>
+        <v>26.04308718545238</v>
       </c>
       <c r="I16">
-        <v>4.826503486238021</v>
+        <v>25.78905044249773</v>
       </c>
       <c r="J16">
-        <v>75.08854921610309</v>
+        <v>4.827786085707444</v>
       </c>
       <c r="K16">
-        <v>5.112800952231989</v>
+        <v>75.0844599336581</v>
       </c>
       <c r="L16">
-        <v>48.1893638839114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>5.113581603246673</v>
+      </c>
+      <c r="M16">
+        <v>48.18713908889637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.966645422247207</v>
+        <v>2.967894788587088</v>
       </c>
       <c r="D17">
-        <v>3.245905206977611</v>
+        <v>3.24367138423805</v>
       </c>
       <c r="E17">
-        <v>5.106636952393449</v>
+        <v>5.104399112860612</v>
       </c>
       <c r="F17">
-        <v>33.6715717345173</v>
+        <v>33.646882133211</v>
       </c>
       <c r="G17">
-        <v>25.77130042534411</v>
+        <v>25.81233742635587</v>
       </c>
       <c r="H17">
-        <v>24.96690974008837</v>
+        <v>25.19259549529383</v>
       </c>
       <c r="I17">
-        <v>4.685177643682124</v>
+        <v>24.94830865875403</v>
       </c>
       <c r="J17">
-        <v>73.35563643627552</v>
+        <v>4.686443872590047</v>
       </c>
       <c r="K17">
-        <v>4.982813806711651</v>
+        <v>73.35188779528899</v>
       </c>
       <c r="L17">
-        <v>47.07247138877113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.983562277403022</v>
+      </c>
+      <c r="M17">
+        <v>47.07046873871298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.924693585427986</v>
+        <v>2.92598224426381</v>
       </c>
       <c r="D18">
-        <v>3.177564410122418</v>
+        <v>3.175449339066748</v>
       </c>
       <c r="E18">
-        <v>5.105081148032252</v>
+        <v>5.102885895339478</v>
       </c>
       <c r="F18">
-        <v>33.04214509903929</v>
+        <v>33.01797939855972</v>
       </c>
       <c r="G18">
-        <v>25.26563978004638</v>
+        <v>25.30592861997158</v>
       </c>
       <c r="H18">
-        <v>24.4871326631029</v>
+        <v>24.70965941646205</v>
       </c>
       <c r="I18">
-        <v>4.604075155330927</v>
+        <v>24.46892380589832</v>
       </c>
       <c r="J18">
-        <v>72.35012260178996</v>
+        <v>4.605330959216585</v>
       </c>
       <c r="K18">
-        <v>4.907785594695864</v>
+        <v>72.34656115153196</v>
       </c>
       <c r="L18">
-        <v>46.42462053826969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4.908515348532984</v>
+      </c>
+      <c r="M18">
+        <v>46.42273967940614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.91051334213565</v>
+        <v>2.911814949895741</v>
       </c>
       <c r="D19">
-        <v>3.154551658038818</v>
+        <v>3.152476447942953</v>
       </c>
       <c r="E19">
-        <v>5.104761324076494</v>
+        <v>5.102581031616322</v>
       </c>
       <c r="F19">
-        <v>32.83011671027268</v>
+        <v>32.80612610596705</v>
       </c>
       <c r="G19">
-        <v>25.09523233430179</v>
+        <v>25.13526838335289</v>
       </c>
       <c r="H19">
-        <v>24.32535423896789</v>
+        <v>24.54716395274722</v>
       </c>
       <c r="I19">
-        <v>4.576636884439765</v>
+        <v>24.30727646599764</v>
       </c>
       <c r="J19">
-        <v>72.00810443974692</v>
+        <v>4.57788899818539</v>
       </c>
       <c r="K19">
-        <v>4.90894922139181</v>
+        <v>72.00460498946771</v>
       </c>
       <c r="L19">
-        <v>46.20429504941113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>4.908584128097384</v>
+      </c>
+      <c r="M19">
+        <v>46.20245448162367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.974422489225161</v>
+        <v>2.975664409250073</v>
       </c>
       <c r="D20">
-        <v>3.258616285281192</v>
+        <v>3.256360311457233</v>
       </c>
       <c r="E20">
-        <v>5.107025145792429</v>
+        <v>5.10477968738302</v>
       </c>
       <c r="F20">
-        <v>33.78859574156125</v>
+        <v>33.76380804285564</v>
       </c>
       <c r="G20">
-        <v>25.86528060830204</v>
+        <v>25.90645631692248</v>
       </c>
       <c r="H20">
-        <v>25.05603468635527</v>
+        <v>25.28247223009869</v>
       </c>
       <c r="I20">
-        <v>4.700200501146631</v>
+        <v>25.03736016202517</v>
       </c>
       <c r="J20">
-        <v>73.54100318249085</v>
+        <v>4.701468580348978</v>
       </c>
       <c r="K20">
-        <v>4.996676722534638</v>
+        <v>73.5372192135937</v>
       </c>
       <c r="L20">
-        <v>47.19192037266195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.997428641422896</v>
+      </c>
+      <c r="M20">
+        <v>47.18989471394949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.191705695442514</v>
+        <v>3.192718666691079</v>
       </c>
       <c r="D21">
-        <v>3.618846818529299</v>
+        <v>3.615953824902828</v>
       </c>
       <c r="E21">
-        <v>5.130272826891778</v>
+        <v>5.127849775675411</v>
       </c>
       <c r="F21">
-        <v>37.09526619260139</v>
+        <v>37.06760839520277</v>
       </c>
       <c r="G21">
-        <v>28.51730180167932</v>
+        <v>28.56233706436767</v>
       </c>
       <c r="H21">
-        <v>27.56585978745917</v>
+        <v>27.83227164422179</v>
       </c>
       <c r="I21">
-        <v>5.118377445476361</v>
+        <v>27.54503651087033</v>
       </c>
       <c r="J21">
-        <v>78.591126443581</v>
+        <v>5.119685981117284</v>
       </c>
       <c r="K21">
-        <v>5.378278203248231</v>
+        <v>78.5862717950012</v>
       </c>
       <c r="L21">
-        <v>50.44836077735396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>5.379123117815872</v>
+      </c>
+      <c r="M21">
+        <v>50.44563478670373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.336850668301913</v>
+        <v>3.337687580663836</v>
       </c>
       <c r="D22">
-        <v>3.864644853516314</v>
+        <v>3.861305351150538</v>
       </c>
       <c r="E22">
-        <v>5.319171294418831</v>
+        <v>5.318836906510776</v>
       </c>
       <c r="F22">
-        <v>39.33632866449707</v>
+        <v>39.30660404472839</v>
       </c>
       <c r="G22">
-        <v>30.3117850039987</v>
+        <v>30.35935645221021</v>
       </c>
       <c r="H22">
-        <v>29.25915934483185</v>
+        <v>29.57002942052696</v>
       </c>
       <c r="I22">
-        <v>5.3959826822541</v>
+        <v>29.23678894982346</v>
       </c>
       <c r="J22">
-        <v>81.82899088728874</v>
+        <v>5.397304788374584</v>
       </c>
       <c r="K22">
-        <v>5.627140261952</v>
+        <v>81.82332368514066</v>
       </c>
       <c r="L22">
-        <v>52.53855036920876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>5.628042699775633</v>
+      </c>
+      <c r="M22">
+        <v>52.53528975016381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.259006479916768</v>
+        <v>3.259940170638667</v>
       </c>
       <c r="D23">
-        <v>3.732328159488576</v>
+        <v>3.729230342483565</v>
       </c>
       <c r="E23">
-        <v>5.192641916317039</v>
+        <v>5.19224548046924</v>
       </c>
       <c r="F23">
-        <v>38.13173565413872</v>
+        <v>38.1031353037094</v>
       </c>
       <c r="G23">
-        <v>29.34745953034172</v>
+        <v>29.39367683174154</v>
       </c>
       <c r="H23">
-        <v>28.34965926904579</v>
+        <v>28.63510088073383</v>
       </c>
       <c r="I23">
-        <v>5.247277308733408</v>
+        <v>28.32813040661096</v>
       </c>
       <c r="J23">
-        <v>80.10575086535607</v>
+        <v>5.248593588407026</v>
       </c>
       <c r="K23">
-        <v>5.494266625640307</v>
+        <v>80.10052975109593</v>
       </c>
       <c r="L23">
-        <v>51.42588238639304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>5.495138751714271</v>
+      </c>
+      <c r="M23">
+        <v>51.42291556069011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.970906012201695</v>
+        <v>2.972151305456021</v>
       </c>
       <c r="D24">
-        <v>3.252867230936403</v>
+        <v>3.25062127828292</v>
       </c>
       <c r="E24">
-        <v>5.106845765011222</v>
+        <v>5.104603740831753</v>
       </c>
       <c r="F24">
-        <v>33.73566934013185</v>
+        <v>33.71092603522908</v>
       </c>
       <c r="G24">
-        <v>25.8227774677022</v>
+        <v>25.86389045876896</v>
       </c>
       <c r="H24">
-        <v>25.01572905630633</v>
+        <v>25.24182035072669</v>
       </c>
       <c r="I24">
-        <v>4.693408234444855</v>
+        <v>24.99708776851213</v>
       </c>
       <c r="J24">
-        <v>73.45722781286291</v>
+        <v>4.694675480248935</v>
       </c>
       <c r="K24">
-        <v>4.990410241339436</v>
+        <v>73.45345984231466</v>
       </c>
       <c r="L24">
-        <v>47.13793545420098</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4.991160601958015</v>
+      </c>
+      <c r="M24">
+        <v>47.13592021592115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.666310785203162</v>
+        <v>2.667809585256407</v>
       </c>
       <c r="D25">
-        <v>2.765473179747301</v>
+        <v>2.764063324249392</v>
       </c>
       <c r="E25">
-        <v>5.115797587124322</v>
+        <v>5.113918419854277</v>
       </c>
       <c r="F25">
-        <v>29.24666837301646</v>
+        <v>29.22554202374732</v>
       </c>
       <c r="G25">
-        <v>22.20842770028628</v>
+        <v>22.24414574830724</v>
       </c>
       <c r="H25">
-        <v>21.57646941333714</v>
+        <v>21.8173663274933</v>
       </c>
       <c r="I25">
-        <v>4.28680353286683</v>
+        <v>21.56053533233753</v>
       </c>
       <c r="J25">
-        <v>65.94451327061958</v>
+        <v>4.287293974091655</v>
       </c>
       <c r="K25">
-        <v>4.948225200027886</v>
+        <v>65.94198630451217</v>
       </c>
       <c r="L25">
-        <v>42.3011131276482</v>
+        <v>4.947896194810617</v>
+      </c>
+      <c r="M25">
+        <v>42.29990082233299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.443023026637182</v>
+        <v>7.062063643309684</v>
       </c>
       <c r="D2">
-        <v>2.419193519474388</v>
+        <v>4.033782254474878</v>
       </c>
       <c r="E2">
-        <v>5.152428986798575</v>
+        <v>5.948700713559331</v>
       </c>
       <c r="F2">
-        <v>26.07512504368557</v>
+        <v>51.1226636712837</v>
       </c>
       <c r="G2">
-        <v>19.68518069690791</v>
+        <v>2.09094288597883</v>
       </c>
       <c r="H2">
-        <v>19.44936386374186</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>19.11245805225789</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.515869855264123</v>
+        <v>5.835658381318815</v>
       </c>
       <c r="K2">
-        <v>60.05511343323432</v>
+        <v>45.01420068905557</v>
       </c>
       <c r="L2">
-        <v>5.011029020028275</v>
+        <v>5.031958096427365</v>
       </c>
       <c r="M2">
-        <v>38.51550508585588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>30.92122832136094</v>
+      </c>
+      <c r="N2">
+        <v>12.84818246265047</v>
+      </c>
+      <c r="O2">
+        <v>39.663536247656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.288150506656162</v>
+        <v>6.944777525455692</v>
       </c>
       <c r="D3">
-        <v>2.189369493903458</v>
+        <v>3.73460162673131</v>
       </c>
       <c r="E3">
-        <v>5.194676121298767</v>
+        <v>6.003155912017084</v>
       </c>
       <c r="F3">
-        <v>24.32901138927482</v>
+        <v>49.04614377510025</v>
       </c>
       <c r="G3">
-        <v>18.00264476123458</v>
+        <v>2.110681446457499</v>
       </c>
       <c r="H3">
-        <v>18.30997388663682</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.8822687292706</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.689046571262068</v>
+        <v>5.946284282986867</v>
       </c>
       <c r="K3">
-        <v>55.81918598700868</v>
+        <v>42.14204830413226</v>
       </c>
       <c r="L3">
-        <v>5.068977464939536</v>
+        <v>4.97782369889266</v>
       </c>
       <c r="M3">
-        <v>35.7953222575936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>29.21888976372313</v>
+      </c>
+      <c r="N3">
+        <v>13.03311492939341</v>
+      </c>
+      <c r="O3">
+        <v>38.08723088065884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.191292567979533</v>
+        <v>6.879457747313694</v>
       </c>
       <c r="D4">
-        <v>2.049018578282169</v>
+        <v>3.54694516279404</v>
       </c>
       <c r="E4">
-        <v>5.227586424162289</v>
+        <v>6.037554676875414</v>
       </c>
       <c r="F4">
-        <v>23.38022618255764</v>
+        <v>47.82522855218421</v>
       </c>
       <c r="G4">
-        <v>17.03533748803802</v>
+        <v>2.122897653757823</v>
       </c>
       <c r="H4">
-        <v>17.68776965004088</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.29291231915307</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.802686770126241</v>
+        <v>6.015999727864577</v>
       </c>
       <c r="K4">
-        <v>53.09017982956027</v>
+        <v>40.32521226976317</v>
       </c>
       <c r="L4">
-        <v>5.110997367195317</v>
+        <v>4.945209105360282</v>
       </c>
       <c r="M4">
-        <v>34.04408692133354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>28.15431729210254</v>
+      </c>
+      <c r="N4">
+        <v>13.15066633797897</v>
+      </c>
+      <c r="O4">
+        <v>37.16366897342296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.151316765289792</v>
+        <v>6.854427241173052</v>
       </c>
       <c r="D5">
-        <v>1.991868488210224</v>
+        <v>3.469350718642174</v>
       </c>
       <c r="E5">
-        <v>5.242619717807283</v>
+        <v>6.05182386162405</v>
       </c>
       <c r="F5">
-        <v>23.01095651535388</v>
+        <v>47.34073063769009</v>
       </c>
       <c r="G5">
-        <v>16.68159926096837</v>
+        <v>2.127910958343261</v>
       </c>
       <c r="H5">
-        <v>17.4513789866155</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.06795446135514</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.850641507391592</v>
+        <v>6.044876432641516</v>
       </c>
       <c r="K5">
-        <v>51.94499672101399</v>
+        <v>39.57136795202536</v>
       </c>
       <c r="L5">
-        <v>5.129606909722566</v>
+        <v>4.932044278391472</v>
       </c>
       <c r="M5">
-        <v>33.30949845431285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27.71575125669233</v>
+      </c>
+      <c r="N5">
+        <v>13.19959600778708</v>
+      </c>
+      <c r="O5">
+        <v>36.79796268623946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.144646731403935</v>
+        <v>6.850364205653531</v>
       </c>
       <c r="D6">
-        <v>1.982377468069319</v>
+        <v>3.456395066016293</v>
       </c>
       <c r="E6">
-        <v>5.245210412002676</v>
+        <v>6.054208692481406</v>
       </c>
       <c r="F6">
-        <v>22.95068490085776</v>
+        <v>47.26105341265067</v>
       </c>
       <c r="G6">
-        <v>16.6234882014695</v>
+        <v>2.128745822653586</v>
       </c>
       <c r="H6">
-        <v>17.41315056884354</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.03150756198638</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.85869898723794</v>
+        <v>6.049700077264188</v>
       </c>
       <c r="K6">
-        <v>51.75281742781268</v>
+        <v>39.44538166210771</v>
       </c>
       <c r="L6">
-        <v>5.132783214842861</v>
+        <v>4.929865047863469</v>
       </c>
       <c r="M6">
-        <v>33.18623996045926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27.64264729819475</v>
+      </c>
+      <c r="N6">
+        <v>13.20778330112355</v>
+      </c>
+      <c r="O6">
+        <v>36.73786845244756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.190755558767768</v>
+        <v>6.879113868338354</v>
       </c>
       <c r="D7">
-        <v>2.048247834886637</v>
+        <v>3.545903397035886</v>
       </c>
       <c r="E7">
-        <v>5.227782762678371</v>
+        <v>6.03774608634391</v>
       </c>
       <c r="F7">
-        <v>23.37517592721073</v>
+        <v>47.81864231311172</v>
       </c>
       <c r="G7">
-        <v>17.03052497944786</v>
+        <v>2.122965109575474</v>
       </c>
       <c r="H7">
-        <v>17.68451266377934</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.28981738319143</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.803327062473485</v>
+        <v>6.016387256212035</v>
       </c>
       <c r="K7">
-        <v>53.07487056579372</v>
+        <v>40.31510011682857</v>
       </c>
       <c r="L7">
-        <v>5.111242487683096</v>
+        <v>4.94503108800649</v>
       </c>
       <c r="M7">
-        <v>34.0342655248547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>28.1484215887612</v>
+      </c>
+      <c r="N7">
+        <v>13.15132203876303</v>
+      </c>
+      <c r="O7">
+        <v>37.15869436852092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.389948326427409</v>
+        <v>7.020173588830081</v>
       </c>
       <c r="D8">
-        <v>2.339696758109683</v>
+        <v>3.931362600363566</v>
       </c>
       <c r="E8">
-        <v>5.165465666492648</v>
+        <v>5.967282739463738</v>
       </c>
       <c r="F8">
-        <v>25.40124616608074</v>
+        <v>50.39506911544778</v>
       </c>
       <c r="G8">
-        <v>19.10005387170605</v>
+        <v>2.097735660948858</v>
       </c>
       <c r="H8">
-        <v>19.03368959563076</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18.56419271923499</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.573932408631306</v>
+        <v>5.873440877941879</v>
       </c>
       <c r="K8">
-        <v>58.62060573540738</v>
+        <v>44.03484374109432</v>
       </c>
       <c r="L8">
-        <v>5.029587129821733</v>
+        <v>5.013142800643343</v>
       </c>
       <c r="M8">
-        <v>37.59404178999219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>30.33829831804575</v>
+      </c>
+      <c r="N8">
+        <v>12.91112925029238</v>
+      </c>
+      <c r="O8">
+        <v>39.11050417554141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.770104433722684</v>
+        <v>7.35482301761922</v>
       </c>
       <c r="D9">
-        <v>2.925192691662111</v>
+        <v>4.662933092127078</v>
       </c>
       <c r="E9">
-        <v>5.105327885177484</v>
+        <v>5.836295188537101</v>
       </c>
       <c r="F9">
-        <v>30.70961031834907</v>
+        <v>55.91234360774035</v>
       </c>
       <c r="G9">
-        <v>23.44417985708536</v>
+        <v>2.04844625559087</v>
       </c>
       <c r="H9">
-        <v>22.9446950129842</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>22.70269057699914</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.302726085148063</v>
+        <v>5.60653684037359</v>
       </c>
       <c r="K9">
-        <v>68.52393207373042</v>
+        <v>50.96071870712986</v>
       </c>
       <c r="L9">
-        <v>4.92765360555999</v>
+        <v>5.153365629818527</v>
       </c>
       <c r="M9">
-        <v>43.96125297969432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.48244985930889</v>
+      </c>
+      <c r="N9">
+        <v>12.47082825956855</v>
+      </c>
+      <c r="O9">
+        <v>43.31924358217017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.049438747797722</v>
+        <v>7.644327862120627</v>
       </c>
       <c r="D10">
-        <v>3.377488962732555</v>
+        <v>5.198161720563903</v>
       </c>
       <c r="E10">
-        <v>5.109941650434197</v>
+        <v>5.743764974122582</v>
       </c>
       <c r="F10">
-        <v>34.87902245638367</v>
+        <v>60.3227925243003</v>
       </c>
       <c r="G10">
-        <v>26.80367000622434</v>
+        <v>2.011339854842532</v>
       </c>
       <c r="H10">
-        <v>26.14102476322053</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>25.8855972387782</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.843947071079036</v>
+        <v>5.417471251114648</v>
       </c>
       <c r="K10">
-        <v>75.28101347238848</v>
+        <v>56.11761017244218</v>
       </c>
       <c r="L10">
-        <v>5.128387503360266</v>
+        <v>5.263457274404149</v>
       </c>
       <c r="M10">
-        <v>48.31385181265119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.52100337759956</v>
+      </c>
+      <c r="N10">
+        <v>12.16429490130123</v>
+      </c>
+      <c r="O10">
+        <v>46.70335084863412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.178500713421377</v>
+        <v>7.787950581971723</v>
       </c>
       <c r="D11">
-        <v>3.592106783693734</v>
+        <v>5.445018840254667</v>
       </c>
       <c r="E11">
-        <v>5.125614766412006</v>
+        <v>5.702313299190964</v>
       </c>
       <c r="F11">
-        <v>36.84924341907536</v>
+        <v>62.43267629498903</v>
       </c>
       <c r="G11">
-        <v>28.38697304438924</v>
+        <v>1.993962042325708</v>
       </c>
       <c r="H11">
-        <v>27.66318049947911</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>27.37974462396121</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.092382657729788</v>
+        <v>5.332728919662274</v>
       </c>
       <c r="K11">
-        <v>78.26303195776802</v>
+        <v>58.42160418481014</v>
       </c>
       <c r="L11">
-        <v>5.354452842716803</v>
+        <v>5.316006081654896</v>
       </c>
       <c r="M11">
-        <v>50.2370730054883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>39.07375164193203</v>
+      </c>
+      <c r="N11">
+        <v>12.02798651079686</v>
+      </c>
+      <c r="O11">
+        <v>48.32694721905567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.22788162529862</v>
+        <v>7.844325241416016</v>
       </c>
       <c r="D12">
-        <v>3.6750996398238</v>
+        <v>5.539420151261191</v>
       </c>
       <c r="E12">
-        <v>5.139693955436704</v>
+        <v>5.686694648223478</v>
       </c>
       <c r="F12">
-        <v>37.60866191181891</v>
+        <v>63.2497088870724</v>
       </c>
       <c r="G12">
-        <v>28.99675771276343</v>
+        <v>1.987275922826521</v>
       </c>
       <c r="H12">
-        <v>28.25154691564498</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>27.95434682641681</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.187153854548128</v>
+        <v>5.300800047343833</v>
       </c>
       <c r="K12">
-        <v>79.38124098958691</v>
+        <v>59.29025679748892</v>
       </c>
       <c r="L12">
-        <v>5.439938070296747</v>
+        <v>5.336366051519442</v>
       </c>
       <c r="M12">
-        <v>50.95864562039291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.65908501027145</v>
+      </c>
+      <c r="N12">
+        <v>11.97675796898062</v>
+      </c>
+      <c r="O12">
+        <v>48.95638417726671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.217219786828499</v>
+        <v>7.83209034671164</v>
       </c>
       <c r="D13">
-        <v>3.657140675669317</v>
+        <v>5.51903983337717</v>
       </c>
       <c r="E13">
-        <v>5.131934601054355</v>
+        <v>5.690055151660258</v>
       </c>
       <c r="F13">
-        <v>37.44446002567566</v>
+        <v>63.07288037008212</v>
       </c>
       <c r="G13">
-        <v>28.86493008033134</v>
+        <v>1.988721234526202</v>
       </c>
       <c r="H13">
-        <v>28.1242569567088</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>27.83016272886717</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.166705397943645</v>
+        <v>5.307669652803495</v>
       </c>
       <c r="K13">
-        <v>79.14086430187966</v>
+        <v>59.10330451352104</v>
       </c>
       <c r="L13">
-        <v>5.421527988862421</v>
+        <v>5.331958639399835</v>
       </c>
       <c r="M13">
-        <v>50.80351350741091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.53311254826547</v>
+      </c>
+      <c r="N13">
+        <v>11.98777490031155</v>
+      </c>
+      <c r="O13">
+        <v>48.82012419350337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.182551645711044</v>
+        <v>7.792546878165983</v>
       </c>
       <c r="D14">
-        <v>3.598897170044108</v>
+        <v>5.452763871953695</v>
       </c>
       <c r="E14">
-        <v>5.126241395153428</v>
+        <v>5.701026857247244</v>
       </c>
       <c r="F14">
-        <v>36.91143469083897</v>
+        <v>62.49950989943785</v>
       </c>
       <c r="G14">
-        <v>28.43691960414441</v>
+        <v>1.993414314180365</v>
       </c>
       <c r="H14">
-        <v>27.71133092313047</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>27.42682629618005</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.100163173666012</v>
+        <v>5.330098997176056</v>
       </c>
       <c r="K14">
-        <v>78.35523413937891</v>
+        <v>58.49313032316302</v>
       </c>
       <c r="L14">
-        <v>5.361486520752547</v>
+        <v>5.317671152199071</v>
       </c>
       <c r="M14">
-        <v>50.29656210898615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.12195048120044</v>
+      </c>
+      <c r="N14">
+        <v>12.02376455553113</v>
+      </c>
+      <c r="O14">
+        <v>48.3784209612825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.161390154191793</v>
+        <v>7.768593651104043</v>
       </c>
       <c r="D15">
-        <v>3.563460809368324</v>
+        <v>5.412303040579159</v>
       </c>
       <c r="E15">
-        <v>5.123057572280906</v>
+        <v>5.707757107348972</v>
       </c>
       <c r="F15">
-        <v>36.58677643552758</v>
+        <v>62.15076929504713</v>
       </c>
       <c r="G15">
-        <v>28.17616335542417</v>
+        <v>1.996274052697534</v>
       </c>
       <c r="H15">
-        <v>27.46003653367351</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>27.18099287498617</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.059507113616879</v>
+        <v>5.343858010165703</v>
       </c>
       <c r="K15">
-        <v>77.87265175269243</v>
+        <v>58.11896014443973</v>
       </c>
       <c r="L15">
-        <v>5.324702182751209</v>
+        <v>5.308983350825741</v>
       </c>
       <c r="M15">
-        <v>49.98521503374364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.86980759249622</v>
+      </c>
+      <c r="N15">
+        <v>12.04585764124241</v>
+      </c>
+      <c r="O15">
+        <v>48.10985762055786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.041061956087098</v>
+        <v>7.635203422813435</v>
       </c>
       <c r="D16">
-        <v>3.363677253168619</v>
+        <v>5.182131602624643</v>
       </c>
       <c r="E16">
-        <v>5.109215174335266</v>
+        <v>5.746485650670333</v>
       </c>
       <c r="F16">
-        <v>34.75195928858453</v>
+        <v>60.18723821221641</v>
       </c>
       <c r="G16">
-        <v>26.70148579103751</v>
+        <v>2.01246282022547</v>
       </c>
       <c r="H16">
-        <v>26.04308718545238</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>25.78905044249773</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.827786085707444</v>
+        <v>5.423033033519397</v>
       </c>
       <c r="K16">
-        <v>75.0844599336581</v>
+        <v>55.96636990332465</v>
       </c>
       <c r="L16">
-        <v>5.113581603246673</v>
+        <v>5.260081131645666</v>
       </c>
       <c r="M16">
-        <v>48.18713908889637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>37.41906435720018</v>
+      </c>
+      <c r="N16">
+        <v>12.17326118548718</v>
+      </c>
+      <c r="O16">
+        <v>46.59913487612916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.967894788587088</v>
+        <v>7.556599339774774</v>
       </c>
       <c r="D17">
-        <v>3.24367138423805</v>
+        <v>5.042068708333333</v>
       </c>
       <c r="E17">
-        <v>5.104399112860612</v>
+        <v>5.770398710261329</v>
       </c>
       <c r="F17">
-        <v>33.646882133211</v>
+        <v>59.01114189253101</v>
       </c>
       <c r="G17">
-        <v>25.81233742635587</v>
+        <v>2.022245152134841</v>
       </c>
       <c r="H17">
-        <v>25.19259549529383</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>24.94830865875403</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.686443872590047</v>
+        <v>5.471913430494955</v>
       </c>
       <c r="K17">
-        <v>73.35188779528899</v>
+        <v>54.63647294714082</v>
       </c>
       <c r="L17">
-        <v>4.983562277403022</v>
+        <v>5.230779692786815</v>
       </c>
       <c r="M17">
-        <v>47.07046873871298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36.59475285828221</v>
+      </c>
+      <c r="N17">
+        <v>12.25218373757105</v>
+      </c>
+      <c r="O17">
+        <v>45.6954514842537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.92598224426381</v>
+        <v>7.512490908403585</v>
       </c>
       <c r="D18">
-        <v>3.175449339066748</v>
+        <v>4.96179432263319</v>
       </c>
       <c r="E18">
-        <v>5.102885895339478</v>
+        <v>5.784214060578863</v>
       </c>
       <c r="F18">
-        <v>33.01797939855972</v>
+        <v>58.34418705845245</v>
       </c>
       <c r="G18">
-        <v>25.30592861997158</v>
+        <v>2.027827297433551</v>
       </c>
       <c r="H18">
-        <v>24.70965941646205</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>24.46892380589832</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.605330959216585</v>
+        <v>5.500148402018225</v>
       </c>
       <c r="K18">
-        <v>72.34656115153196</v>
+        <v>53.86744392312816</v>
       </c>
       <c r="L18">
-        <v>4.908515348532984</v>
+        <v>5.214150731351695</v>
       </c>
       <c r="M18">
-        <v>46.42273967940614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>36.15035807298075</v>
+      </c>
+      <c r="N18">
+        <v>12.29787766329989</v>
+      </c>
+      <c r="O18">
+        <v>45.1834060905022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.911814949895741</v>
+        <v>7.497738754605665</v>
       </c>
       <c r="D19">
-        <v>3.152476447942953</v>
+        <v>4.934652513787379</v>
       </c>
       <c r="E19">
-        <v>5.102581031616322</v>
+        <v>5.788902627404472</v>
       </c>
       <c r="F19">
-        <v>32.80612610596705</v>
+        <v>58.11991967749221</v>
       </c>
       <c r="G19">
-        <v>25.13526838335289</v>
+        <v>2.029710583399415</v>
       </c>
       <c r="H19">
-        <v>24.54716395274722</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>24.30727646599764</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.57788899818539</v>
+        <v>5.50972956804473</v>
       </c>
       <c r="K19">
-        <v>72.00460498946771</v>
+        <v>53.60630113560488</v>
       </c>
       <c r="L19">
-        <v>4.908584128097384</v>
+        <v>5.208556237029812</v>
       </c>
       <c r="M19">
-        <v>46.20245448162367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>35.99973594404558</v>
+      </c>
+      <c r="N19">
+        <v>12.31340191337986</v>
+      </c>
+      <c r="O19">
+        <v>45.01130005114505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.975664409250073</v>
+        <v>7.564851023545527</v>
       </c>
       <c r="D20">
-        <v>3.256360311457233</v>
+        <v>5.05694625139092</v>
       </c>
       <c r="E20">
-        <v>5.10477968738302</v>
+        <v>5.767846890828594</v>
       </c>
       <c r="F20">
-        <v>33.76380804285564</v>
+        <v>59.13533595006284</v>
       </c>
       <c r="G20">
-        <v>25.90645631692248</v>
+        <v>2.021208617972304</v>
       </c>
       <c r="H20">
-        <v>25.28247223009869</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>25.03736016202517</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.701468580348978</v>
+        <v>5.466697733287329</v>
       </c>
       <c r="K20">
-        <v>73.5372192135937</v>
+        <v>54.77845386573708</v>
       </c>
       <c r="L20">
-        <v>4.997428641422896</v>
+        <v>5.233874977185204</v>
       </c>
       <c r="M20">
-        <v>47.18989471394949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36.67693199091985</v>
+      </c>
+      <c r="N20">
+        <v>12.24375166139275</v>
+      </c>
+      <c r="O20">
+        <v>45.7908345239553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.192718666691079</v>
+        <v>7.804105240656499</v>
       </c>
       <c r="D21">
-        <v>3.615953824902828</v>
+        <v>5.472201609579017</v>
       </c>
       <c r="E21">
-        <v>5.127849775675411</v>
+        <v>5.697802191882865</v>
       </c>
       <c r="F21">
-        <v>37.06760839520277</v>
+        <v>62.66740165289014</v>
       </c>
       <c r="G21">
-        <v>28.56233706436767</v>
+        <v>1.992039024260064</v>
       </c>
       <c r="H21">
-        <v>27.83227164422179</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>27.54503651087033</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.119685981117284</v>
+        <v>5.323506741198323</v>
       </c>
       <c r="K21">
-        <v>78.5862717950012</v>
+        <v>58.67243607862146</v>
       </c>
       <c r="L21">
-        <v>5.379123117815872</v>
+        <v>5.321854223615763</v>
       </c>
       <c r="M21">
-        <v>50.44563478670373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>39.24277674318569</v>
+      </c>
+      <c r="N21">
+        <v>12.01318358154394</v>
+      </c>
+      <c r="O21">
+        <v>48.50773889111971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.337687580663836</v>
+        <v>7.972247567552825</v>
       </c>
       <c r="D22">
-        <v>3.861305351150538</v>
+        <v>5.749271121717211</v>
       </c>
       <c r="E22">
-        <v>5.318836906510776</v>
+        <v>5.652473167481216</v>
       </c>
       <c r="F22">
-        <v>39.30660404472839</v>
+        <v>65.08345687423878</v>
       </c>
       <c r="G22">
-        <v>30.35935645221021</v>
+        <v>1.972336630118269</v>
       </c>
       <c r="H22">
-        <v>29.57002942052696</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>29.23678894982346</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.397304788374584</v>
+        <v>5.23085390828677</v>
       </c>
       <c r="K22">
-        <v>81.82332368514066</v>
+        <v>61.19666238020486</v>
       </c>
       <c r="L22">
-        <v>5.628042699775633</v>
+        <v>5.382114538786046</v>
       </c>
       <c r="M22">
-        <v>52.53528975016381</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>40.94355854994811</v>
+      </c>
+      <c r="N22">
+        <v>11.86471192407548</v>
+      </c>
+      <c r="O22">
+        <v>50.37044186520318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.259940170638667</v>
+        <v>7.881317249987998</v>
       </c>
       <c r="D23">
-        <v>3.729230342483565</v>
+        <v>5.600695235957934</v>
       </c>
       <c r="E23">
-        <v>5.19224548046924</v>
+        <v>5.676629675580398</v>
       </c>
       <c r="F23">
-        <v>38.1031353037094</v>
+        <v>63.78275685497479</v>
       </c>
       <c r="G23">
-        <v>29.39367683174154</v>
+        <v>1.982924453423881</v>
       </c>
       <c r="H23">
-        <v>28.63510088073383</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>28.32813040661096</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.248593588407026</v>
+        <v>5.2802259022622</v>
       </c>
       <c r="K23">
-        <v>80.10052975109593</v>
+        <v>59.85041715435189</v>
       </c>
       <c r="L23">
-        <v>5.495138751714271</v>
+        <v>5.34965596872757</v>
       </c>
       <c r="M23">
-        <v>51.42291556069011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>40.0365218246186</v>
+      </c>
+      <c r="N23">
+        <v>11.94377782173111</v>
+      </c>
+      <c r="O23">
+        <v>49.36724467017417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.972151305456021</v>
+        <v>7.561117086300058</v>
       </c>
       <c r="D24">
-        <v>3.25062127828292</v>
+        <v>5.05021936774485</v>
       </c>
       <c r="E24">
-        <v>5.104603740831753</v>
+        <v>5.76900035736047</v>
       </c>
       <c r="F24">
-        <v>33.71092603522908</v>
+        <v>59.0791593891263</v>
       </c>
       <c r="G24">
-        <v>25.86389045876896</v>
+        <v>2.021677362986803</v>
       </c>
       <c r="H24">
-        <v>25.24182035072669</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>24.99708776851213</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.694675480248935</v>
+        <v>5.469055334215154</v>
       </c>
       <c r="K24">
-        <v>73.45345984231466</v>
+        <v>54.71427832146443</v>
       </c>
       <c r="L24">
-        <v>4.991160601958015</v>
+        <v>5.23247493130112</v>
       </c>
       <c r="M24">
-        <v>47.13592021592115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>36.63978185235284</v>
+      </c>
+      <c r="N24">
+        <v>12.24756280098223</v>
+      </c>
+      <c r="O24">
+        <v>45.74768868649481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.667809585256407</v>
+        <v>7.257318816153273</v>
       </c>
       <c r="D25">
-        <v>2.764063324249392</v>
+        <v>4.466497358581531</v>
       </c>
       <c r="E25">
-        <v>5.113918419854277</v>
+        <v>5.871027864306547</v>
       </c>
       <c r="F25">
-        <v>29.22554202374732</v>
+        <v>54.36386263522374</v>
       </c>
       <c r="G25">
-        <v>22.24414574830724</v>
+        <v>2.061851900074933</v>
       </c>
       <c r="H25">
-        <v>21.8173663274933</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>21.56053533233753</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.287293974091655</v>
+        <v>5.67742150526292</v>
       </c>
       <c r="K25">
-        <v>65.94198630451217</v>
+        <v>49.09890486142944</v>
       </c>
       <c r="L25">
-        <v>4.947896194810617</v>
+        <v>5.114448470619958</v>
       </c>
       <c r="M25">
-        <v>42.29990082233299</v>
+        <v>33.37628202827197</v>
+      </c>
+      <c r="N25">
+        <v>12.58681461197055</v>
+      </c>
+      <c r="O25">
+        <v>42.13482432405576</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.062063643309684</v>
+        <v>7.516921376166614</v>
       </c>
       <c r="D2">
-        <v>4.033782254474878</v>
+        <v>7.647780564021879</v>
       </c>
       <c r="E2">
-        <v>5.948700713559331</v>
+        <v>8.019352408065783</v>
       </c>
       <c r="F2">
-        <v>51.1226636712837</v>
+        <v>48.33396139538665</v>
       </c>
       <c r="G2">
-        <v>2.09094288597883</v>
+        <v>78.1413625923377</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>19.63216512538802</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.835658381318815</v>
+        <v>4.791861398808997</v>
       </c>
       <c r="K2">
-        <v>45.01420068905557</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.031958096427365</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>30.92122832136094</v>
+        <v>37.87975147443184</v>
       </c>
       <c r="N2">
-        <v>12.84818246265047</v>
+        <v>17.78038998344885</v>
       </c>
       <c r="O2">
-        <v>39.663536247656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.944777525455692</v>
+        <v>6.944863007715386</v>
       </c>
       <c r="D3">
-        <v>3.73460162673131</v>
+        <v>7.236258600791802</v>
       </c>
       <c r="E3">
-        <v>6.003155912017084</v>
+        <v>7.874590061423528</v>
       </c>
       <c r="F3">
-        <v>49.04614377510025</v>
+        <v>45.15009792772888</v>
       </c>
       <c r="G3">
-        <v>2.110681446457499</v>
+        <v>72.43116141666346</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>18.47101199792227</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.946284282986867</v>
+        <v>4.910642939707734</v>
       </c>
       <c r="K3">
-        <v>42.14204830413226</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.97782369889266</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>29.21888976372313</v>
+        <v>35.19519583146092</v>
       </c>
       <c r="N3">
-        <v>13.03311492939341</v>
+        <v>17.12810799947223</v>
       </c>
       <c r="O3">
-        <v>38.08723088065884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.879457747313694</v>
+        <v>6.580547082115587</v>
       </c>
       <c r="D4">
-        <v>3.54694516279404</v>
+        <v>6.978040787250214</v>
       </c>
       <c r="E4">
-        <v>6.037554676875414</v>
+        <v>7.786125798630985</v>
       </c>
       <c r="F4">
-        <v>47.82522855218421</v>
+        <v>43.18691854067383</v>
       </c>
       <c r="G4">
-        <v>2.122897653757823</v>
+        <v>68.88375963496382</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>17.76173745319752</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.015999727864577</v>
+        <v>4.984356842366354</v>
       </c>
       <c r="K4">
-        <v>40.32521226976317</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.945209105360282</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>28.15431729210254</v>
+        <v>33.46533033620814</v>
       </c>
       <c r="N4">
-        <v>13.15066633797897</v>
+        <v>16.71921032985794</v>
       </c>
       <c r="O4">
-        <v>37.16366897342296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.854427241173052</v>
+        <v>6.428603239263292</v>
       </c>
       <c r="D5">
-        <v>3.469350718642174</v>
+        <v>6.871329883233256</v>
       </c>
       <c r="E5">
-        <v>6.05182386162405</v>
+        <v>7.750171010942617</v>
       </c>
       <c r="F5">
-        <v>47.34073063769009</v>
+        <v>42.38447541520198</v>
       </c>
       <c r="G5">
-        <v>2.127910958343261</v>
+        <v>67.42211248101128</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>17.47351714350062</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.044876432641516</v>
+        <v>5.014640579624823</v>
       </c>
       <c r="K5">
-        <v>39.57136795202536</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.932044278391472</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>27.71575125669233</v>
+        <v>32.73932366055318</v>
       </c>
       <c r="N5">
-        <v>13.19959600778708</v>
+        <v>16.55068120757443</v>
       </c>
       <c r="O5">
-        <v>36.79796268623946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.850364205653531</v>
+        <v>6.403157518996906</v>
       </c>
       <c r="D6">
-        <v>3.456395066016293</v>
+        <v>6.853518900065571</v>
       </c>
       <c r="E6">
-        <v>6.054208692481406</v>
+        <v>7.744206325206961</v>
       </c>
       <c r="F6">
-        <v>47.26105341265067</v>
+        <v>42.25108002990676</v>
       </c>
       <c r="G6">
-        <v>2.128745822653586</v>
+        <v>67.17841756558717</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>17.42570676406723</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.049700077264188</v>
+        <v>5.019685243545158</v>
       </c>
       <c r="K6">
-        <v>39.44538166210771</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.929865047863469</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>27.64264729819475</v>
+        <v>32.61748279593183</v>
       </c>
       <c r="N6">
-        <v>13.20778330112355</v>
+        <v>16.52258899382482</v>
       </c>
       <c r="O6">
-        <v>36.73786845244756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.879113868338354</v>
+        <v>6.578512253860951</v>
       </c>
       <c r="D7">
-        <v>3.545903397035886</v>
+        <v>6.976607755732036</v>
       </c>
       <c r="E7">
-        <v>6.03774608634391</v>
+        <v>7.785640523078246</v>
       </c>
       <c r="F7">
-        <v>47.81864231311172</v>
+        <v>43.17610656209249</v>
       </c>
       <c r="G7">
-        <v>2.122965109575474</v>
+        <v>68.86411332938637</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>17.75784716817483</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.016387256212035</v>
+        <v>4.98476420937699</v>
       </c>
       <c r="K7">
-        <v>40.31510011682857</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4.94503108800649</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>28.1484215887612</v>
+        <v>33.45562517851487</v>
       </c>
       <c r="N7">
-        <v>13.15132203876303</v>
+        <v>16.7169448823776</v>
       </c>
       <c r="O7">
-        <v>37.15869436852092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.020173588830081</v>
+        <v>7.322261985563119</v>
       </c>
       <c r="D8">
-        <v>3.931362600363566</v>
+        <v>7.506971537428671</v>
       </c>
       <c r="E8">
-        <v>5.967282739463738</v>
+        <v>7.969342013466107</v>
       </c>
       <c r="F8">
-        <v>50.39506911544778</v>
+        <v>47.23755535044552</v>
       </c>
       <c r="G8">
-        <v>2.097735660948858</v>
+        <v>76.16450514731774</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>19.23092817868838</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.873440877941879</v>
+        <v>4.832686180555792</v>
       </c>
       <c r="K8">
-        <v>44.03484374109432</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.013142800643343</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>30.33829831804575</v>
+        <v>36.97067264470356</v>
       </c>
       <c r="N8">
-        <v>12.91112925029238</v>
+        <v>17.55734345786792</v>
       </c>
       <c r="O8">
-        <v>39.11050417554141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.35482301761922</v>
+        <v>8.687570399486575</v>
       </c>
       <c r="D9">
-        <v>4.662933092127078</v>
+        <v>8.509356833118673</v>
       </c>
       <c r="E9">
-        <v>5.836295188537101</v>
+        <v>8.333970627360937</v>
       </c>
       <c r="F9">
-        <v>55.91234360774035</v>
+        <v>55.44574899437394</v>
       </c>
       <c r="G9">
-        <v>2.04844625559087</v>
+        <v>90.2813455138028</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>22.5223940385147</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.60653684037359</v>
+        <v>4.538073473449642</v>
       </c>
       <c r="K9">
-        <v>50.96071870712986</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.153365629818527</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>34.48244985930889</v>
+        <v>43.247253911148</v>
       </c>
       <c r="N9">
-        <v>12.47082825956855</v>
+        <v>19.13089577167199</v>
       </c>
       <c r="O9">
-        <v>43.31924358217017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.644327862120627</v>
+        <v>9.652155373804963</v>
       </c>
       <c r="D10">
-        <v>5.198161720563903</v>
+        <v>9.235898323770144</v>
       </c>
       <c r="E10">
-        <v>5.743764974122582</v>
+        <v>8.607298854871233</v>
       </c>
       <c r="F10">
-        <v>60.3227925243003</v>
+        <v>61.66298491668842</v>
       </c>
       <c r="G10">
-        <v>2.011339854842532</v>
+        <v>100.5596212461594</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>25.06432471103089</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.417471251114648</v>
+        <v>4.319351119856027</v>
       </c>
       <c r="K10">
-        <v>56.11761017244218</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.263457274404149</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>37.52100337759956</v>
+        <v>47.5358987141389</v>
       </c>
       <c r="N10">
-        <v>12.16429490130123</v>
+        <v>20.23304290313077</v>
       </c>
       <c r="O10">
-        <v>46.70335084863412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.787950581971723</v>
+        <v>10.08819942759296</v>
       </c>
       <c r="D11">
-        <v>5.445018840254667</v>
+        <v>9.568839662287388</v>
       </c>
       <c r="E11">
-        <v>5.702313299190964</v>
+        <v>8.733986403100943</v>
       </c>
       <c r="F11">
-        <v>62.43267629498903</v>
+        <v>64.5273646604842</v>
       </c>
       <c r="G11">
-        <v>1.993962042325708</v>
+        <v>105.2777543030627</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>26.23268939983515</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.332728919662274</v>
+        <v>4.218011481307818</v>
       </c>
       <c r="K11">
-        <v>58.42160418481014</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.316006081654896</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>39.07375164193203</v>
+        <v>49.43299580242508</v>
       </c>
       <c r="N11">
-        <v>12.02798651079686</v>
+        <v>20.72148206614757</v>
       </c>
       <c r="O11">
-        <v>48.32694721905567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.844325241416016</v>
+        <v>10.25356187904379</v>
       </c>
       <c r="D12">
-        <v>5.539420151261191</v>
+        <v>9.695826785621692</v>
       </c>
       <c r="E12">
-        <v>5.686694648223478</v>
+        <v>8.782456445823186</v>
       </c>
       <c r="F12">
-        <v>63.2497088870724</v>
+        <v>65.62178099003533</v>
       </c>
       <c r="G12">
-        <v>1.987275922826521</v>
+        <v>107.0780456908917</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>26.67871393047995</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.300800047343833</v>
+        <v>4.179221115449566</v>
       </c>
       <c r="K12">
-        <v>59.29025679748892</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.336366051519442</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>39.65908501027145</v>
+        <v>50.14548363116395</v>
       </c>
       <c r="N12">
-        <v>11.97675796898062</v>
+        <v>20.90451488844293</v>
       </c>
       <c r="O12">
-        <v>48.95638417726671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.83209034671164</v>
+        <v>10.2179250845926</v>
       </c>
       <c r="D13">
-        <v>5.51903983337717</v>
+        <v>9.668426317507954</v>
       </c>
       <c r="E13">
-        <v>5.690055151660258</v>
+        <v>8.771992193003715</v>
       </c>
       <c r="F13">
-        <v>63.07288037008212</v>
+        <v>65.38555645437047</v>
       </c>
       <c r="G13">
-        <v>1.988721234526202</v>
+        <v>106.6895669400932</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>26.58245840205274</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.307669652803495</v>
+        <v>4.18759664368901</v>
       </c>
       <c r="K13">
-        <v>59.10330451352104</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.331958639399835</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>39.53311254826547</v>
+        <v>49.9922636913853</v>
       </c>
       <c r="N13">
-        <v>11.98777490031155</v>
+        <v>20.86518204977692</v>
       </c>
       <c r="O13">
-        <v>48.82012419350337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.792546878165983</v>
+        <v>10.10179469975584</v>
       </c>
       <c r="D14">
-        <v>5.452763871953695</v>
+        <v>9.579264828805103</v>
       </c>
       <c r="E14">
-        <v>5.701026857247244</v>
+        <v>8.737962958216679</v>
       </c>
       <c r="F14">
-        <v>62.49950989943785</v>
+        <v>64.61717619878272</v>
       </c>
       <c r="G14">
-        <v>1.993414314180365</v>
+        <v>105.4255399401608</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>26.26929924354317</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.330098997176056</v>
+        <v>4.214829511106832</v>
       </c>
       <c r="K14">
-        <v>58.49313032316302</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.317671152199071</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>39.12195048120044</v>
+        <v>49.49171833871974</v>
       </c>
       <c r="N14">
-        <v>12.02376455553113</v>
+        <v>20.73657922683514</v>
       </c>
       <c r="O14">
-        <v>48.3784209612825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.768593651104043</v>
+        <v>10.03071519505794</v>
       </c>
       <c r="D15">
-        <v>5.412303040579159</v>
+        <v>9.524789225537489</v>
       </c>
       <c r="E15">
-        <v>5.707757107348972</v>
+        <v>8.717189579052993</v>
       </c>
       <c r="F15">
-        <v>62.15076929504713</v>
+        <v>64.14795035202847</v>
       </c>
       <c r="G15">
-        <v>1.996274052697534</v>
+        <v>104.6533286515568</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>26.07801360643347</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.343858010165703</v>
+        <v>4.231451166762573</v>
       </c>
       <c r="K15">
-        <v>58.11896014443973</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.308983350825741</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>38.86980759249622</v>
+        <v>49.18441533484536</v>
       </c>
       <c r="N15">
-        <v>12.04585764124241</v>
+        <v>20.6575535925979</v>
       </c>
       <c r="O15">
-        <v>48.10985762055786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.635203422813435</v>
+        <v>9.623653887121987</v>
       </c>
       <c r="D16">
-        <v>5.182131602624643</v>
+        <v>9.214232399141174</v>
       </c>
       <c r="E16">
-        <v>5.746485650670333</v>
+        <v>8.5990788436257</v>
       </c>
       <c r="F16">
-        <v>60.18723821221641</v>
+        <v>61.47687293574567</v>
       </c>
       <c r="G16">
-        <v>2.01246282022547</v>
+        <v>100.2527247365587</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>24.98835693158597</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.423033033519397</v>
+        <v>4.325924901149921</v>
       </c>
       <c r="K16">
-        <v>55.96636990332465</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.260081131645666</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>37.41906435720018</v>
+        <v>47.410980993244</v>
       </c>
       <c r="N16">
-        <v>12.17326118548718</v>
+        <v>20.20085547832506</v>
       </c>
       <c r="O16">
-        <v>46.59913487612916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.556599339774774</v>
+        <v>9.37362922895316</v>
       </c>
       <c r="D17">
-        <v>5.042068708333333</v>
+        <v>9.024681169160978</v>
       </c>
       <c r="E17">
-        <v>5.770398710261329</v>
+        <v>8.527316347624408</v>
       </c>
       <c r="F17">
-        <v>59.01114189253101</v>
+        <v>59.85029501310181</v>
       </c>
       <c r="G17">
-        <v>2.022245152134841</v>
+        <v>97.56861876691053</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>24.32411291832554</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.471913430494955</v>
+        <v>4.38331492484789</v>
       </c>
       <c r="K17">
-        <v>54.63647294714082</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.230779692786815</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>36.59475285828221</v>
+        <v>46.3103989967122</v>
       </c>
       <c r="N17">
-        <v>12.25218373757105</v>
+        <v>19.91731555659951</v>
       </c>
       <c r="O17">
-        <v>45.6954514842537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.512490908403585</v>
+        <v>9.229515804305295</v>
       </c>
       <c r="D18">
-        <v>4.96179432263319</v>
+        <v>8.915842888016615</v>
       </c>
       <c r="E18">
-        <v>5.784214060578863</v>
+        <v>8.486248968209953</v>
       </c>
       <c r="F18">
-        <v>58.34418705845245</v>
+        <v>58.91778662658835</v>
       </c>
       <c r="G18">
-        <v>2.027827297433551</v>
+        <v>96.02822474190077</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>23.94304886837006</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.500148402018225</v>
+        <v>4.416161773801233</v>
       </c>
       <c r="K18">
-        <v>53.86744392312816</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.214150731351695</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>36.15035807298075</v>
+        <v>45.67217119550089</v>
       </c>
       <c r="N18">
-        <v>12.29787766329989</v>
+        <v>19.75301591325654</v>
       </c>
       <c r="O18">
-        <v>45.1834060905022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.497738754605665</v>
+        <v>9.180652382219217</v>
       </c>
       <c r="D19">
-        <v>4.934652513787379</v>
+        <v>8.879010041517144</v>
       </c>
       <c r="E19">
-        <v>5.788902627404472</v>
+        <v>8.472376276400748</v>
       </c>
       <c r="F19">
-        <v>58.11991967749221</v>
+        <v>58.60246493895629</v>
       </c>
       <c r="G19">
-        <v>2.029710583399415</v>
+        <v>95.5070714116721</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>23.81415008415566</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.50972956804473</v>
+        <v>4.427259212070637</v>
       </c>
       <c r="K19">
-        <v>53.60630113560488</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.208556237029812</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>35.99973594404558</v>
+        <v>45.45513702003534</v>
       </c>
       <c r="N19">
-        <v>12.31340191337986</v>
+        <v>19.69718076436706</v>
       </c>
       <c r="O19">
-        <v>45.01130005114505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.564851023545527</v>
+        <v>9.400272395391736</v>
       </c>
       <c r="D20">
-        <v>5.05694625139092</v>
+        <v>9.044836449895978</v>
       </c>
       <c r="E20">
-        <v>5.767846890828594</v>
+        <v>8.534933069276153</v>
       </c>
       <c r="F20">
-        <v>59.13533595006284</v>
+        <v>60.02310245640168</v>
       </c>
       <c r="G20">
-        <v>2.021208617972304</v>
+        <v>97.85394416509472</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>24.3947086129082</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.466697733287329</v>
+        <v>4.377223425511521</v>
       </c>
       <c r="K20">
-        <v>54.77845386573708</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.233874977185204</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>36.67693199091985</v>
+        <v>46.42808458638402</v>
       </c>
       <c r="N20">
-        <v>12.24375166139275</v>
+        <v>19.9476251999929</v>
       </c>
       <c r="O20">
-        <v>45.7908345239553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.804105240656499</v>
+        <v>10.13589239181407</v>
       </c>
       <c r="D21">
-        <v>5.472201609579017</v>
+        <v>9.605423589489568</v>
       </c>
       <c r="E21">
-        <v>5.697802191882865</v>
+        <v>8.747943088075381</v>
       </c>
       <c r="F21">
-        <v>62.66740165289014</v>
+        <v>64.84255985232427</v>
       </c>
       <c r="G21">
-        <v>1.992039024260064</v>
+        <v>105.7963726709297</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>26.3611662733682</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.323506741198323</v>
+        <v>4.206843239320869</v>
       </c>
       <c r="K21">
-        <v>58.67243607862146</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.321854223615763</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>39.24277674318569</v>
+        <v>49.63888335188511</v>
       </c>
       <c r="N21">
-        <v>12.01318358154394</v>
+        <v>20.77440573571855</v>
       </c>
       <c r="O21">
-        <v>48.50773889111971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.972247567552825</v>
+        <v>10.61852658565323</v>
       </c>
       <c r="D22">
-        <v>5.749271121717211</v>
+        <v>9.977521203777783</v>
       </c>
       <c r="E22">
-        <v>5.652473167481216</v>
+        <v>8.890181078767062</v>
       </c>
       <c r="F22">
-        <v>65.08345687423878</v>
+        <v>68.05247706352505</v>
       </c>
       <c r="G22">
-        <v>1.972336630118269</v>
+        <v>111.0722203777111</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>27.66865802349596</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.23085390828677</v>
+        <v>4.092965323292557</v>
       </c>
       <c r="K22">
-        <v>61.19666238020486</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5.382114538786046</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>40.94355854994811</v>
+        <v>51.70423680472832</v>
       </c>
       <c r="N22">
-        <v>11.86471192407548</v>
+        <v>21.3035030076528</v>
       </c>
       <c r="O22">
-        <v>50.37044186520318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.881317249987998</v>
+        <v>10.36049935251579</v>
       </c>
       <c r="D23">
-        <v>5.600695235957934</v>
+        <v>9.778161045674484</v>
       </c>
       <c r="E23">
-        <v>5.676629675580398</v>
+        <v>8.813916823206663</v>
       </c>
       <c r="F23">
-        <v>63.78275685497479</v>
+        <v>66.33184138310739</v>
       </c>
       <c r="G23">
-        <v>1.982924453423881</v>
+        <v>108.2454231793512</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>26.96799185539193</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.2802259022622</v>
+        <v>4.154036889061497</v>
       </c>
       <c r="K23">
-        <v>59.85041715435189</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>5.34965596872757</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>40.0365218246186</v>
+        <v>50.60417905541976</v>
       </c>
       <c r="N23">
-        <v>11.94377782173111</v>
+        <v>21.02215844251505</v>
       </c>
       <c r="O23">
-        <v>49.36724467017417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.561117086300058</v>
+        <v>9.388228220504089</v>
       </c>
       <c r="D24">
-        <v>5.05021936774485</v>
+        <v>9.035723859346314</v>
       </c>
       <c r="E24">
-        <v>5.76900035736047</v>
+        <v>8.531488969034884</v>
       </c>
       <c r="F24">
-        <v>59.0791593891263</v>
+        <v>59.94496833091493</v>
       </c>
       <c r="G24">
-        <v>2.021677362986803</v>
+        <v>97.72494056800696</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>24.36278988079948</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.469055334215154</v>
+        <v>4.37997784086007</v>
       </c>
       <c r="K24">
-        <v>54.71427832146443</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.23247493130112</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>36.63978185235284</v>
+        <v>46.37489615759763</v>
       </c>
       <c r="N24">
-        <v>12.24756280098223</v>
+        <v>19.93392621885536</v>
       </c>
       <c r="O24">
-        <v>45.74768868649481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.257318816153273</v>
+        <v>8.326538895485326</v>
       </c>
       <c r="D25">
-        <v>4.466497358581531</v>
+        <v>8.24112490985318</v>
       </c>
       <c r="E25">
-        <v>5.871027864306547</v>
+        <v>8.234652306760992</v>
       </c>
       <c r="F25">
-        <v>54.36386263522374</v>
+        <v>53.16508207442373</v>
       </c>
       <c r="G25">
-        <v>2.061851900074933</v>
+        <v>86.49528507599607</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>21.5874465764605</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.67742150526292</v>
+        <v>4.617794177358382</v>
       </c>
       <c r="K25">
-        <v>49.09890486142944</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.114448470619958</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>33.37628202827197</v>
+        <v>41.61046140164393</v>
       </c>
       <c r="N25">
-        <v>12.58681461197055</v>
+        <v>18.71416699357378</v>
       </c>
       <c r="O25">
-        <v>42.13482432405576</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.516921376166614</v>
+        <v>4.914950792835458</v>
       </c>
       <c r="D2">
-        <v>7.647780564021879</v>
+        <v>7.232443616329953</v>
       </c>
       <c r="E2">
-        <v>8.019352408065783</v>
+        <v>11.01409948054581</v>
       </c>
       <c r="F2">
-        <v>48.33396139538665</v>
+        <v>44.73207290059849</v>
       </c>
       <c r="G2">
-        <v>78.1413625923377</v>
+        <v>59.60481127584346</v>
       </c>
       <c r="H2">
-        <v>19.63216512538802</v>
+        <v>20.64422773698488</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.791861398808997</v>
+        <v>9.078379738954178</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>37.87975147443184</v>
+        <v>29.00560379347686</v>
       </c>
       <c r="N2">
-        <v>17.78038998344885</v>
+        <v>17.10020804765148</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.944863007715386</v>
+        <v>4.751718583703591</v>
       </c>
       <c r="D3">
-        <v>7.236258600791802</v>
+        <v>7.110324789805595</v>
       </c>
       <c r="E3">
-        <v>7.874590061423528</v>
+        <v>10.99251289653588</v>
       </c>
       <c r="F3">
-        <v>45.15009792772888</v>
+        <v>44.25420883016235</v>
       </c>
       <c r="G3">
-        <v>72.43116141666346</v>
+        <v>58.31999297991726</v>
       </c>
       <c r="H3">
-        <v>18.47101199792227</v>
+        <v>20.51702392276673</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.910642939707734</v>
+        <v>9.116171610652568</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>35.19519583146092</v>
+        <v>28.19426810227755</v>
       </c>
       <c r="N3">
-        <v>17.12810799947223</v>
+        <v>16.90396122823324</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.580547082115587</v>
+        <v>4.650572766439653</v>
       </c>
       <c r="D4">
-        <v>6.978040787250214</v>
+        <v>7.033423505892118</v>
       </c>
       <c r="E4">
-        <v>7.786125798630985</v>
+        <v>10.97969372185768</v>
       </c>
       <c r="F4">
-        <v>43.18691854067383</v>
+        <v>43.97693174143379</v>
       </c>
       <c r="G4">
-        <v>68.88375963496382</v>
+        <v>57.54455822103629</v>
       </c>
       <c r="H4">
-        <v>17.76173745319752</v>
+        <v>20.44600483941624</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.984356842366354</v>
+        <v>9.140449827223883</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>33.46533033620814</v>
+        <v>27.6879812878671</v>
       </c>
       <c r="N4">
-        <v>16.71921032985794</v>
+        <v>16.78458359239772</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.428603239263292</v>
+        <v>4.609195281905808</v>
       </c>
       <c r="D5">
-        <v>6.871329883233256</v>
+        <v>7.001618968934259</v>
       </c>
       <c r="E5">
-        <v>7.750171010942617</v>
+        <v>10.97458091249823</v>
       </c>
       <c r="F5">
-        <v>42.38447541520198</v>
+        <v>43.86809600336566</v>
       </c>
       <c r="G5">
-        <v>67.42211248101128</v>
+        <v>57.23242493420726</v>
       </c>
       <c r="H5">
-        <v>17.47351714350062</v>
+        <v>20.41885875275551</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.014640579624823</v>
+        <v>9.150614587140147</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>32.73932366055318</v>
+        <v>27.47991698697832</v>
       </c>
       <c r="N5">
-        <v>16.55068120757443</v>
+        <v>16.73626877775123</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.403157518996906</v>
+        <v>4.602317122286293</v>
       </c>
       <c r="D6">
-        <v>6.853518900065571</v>
+        <v>6.996310148957993</v>
       </c>
       <c r="E6">
-        <v>7.744206325206961</v>
+        <v>10.97373869383729</v>
       </c>
       <c r="F6">
-        <v>42.25108002990676</v>
+        <v>43.8502776865602</v>
       </c>
       <c r="G6">
-        <v>67.17841756558717</v>
+        <v>57.18084271625633</v>
       </c>
       <c r="H6">
-        <v>17.42570676406723</v>
+        <v>20.41445988586528</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.019685243545158</v>
+        <v>9.152318850889248</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>32.61748279593183</v>
+        <v>27.44527143103032</v>
       </c>
       <c r="N6">
-        <v>16.52258899382482</v>
+        <v>16.72826771590188</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.578512253860951</v>
+        <v>4.650015283736959</v>
       </c>
       <c r="D7">
-        <v>6.976607755732036</v>
+        <v>7.032996446459363</v>
       </c>
       <c r="E7">
-        <v>7.785640523078246</v>
+        <v>10.97962431663458</v>
       </c>
       <c r="F7">
-        <v>43.17610656209249</v>
+        <v>43.97544698924636</v>
       </c>
       <c r="G7">
-        <v>68.86411332938637</v>
+        <v>57.54033240955236</v>
       </c>
       <c r="H7">
-        <v>17.75784716817483</v>
+        <v>20.44563145580851</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.98476420937699</v>
+        <v>9.140585813150395</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>33.45562517851487</v>
+        <v>27.68518193650544</v>
       </c>
       <c r="N7">
-        <v>16.7169448823776</v>
+        <v>16.78393058797123</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.322261985563119</v>
+        <v>4.858900944144376</v>
       </c>
       <c r="D8">
-        <v>7.506971537428671</v>
+        <v>7.190744969949384</v>
       </c>
       <c r="E8">
-        <v>7.969342013466107</v>
+        <v>11.00656716113006</v>
       </c>
       <c r="F8">
-        <v>47.23755535044552</v>
+        <v>44.56402022134782</v>
       </c>
       <c r="G8">
-        <v>76.16450514731774</v>
+        <v>59.15930364935883</v>
       </c>
       <c r="H8">
-        <v>19.23092817868838</v>
+        <v>20.59890646996362</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.832686180555792</v>
+        <v>9.09118820067801</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.97067264470356</v>
+        <v>28.72771217784572</v>
       </c>
       <c r="N8">
-        <v>17.55734345786792</v>
+        <v>17.03234075554067</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.687570399486575</v>
+        <v>5.25832246952499</v>
       </c>
       <c r="D9">
-        <v>8.509356833118673</v>
+        <v>7.484185637731549</v>
       </c>
       <c r="E9">
-        <v>8.333970627360937</v>
+        <v>11.06277892269225</v>
       </c>
       <c r="F9">
-        <v>55.44574899437394</v>
+        <v>45.84131821282696</v>
       </c>
       <c r="G9">
-        <v>90.2813455138028</v>
+        <v>62.41972127004297</v>
       </c>
       <c r="H9">
-        <v>22.5223940385147</v>
+        <v>20.95494830706694</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.538073473449642</v>
+        <v>9.002786524679824</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>43.247253911148</v>
+        <v>30.69568103137626</v>
       </c>
       <c r="N9">
-        <v>19.13089577167199</v>
+        <v>17.52609470345619</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.652155373804963</v>
+        <v>5.542054347930895</v>
       </c>
       <c r="D10">
-        <v>9.235898323770144</v>
+        <v>7.689239182003995</v>
       </c>
       <c r="E10">
-        <v>8.607298854871233</v>
+        <v>11.10603520644482</v>
       </c>
       <c r="F10">
-        <v>61.66298491668842</v>
+        <v>46.84761597670753</v>
       </c>
       <c r="G10">
-        <v>100.5596212461594</v>
+        <v>64.8396326717583</v>
       </c>
       <c r="H10">
-        <v>25.06432471103089</v>
+        <v>21.24913846262579</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.319351119856027</v>
+        <v>8.942923259236585</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>47.5358987141389</v>
+        <v>32.0803250166916</v>
       </c>
       <c r="N10">
-        <v>20.23304290313077</v>
+        <v>17.88989018816469</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.08819942759296</v>
+        <v>5.668388917695323</v>
       </c>
       <c r="D11">
-        <v>9.568839662287388</v>
+        <v>7.780072405592985</v>
       </c>
       <c r="E11">
-        <v>8.733986403100943</v>
+        <v>11.12611620935524</v>
       </c>
       <c r="F11">
-        <v>64.5273646604842</v>
+        <v>47.31847219309314</v>
       </c>
       <c r="G11">
-        <v>105.2777543030627</v>
+        <v>65.94023958133796</v>
       </c>
       <c r="H11">
-        <v>26.23268939983515</v>
+        <v>21.38973443951414</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.218011481307818</v>
+        <v>8.916777651607049</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>49.43299580242508</v>
+        <v>32.69425462796974</v>
       </c>
       <c r="N11">
-        <v>20.72148206614757</v>
+        <v>18.05498905860091</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.25356187904379</v>
+        <v>5.715789680896156</v>
       </c>
       <c r="D12">
-        <v>9.695826785621692</v>
+        <v>7.814104042958537</v>
       </c>
       <c r="E12">
-        <v>8.782456445823186</v>
+        <v>11.13377634346062</v>
       </c>
       <c r="F12">
-        <v>65.62178099003533</v>
+        <v>47.49850797267273</v>
       </c>
       <c r="G12">
-        <v>107.0780456908917</v>
+        <v>66.35654023365794</v>
       </c>
       <c r="H12">
-        <v>26.67871393047995</v>
+        <v>21.44391678936293</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.179221115449566</v>
+        <v>8.907031947398233</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>50.14548363116395</v>
+        <v>32.92424298858464</v>
       </c>
       <c r="N12">
-        <v>20.90451488844293</v>
+        <v>18.11740004507611</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.2179250845926</v>
+        <v>5.705601297033983</v>
       </c>
       <c r="D13">
-        <v>9.668426317507954</v>
+        <v>7.806791151311197</v>
       </c>
       <c r="E13">
-        <v>8.771992193003715</v>
+        <v>11.13212414500853</v>
       </c>
       <c r="F13">
-        <v>65.38555645437047</v>
+        <v>47.45965938185812</v>
       </c>
       <c r="G13">
-        <v>106.6895669400932</v>
+        <v>66.26691037466608</v>
       </c>
       <c r="H13">
-        <v>26.58245840205274</v>
+        <v>21.43220629208573</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.18759664368901</v>
+        <v>8.90912398101613</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>49.9922636913853</v>
+        <v>32.87482474870473</v>
       </c>
       <c r="N13">
-        <v>20.86518204977692</v>
+        <v>18.10396435269273</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.10179469975584</v>
+        <v>5.67229765778489</v>
       </c>
       <c r="D14">
-        <v>9.579264828805103</v>
+        <v>7.78287959477825</v>
       </c>
       <c r="E14">
-        <v>8.737962958216679</v>
+        <v>11.12674530535245</v>
       </c>
       <c r="F14">
-        <v>64.61717619878272</v>
+        <v>47.33324998113607</v>
       </c>
       <c r="G14">
-        <v>105.4255399401608</v>
+        <v>65.97450086393349</v>
       </c>
       <c r="H14">
-        <v>26.26929924354317</v>
+        <v>21.39417336882683</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.214829511106832</v>
+        <v>8.915972765530586</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>49.49171833871974</v>
+        <v>32.7132269555328</v>
       </c>
       <c r="N14">
-        <v>20.73657922683514</v>
+        <v>18.06012611186794</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.03071519505794</v>
+        <v>5.651839720494481</v>
       </c>
       <c r="D15">
-        <v>9.524789225537489</v>
+        <v>7.768185176190119</v>
       </c>
       <c r="E15">
-        <v>8.717189579052993</v>
+        <v>11.12345782585229</v>
       </c>
       <c r="F15">
-        <v>64.14795035202847</v>
+        <v>47.25604175931329</v>
       </c>
       <c r="G15">
-        <v>104.6533286515568</v>
+        <v>65.79531695951111</v>
       </c>
       <c r="H15">
-        <v>26.07801360643347</v>
+        <v>21.37099877189639</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.231451166762573</v>
+        <v>8.920188003754085</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>49.18441533484536</v>
+        <v>32.61391332819531</v>
       </c>
       <c r="N15">
-        <v>20.6575535925979</v>
+        <v>18.03325829585248</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.623653887121987</v>
+        <v>5.533738980398029</v>
       </c>
       <c r="D16">
-        <v>9.214232399141174</v>
+        <v>7.683252644828338</v>
       </c>
       <c r="E16">
-        <v>8.5990788436257</v>
+        <v>11.10473080424206</v>
       </c>
       <c r="F16">
-        <v>61.47687293574567</v>
+        <v>46.81709507028045</v>
       </c>
       <c r="G16">
-        <v>100.2527247365587</v>
+        <v>64.76766249676483</v>
       </c>
       <c r="H16">
-        <v>24.98835693158597</v>
+        <v>21.240083726376</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.325924901149921</v>
+        <v>8.944653699625032</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>47.410980993244</v>
+        <v>32.03986477061195</v>
       </c>
       <c r="N16">
-        <v>20.20085547832506</v>
+        <v>17.87908821389704</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.37362922895316</v>
+        <v>5.460552818440663</v>
       </c>
       <c r="D17">
-        <v>9.024681169160978</v>
+        <v>7.630513050949779</v>
       </c>
       <c r="E17">
-        <v>8.527316347624408</v>
+        <v>11.09334422974061</v>
       </c>
       <c r="F17">
-        <v>59.85029501310181</v>
+        <v>46.55106213276255</v>
       </c>
       <c r="G17">
-        <v>97.56861876691053</v>
+        <v>64.13684975627501</v>
       </c>
       <c r="H17">
-        <v>24.32411291832554</v>
+        <v>21.16148323970889</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.38331492484789</v>
+        <v>8.959940060358335</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>46.3103989967122</v>
+        <v>31.68347065664301</v>
       </c>
       <c r="N17">
-        <v>19.91731555659951</v>
+        <v>17.78437182555642</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.229515804305295</v>
+        <v>5.41820290930397</v>
       </c>
       <c r="D18">
-        <v>8.915842888016615</v>
+        <v>7.599949071430931</v>
       </c>
       <c r="E18">
-        <v>8.486248968209953</v>
+        <v>11.08683308322111</v>
       </c>
       <c r="F18">
-        <v>58.91778662658835</v>
+        <v>46.39928792677541</v>
       </c>
       <c r="G18">
-        <v>96.02822474190077</v>
+        <v>63.77402704897352</v>
       </c>
       <c r="H18">
-        <v>23.94304886837006</v>
+        <v>21.11691333494544</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.416161773801233</v>
+        <v>8.968834706660617</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>45.67217119550089</v>
+        <v>31.47699138543278</v>
       </c>
       <c r="N18">
-        <v>19.75301591325654</v>
+        <v>17.72985944756974</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.180652382219217</v>
+        <v>5.403821616448378</v>
       </c>
       <c r="D19">
-        <v>8.879010041517144</v>
+        <v>7.589561618988784</v>
       </c>
       <c r="E19">
-        <v>8.472376276400748</v>
+        <v>11.08463513042381</v>
       </c>
       <c r="F19">
-        <v>58.60246493895629</v>
+        <v>46.34811740734627</v>
       </c>
       <c r="G19">
-        <v>95.5070714116721</v>
+        <v>63.65119611566303</v>
       </c>
       <c r="H19">
-        <v>23.81415008415566</v>
+        <v>21.10193340298723</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.427259212070637</v>
+        <v>8.971863892759711</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>45.45513702003534</v>
+        <v>31.40683140845222</v>
       </c>
       <c r="N19">
-        <v>19.69718076436706</v>
+        <v>17.71139824942066</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.400272395391736</v>
+        <v>5.468370367709674</v>
       </c>
       <c r="D20">
-        <v>9.044836449895978</v>
+        <v>7.636151126907242</v>
       </c>
       <c r="E20">
-        <v>8.534933069276153</v>
+        <v>11.09455242107288</v>
       </c>
       <c r="F20">
-        <v>60.02310245640168</v>
+        <v>46.57925443515051</v>
       </c>
       <c r="G20">
-        <v>97.85394416509472</v>
+        <v>64.20400371310215</v>
       </c>
       <c r="H20">
-        <v>24.3947086129082</v>
+        <v>21.16978448056546</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.377223425511521</v>
+        <v>8.958302218217121</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>46.42808458638402</v>
+        <v>31.72156521890467</v>
       </c>
       <c r="N20">
-        <v>19.9476251999929</v>
+        <v>17.7944584466223</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.13589239181407</v>
+        <v>5.682092009332891</v>
       </c>
       <c r="D21">
-        <v>9.605423589489568</v>
+        <v>7.789913003062837</v>
       </c>
       <c r="E21">
-        <v>8.747943088075381</v>
+        <v>11.12832370118877</v>
       </c>
       <c r="F21">
-        <v>64.84255985232427</v>
+        <v>47.37033366067705</v>
       </c>
       <c r="G21">
-        <v>105.7963726709297</v>
+        <v>66.06040493570984</v>
       </c>
       <c r="H21">
-        <v>26.3611662733682</v>
+        <v>21.4053192641774</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.206843239320869</v>
+        <v>8.91395691226994</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>49.63888335188511</v>
+        <v>32.76076131050127</v>
       </c>
       <c r="N21">
-        <v>20.77440573571855</v>
+        <v>18.07300581316369</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.61852658565323</v>
+        <v>5.819192596156414</v>
       </c>
       <c r="D22">
-        <v>9.977521203777783</v>
+        <v>7.888272679346156</v>
       </c>
       <c r="E22">
-        <v>8.890181078767062</v>
+        <v>11.15071995959512</v>
       </c>
       <c r="F22">
-        <v>68.05247706352505</v>
+        <v>47.89737880357075</v>
       </c>
       <c r="G22">
-        <v>111.0722203777111</v>
+        <v>67.27071220499988</v>
       </c>
       <c r="H22">
-        <v>27.66865802349596</v>
+        <v>21.56472776413016</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.092965323292557</v>
+        <v>8.885878011806247</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>51.70423680472832</v>
+        <v>33.42532322343214</v>
       </c>
       <c r="N22">
-        <v>21.3035030076528</v>
+        <v>18.25439789848481</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.36049935251579</v>
+        <v>5.746269246439117</v>
       </c>
       <c r="D23">
-        <v>9.778161045674484</v>
+        <v>7.835975516020695</v>
       </c>
       <c r="E23">
-        <v>8.813916823206663</v>
+        <v>11.13873765308359</v>
       </c>
       <c r="F23">
-        <v>66.33184138310739</v>
+        <v>47.61521706503481</v>
       </c>
       <c r="G23">
-        <v>108.2454231793512</v>
+        <v>66.62515911736146</v>
       </c>
       <c r="H23">
-        <v>26.96799185539193</v>
+        <v>21.47915861747452</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.154036889061497</v>
+        <v>8.900781982533418</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>50.60417905541976</v>
+        <v>33.0720320440926</v>
       </c>
       <c r="N23">
-        <v>21.02215844251505</v>
+        <v>18.1576621913069</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.388228220504089</v>
+        <v>5.464836904249327</v>
       </c>
       <c r="D24">
-        <v>9.035723859346314</v>
+        <v>7.63360290954037</v>
       </c>
       <c r="E24">
-        <v>8.531488969034884</v>
+        <v>11.09400608813628</v>
       </c>
       <c r="F24">
-        <v>59.94496833091493</v>
+        <v>46.56650503446433</v>
       </c>
       <c r="G24">
-        <v>97.72494056800696</v>
+        <v>64.17364387386601</v>
       </c>
       <c r="H24">
-        <v>24.36278988079948</v>
+        <v>21.16602956053341</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.37997784086007</v>
+        <v>8.959042355417008</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>46.37489615759763</v>
+        <v>31.70434758434971</v>
       </c>
       <c r="N24">
-        <v>19.93392621885536</v>
+        <v>17.78989846402395</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.326538895485326</v>
+        <v>5.151743491392846</v>
       </c>
       <c r="D25">
-        <v>8.24112490985318</v>
+        <v>7.406594575505938</v>
       </c>
       <c r="E25">
-        <v>8.234652306760992</v>
+        <v>11.04722085599353</v>
       </c>
       <c r="F25">
-        <v>53.16508207442373</v>
+        <v>45.48330728333806</v>
       </c>
       <c r="G25">
-        <v>86.49528507599607</v>
+        <v>61.53143361775621</v>
       </c>
       <c r="H25">
-        <v>21.5874465764605</v>
+        <v>20.85280392962137</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.617794177358382</v>
+        <v>9.025802939837128</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>41.61046140164393</v>
+        <v>30.17306492948946</v>
       </c>
       <c r="N25">
-        <v>18.71416699357378</v>
+        <v>17.39212408504709</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.914950792835458</v>
+        <v>7.516921376166646</v>
       </c>
       <c r="D2">
-        <v>7.232443616329953</v>
+        <v>7.647780564021879</v>
       </c>
       <c r="E2">
-        <v>11.01409948054581</v>
+        <v>8.019352408065791</v>
       </c>
       <c r="F2">
-        <v>44.73207290059849</v>
+        <v>48.33396139538668</v>
       </c>
       <c r="G2">
-        <v>59.60481127584346</v>
+        <v>78.14136259233776</v>
       </c>
       <c r="H2">
-        <v>20.64422773698488</v>
+        <v>19.63216512538803</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.078379738954178</v>
+        <v>4.791861398809</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.00560379347686</v>
+        <v>37.87975147443186</v>
       </c>
       <c r="N2">
-        <v>17.10020804765148</v>
+        <v>17.78038998344886</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.751718583703591</v>
+        <v>6.944863007715401</v>
       </c>
       <c r="D3">
-        <v>7.110324789805595</v>
+        <v>7.236258600791695</v>
       </c>
       <c r="E3">
-        <v>10.99251289653588</v>
+        <v>7.874590061423524</v>
       </c>
       <c r="F3">
-        <v>44.25420883016235</v>
+        <v>45.15009792772888</v>
       </c>
       <c r="G3">
-        <v>58.31999297991726</v>
+        <v>72.43116141666343</v>
       </c>
       <c r="H3">
-        <v>20.51702392276673</v>
+        <v>18.47101199792227</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.116171610652568</v>
+        <v>4.910642939707833</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.19426810227755</v>
+        <v>35.19519583146091</v>
       </c>
       <c r="N3">
-        <v>16.90396122823324</v>
+        <v>17.12810799947223</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.650572766439653</v>
+        <v>6.580547082115619</v>
       </c>
       <c r="D4">
-        <v>7.033423505892118</v>
+        <v>6.978040787250108</v>
       </c>
       <c r="E4">
-        <v>10.97969372185768</v>
+        <v>7.786125798631037</v>
       </c>
       <c r="F4">
-        <v>43.97693174143379</v>
+        <v>43.18691854067374</v>
       </c>
       <c r="G4">
-        <v>57.54455822103629</v>
+        <v>68.88375963496378</v>
       </c>
       <c r="H4">
-        <v>20.44600483941624</v>
+        <v>17.76173745319748</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.140449827223883</v>
+        <v>4.984356842366386</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>27.6879812878671</v>
+        <v>33.4653303362082</v>
       </c>
       <c r="N4">
-        <v>16.78458359239772</v>
+        <v>16.71921032985792</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.609195281905808</v>
+        <v>6.428603239263319</v>
       </c>
       <c r="D5">
-        <v>7.001618968934259</v>
+        <v>6.871329883233146</v>
       </c>
       <c r="E5">
-        <v>10.97458091249823</v>
+        <v>7.750171010942491</v>
       </c>
       <c r="F5">
-        <v>43.86809600336566</v>
+        <v>42.38447541520196</v>
       </c>
       <c r="G5">
-        <v>57.23242493420726</v>
+        <v>67.4221124810113</v>
       </c>
       <c r="H5">
-        <v>20.41885875275551</v>
+        <v>17.4735171435006</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.150614587140147</v>
+        <v>5.014640579624757</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.47991698697832</v>
+        <v>32.73932366055323</v>
       </c>
       <c r="N5">
-        <v>16.73626877775123</v>
+        <v>16.55068120757445</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.602317122286293</v>
+        <v>6.403157518996857</v>
       </c>
       <c r="D6">
-        <v>6.996310148957993</v>
+        <v>6.853518900065538</v>
       </c>
       <c r="E6">
-        <v>10.97373869383729</v>
+        <v>7.744206325206967</v>
       </c>
       <c r="F6">
-        <v>43.8502776865602</v>
+        <v>42.25108002990673</v>
       </c>
       <c r="G6">
-        <v>57.18084271625633</v>
+        <v>67.17841756558727</v>
       </c>
       <c r="H6">
-        <v>20.41445988586528</v>
+        <v>17.4257067640672</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.152318850889248</v>
+        <v>5.019685243545155</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.44527143103032</v>
+        <v>32.61748279593192</v>
       </c>
       <c r="N6">
-        <v>16.72826771590188</v>
+        <v>16.5225889938248</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.650015283736959</v>
+        <v>6.578512253860951</v>
       </c>
       <c r="D7">
-        <v>7.032996446459363</v>
+        <v>6.976607755731965</v>
       </c>
       <c r="E7">
-        <v>10.97962431663458</v>
+        <v>7.785640523078243</v>
       </c>
       <c r="F7">
-        <v>43.97544698924636</v>
+        <v>43.17610656209247</v>
       </c>
       <c r="G7">
-        <v>57.54033240955236</v>
+        <v>68.86411332938638</v>
       </c>
       <c r="H7">
-        <v>20.44563145580851</v>
+        <v>17.75784716817481</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.140585813150395</v>
+        <v>4.984764209377091</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27.68518193650544</v>
+        <v>33.45562517851492</v>
       </c>
       <c r="N7">
-        <v>16.78393058797123</v>
+        <v>16.71694488237765</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858900944144376</v>
+        <v>7.322261985563094</v>
       </c>
       <c r="D8">
-        <v>7.190744969949384</v>
+        <v>7.50697153742871</v>
       </c>
       <c r="E8">
-        <v>11.00656716113006</v>
+        <v>7.96934201346617</v>
       </c>
       <c r="F8">
-        <v>44.56402022134782</v>
+        <v>47.23755535044553</v>
       </c>
       <c r="G8">
-        <v>59.15930364935883</v>
+        <v>76.16450514731774</v>
       </c>
       <c r="H8">
-        <v>20.59890646996362</v>
+        <v>19.23092817868842</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.09118820067801</v>
+        <v>4.832686180555792</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.72771217784572</v>
+        <v>36.97067264470356</v>
       </c>
       <c r="N8">
-        <v>17.03234075554067</v>
+        <v>17.55734345786796</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.25832246952499</v>
+        <v>8.687570399486667</v>
       </c>
       <c r="D9">
-        <v>7.484185637731549</v>
+        <v>8.509356833118684</v>
       </c>
       <c r="E9">
-        <v>11.06277892269225</v>
+        <v>8.333970627360985</v>
       </c>
       <c r="F9">
-        <v>45.84131821282696</v>
+        <v>55.44574899437414</v>
       </c>
       <c r="G9">
-        <v>62.41972127004297</v>
+        <v>90.28134551380305</v>
       </c>
       <c r="H9">
-        <v>20.95494830706694</v>
+        <v>22.52239403851478</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.002786524679824</v>
+        <v>4.538073473449677</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>30.69568103137626</v>
+        <v>43.24725391114808</v>
       </c>
       <c r="N9">
-        <v>17.52609470345619</v>
+        <v>19.13089577167202</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.542054347930895</v>
+        <v>9.652155373805213</v>
       </c>
       <c r="D10">
-        <v>7.689239182003995</v>
+        <v>9.23589832377003</v>
       </c>
       <c r="E10">
-        <v>11.10603520644482</v>
+        <v>8.60729885487112</v>
       </c>
       <c r="F10">
-        <v>46.84761597670753</v>
+        <v>61.66298491668856</v>
       </c>
       <c r="G10">
-        <v>64.8396326717583</v>
+        <v>100.5596212461596</v>
       </c>
       <c r="H10">
-        <v>21.24913846262579</v>
+        <v>25.06432471103094</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.942923259236585</v>
+        <v>4.31935111985596</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>32.0803250166916</v>
+        <v>47.53589871413899</v>
       </c>
       <c r="N10">
-        <v>17.88989018816469</v>
+        <v>20.23304290313079</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.668388917695323</v>
+        <v>10.08819942759293</v>
       </c>
       <c r="D11">
-        <v>7.780072405592985</v>
+        <v>9.568839662287361</v>
       </c>
       <c r="E11">
-        <v>11.12611620935524</v>
+        <v>8.733986403100996</v>
       </c>
       <c r="F11">
-        <v>47.31847219309314</v>
+        <v>64.52736466048439</v>
       </c>
       <c r="G11">
-        <v>65.94023958133796</v>
+        <v>105.277754303063</v>
       </c>
       <c r="H11">
-        <v>21.38973443951414</v>
+        <v>26.23268939983525</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.916777651607049</v>
+        <v>4.218011481307852</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>32.69425462796974</v>
+        <v>49.43299580242519</v>
       </c>
       <c r="N11">
-        <v>18.05498905860091</v>
+        <v>20.72148206614758</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.715789680896156</v>
+        <v>10.25356187904361</v>
       </c>
       <c r="D12">
-        <v>7.814104042958537</v>
+        <v>9.695826785621616</v>
       </c>
       <c r="E12">
-        <v>11.13377634346062</v>
+        <v>8.782456445823192</v>
       </c>
       <c r="F12">
-        <v>47.49850797267273</v>
+        <v>65.62178099003522</v>
       </c>
       <c r="G12">
-        <v>66.35654023365794</v>
+        <v>107.0780456908916</v>
       </c>
       <c r="H12">
-        <v>21.44391678936293</v>
+        <v>26.67871393047989</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.907031947398233</v>
+        <v>4.179221115449566</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>32.92424298858464</v>
+        <v>50.14548363116389</v>
       </c>
       <c r="N12">
-        <v>18.11740004507611</v>
+        <v>20.90451488844292</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.705601297033983</v>
+        <v>10.21792508459269</v>
       </c>
       <c r="D13">
-        <v>7.806791151311197</v>
+        <v>9.668426317507908</v>
       </c>
       <c r="E13">
-        <v>11.13212414500853</v>
+        <v>8.771992193003724</v>
       </c>
       <c r="F13">
-        <v>47.45965938185812</v>
+        <v>65.3855564543708</v>
       </c>
       <c r="G13">
-        <v>66.26691037466608</v>
+        <v>106.6895669400937</v>
       </c>
       <c r="H13">
-        <v>21.43220629208573</v>
+        <v>26.58245840205289</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.90912398101613</v>
+        <v>4.187596643689044</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>32.87482474870473</v>
+        <v>49.99226369138541</v>
       </c>
       <c r="N13">
-        <v>18.10396435269273</v>
+        <v>20.86518204977691</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.67229765778489</v>
+        <v>10.10179469975568</v>
       </c>
       <c r="D14">
-        <v>7.78287959477825</v>
+        <v>9.579264828805025</v>
       </c>
       <c r="E14">
-        <v>11.12674530535245</v>
+        <v>8.737962958216668</v>
       </c>
       <c r="F14">
-        <v>47.33324998113607</v>
+        <v>64.6171761987828</v>
       </c>
       <c r="G14">
-        <v>65.97450086393349</v>
+        <v>105.4255399401609</v>
       </c>
       <c r="H14">
-        <v>21.39417336882683</v>
+        <v>26.26929924354318</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.915972765530586</v>
+        <v>4.214829511106901</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>32.7132269555328</v>
+        <v>49.4917183387198</v>
       </c>
       <c r="N14">
-        <v>18.06012611186794</v>
+        <v>20.73657922683516</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.651839720494481</v>
+        <v>10.03071519505814</v>
       </c>
       <c r="D15">
-        <v>7.768185176190119</v>
+        <v>9.524789225537639</v>
       </c>
       <c r="E15">
-        <v>11.12345782585229</v>
+        <v>8.717189579053084</v>
       </c>
       <c r="F15">
-        <v>47.25604175931329</v>
+        <v>64.14795035202877</v>
       </c>
       <c r="G15">
-        <v>65.79531695951111</v>
+        <v>104.6533286515575</v>
       </c>
       <c r="H15">
-        <v>21.37099877189639</v>
+        <v>26.0780136064336</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.920188003754085</v>
+        <v>4.231451166762573</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>32.61391332819531</v>
+        <v>49.18441533484548</v>
       </c>
       <c r="N15">
-        <v>18.03325829585248</v>
+        <v>20.65755359259789</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.533738980398029</v>
+        <v>9.623653887121881</v>
       </c>
       <c r="D16">
-        <v>7.683252644828338</v>
+        <v>9.214232399141247</v>
       </c>
       <c r="E16">
-        <v>11.10473080424206</v>
+        <v>8.599078843625687</v>
       </c>
       <c r="F16">
-        <v>46.81709507028045</v>
+        <v>61.47687293574536</v>
       </c>
       <c r="G16">
-        <v>64.76766249676483</v>
+        <v>100.2527247365582</v>
       </c>
       <c r="H16">
-        <v>21.240083726376</v>
+        <v>24.98835693158583</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.944653699625032</v>
+        <v>4.325924901149952</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>32.03986477061195</v>
+        <v>47.41098099324386</v>
       </c>
       <c r="N16">
-        <v>17.87908821389704</v>
+        <v>20.20085547832505</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.460552818440663</v>
+        <v>9.3736292289533</v>
       </c>
       <c r="D17">
-        <v>7.630513050949779</v>
+        <v>9.024681169160869</v>
       </c>
       <c r="E17">
-        <v>11.09334422974061</v>
+        <v>8.527316347624392</v>
       </c>
       <c r="F17">
-        <v>46.55106213276255</v>
+        <v>59.85029501310171</v>
       </c>
       <c r="G17">
-        <v>64.13684975627501</v>
+        <v>97.56861876691035</v>
       </c>
       <c r="H17">
-        <v>21.16148323970889</v>
+        <v>24.3241129183255</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.959940060358335</v>
+        <v>4.383314924847959</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>31.68347065664301</v>
+        <v>46.3103989967121</v>
       </c>
       <c r="N17">
-        <v>17.78437182555642</v>
+        <v>19.91731555659949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.41820290930397</v>
+        <v>9.229515804305235</v>
       </c>
       <c r="D18">
-        <v>7.599949071430931</v>
+        <v>8.91584288801649</v>
       </c>
       <c r="E18">
-        <v>11.08683308322111</v>
+        <v>8.486248968209892</v>
       </c>
       <c r="F18">
-        <v>46.39928792677541</v>
+        <v>58.91778662658829</v>
       </c>
       <c r="G18">
-        <v>63.77402704897352</v>
+        <v>96.0282247419007</v>
       </c>
       <c r="H18">
-        <v>21.11691333494544</v>
+        <v>23.94304886837001</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.968834706660617</v>
+        <v>4.41616177380123</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>31.47699138543278</v>
+        <v>45.67217119550085</v>
       </c>
       <c r="N18">
-        <v>17.72985944756974</v>
+        <v>19.75301591325652</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.403821616448378</v>
+        <v>9.180652382219314</v>
       </c>
       <c r="D19">
-        <v>7.589561618988784</v>
+        <v>8.87901004151704</v>
       </c>
       <c r="E19">
-        <v>11.08463513042381</v>
+        <v>8.472376276400805</v>
       </c>
       <c r="F19">
-        <v>46.34811740734627</v>
+        <v>58.60246493895635</v>
       </c>
       <c r="G19">
-        <v>63.65119611566303</v>
+        <v>95.50707141167226</v>
       </c>
       <c r="H19">
-        <v>21.10193340298723</v>
+        <v>23.81415008415564</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.971863892759711</v>
+        <v>4.427259212070735</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>31.40683140845222</v>
+        <v>45.45513702003538</v>
       </c>
       <c r="N19">
-        <v>17.71139824942066</v>
+        <v>19.69718076436707</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.468370367709674</v>
+        <v>9.400272395391632</v>
       </c>
       <c r="D20">
-        <v>7.636151126907242</v>
+        <v>9.044836449896039</v>
       </c>
       <c r="E20">
-        <v>11.09455242107288</v>
+        <v>8.534933069276216</v>
       </c>
       <c r="F20">
-        <v>46.57925443515051</v>
+        <v>60.02310245640145</v>
       </c>
       <c r="G20">
-        <v>64.20400371310215</v>
+        <v>97.85394416509438</v>
       </c>
       <c r="H20">
-        <v>21.16978448056546</v>
+        <v>24.39470861290811</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.958302218217121</v>
+        <v>4.37722342551152</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>31.72156521890467</v>
+        <v>46.42808458638392</v>
       </c>
       <c r="N20">
-        <v>17.7944584466223</v>
+        <v>19.94762519999292</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.682092009332891</v>
+        <v>10.13589239181396</v>
       </c>
       <c r="D21">
-        <v>7.789913003062837</v>
+        <v>9.605423589489508</v>
       </c>
       <c r="E21">
-        <v>11.12832370118877</v>
+        <v>8.747943088075365</v>
       </c>
       <c r="F21">
-        <v>47.37033366067705</v>
+        <v>64.84255985232399</v>
       </c>
       <c r="G21">
-        <v>66.06040493570984</v>
+        <v>105.7963726709292</v>
       </c>
       <c r="H21">
-        <v>21.4053192641774</v>
+        <v>26.36116627336807</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.91395691226994</v>
+        <v>4.206843239320836</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>32.76076131050127</v>
+        <v>49.63888335188498</v>
       </c>
       <c r="N21">
-        <v>18.07300581316369</v>
+        <v>20.77440573571858</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.819192596156414</v>
+        <v>10.61852658565327</v>
       </c>
       <c r="D22">
-        <v>7.888272679346156</v>
+        <v>9.97752120377784</v>
       </c>
       <c r="E22">
-        <v>11.15071995959512</v>
+        <v>8.890181078767229</v>
       </c>
       <c r="F22">
-        <v>47.89737880357075</v>
+        <v>68.05247706352515</v>
       </c>
       <c r="G22">
-        <v>67.27071220499988</v>
+        <v>111.0722203777113</v>
       </c>
       <c r="H22">
-        <v>21.56472776413016</v>
+        <v>27.66865802349603</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.885878011806247</v>
+        <v>4.09296532329269</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>33.42532322343214</v>
+        <v>51.70423680472831</v>
       </c>
       <c r="N22">
-        <v>18.25439789848481</v>
+        <v>21.30350300765278</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.746269246439117</v>
+        <v>10.36049935251584</v>
       </c>
       <c r="D23">
-        <v>7.835975516020695</v>
+        <v>9.778161045674413</v>
       </c>
       <c r="E23">
-        <v>11.13873765308359</v>
+        <v>8.813916823206592</v>
       </c>
       <c r="F23">
-        <v>47.61521706503481</v>
+        <v>66.33184138310754</v>
       </c>
       <c r="G23">
-        <v>66.62515911736146</v>
+        <v>108.2454231793513</v>
       </c>
       <c r="H23">
-        <v>21.47915861747452</v>
+        <v>26.96799185539199</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.900781982533418</v>
+        <v>4.15403688906143</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>33.0720320440926</v>
+        <v>50.60417905541986</v>
       </c>
       <c r="N23">
-        <v>18.1576621913069</v>
+        <v>21.02215844251506</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.464836904249327</v>
+        <v>9.388228220504107</v>
       </c>
       <c r="D24">
-        <v>7.63360290954037</v>
+        <v>9.035723859346341</v>
       </c>
       <c r="E24">
-        <v>11.09400608813628</v>
+        <v>8.531488969034882</v>
       </c>
       <c r="F24">
-        <v>46.56650503446433</v>
+        <v>59.94496833091512</v>
       </c>
       <c r="G24">
-        <v>64.17364387386601</v>
+        <v>97.72494056800734</v>
       </c>
       <c r="H24">
-        <v>21.16602956053341</v>
+        <v>24.36278988079957</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.959042355417008</v>
+        <v>4.37997784086007</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>31.70434758434971</v>
+        <v>46.37489615759771</v>
       </c>
       <c r="N24">
-        <v>17.78989846402395</v>
+        <v>19.93392621885534</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.151743491392846</v>
+        <v>8.326538895485342</v>
       </c>
       <c r="D25">
-        <v>7.406594575505938</v>
+        <v>8.241124909853095</v>
       </c>
       <c r="E25">
-        <v>11.04722085599353</v>
+        <v>8.234652306761047</v>
       </c>
       <c r="F25">
-        <v>45.48330728333806</v>
+        <v>53.16508207442385</v>
       </c>
       <c r="G25">
-        <v>61.53143361775621</v>
+        <v>86.49528507599621</v>
       </c>
       <c r="H25">
-        <v>20.85280392962137</v>
+        <v>21.58744657646055</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.025802939837128</v>
+        <v>4.617794177358349</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>30.17306492948946</v>
+        <v>41.61046140164399</v>
       </c>
       <c r="N25">
-        <v>17.39212408504709</v>
+        <v>18.71416699357379</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.516921376166646</v>
+        <v>8.451988540391147</v>
       </c>
       <c r="D2">
-        <v>7.647780564021879</v>
+        <v>6.19488190354279</v>
       </c>
       <c r="E2">
-        <v>8.019352408065791</v>
+        <v>8.714794738024745</v>
       </c>
       <c r="F2">
-        <v>48.33396139538668</v>
+        <v>22.16134069267589</v>
       </c>
       <c r="G2">
-        <v>78.14136259233776</v>
+        <v>24.83649884599365</v>
       </c>
       <c r="H2">
-        <v>19.63216512538803</v>
+        <v>2.436921387712393</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.768087943899042</v>
       </c>
       <c r="J2">
-        <v>4.791861398809</v>
+        <v>9.66678208907399</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.11183268572762</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.212166255166437</v>
       </c>
       <c r="M2">
-        <v>37.87975147443186</v>
+        <v>16.63373456140346</v>
       </c>
       <c r="N2">
-        <v>17.78038998344886</v>
+        <v>5.810462305838145</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.16897573093973</v>
+      </c>
+      <c r="P2">
+        <v>13.18786637174508</v>
+      </c>
+      <c r="Q2">
+        <v>15.99741277815049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.944863007715401</v>
+        <v>8.161643878209011</v>
       </c>
       <c r="D3">
-        <v>7.236258600791695</v>
+        <v>6.008079521018008</v>
       </c>
       <c r="E3">
-        <v>7.874590061423524</v>
+        <v>8.568732457167952</v>
       </c>
       <c r="F3">
-        <v>45.15009792772888</v>
+        <v>21.87295050827383</v>
       </c>
       <c r="G3">
-        <v>72.43116141666343</v>
+        <v>24.43719395160778</v>
       </c>
       <c r="H3">
-        <v>18.47101199792227</v>
+        <v>2.624079014544363</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.926505616181703</v>
       </c>
       <c r="J3">
-        <v>4.910642939707833</v>
+        <v>9.672797149312167</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.95134487740172</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.174728008259058</v>
       </c>
       <c r="M3">
-        <v>35.19519583146091</v>
+        <v>15.57825120060559</v>
       </c>
       <c r="N3">
-        <v>17.12810799947223</v>
+        <v>5.795031536480546</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.47988182360163</v>
+      </c>
+      <c r="P3">
+        <v>13.20789736146618</v>
+      </c>
+      <c r="Q3">
+        <v>15.9205654794958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.580547082115619</v>
+        <v>7.974012144684322</v>
       </c>
       <c r="D4">
-        <v>6.978040787250108</v>
+        <v>5.891331133948165</v>
       </c>
       <c r="E4">
-        <v>7.786125798631037</v>
+        <v>8.477135951458854</v>
       </c>
       <c r="F4">
-        <v>43.18691854067374</v>
+        <v>21.70112707955492</v>
       </c>
       <c r="G4">
-        <v>68.88375963496378</v>
+        <v>24.19905659329489</v>
       </c>
       <c r="H4">
-        <v>17.76173745319748</v>
+        <v>2.743435020015942</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.028633060960228</v>
       </c>
       <c r="J4">
-        <v>4.984356842366386</v>
+        <v>9.679205662971716</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.85527020476061</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.150847919572659</v>
       </c>
       <c r="M4">
-        <v>33.4653303362082</v>
+        <v>14.89016666799083</v>
       </c>
       <c r="N4">
-        <v>16.71921032985792</v>
+        <v>5.786000324381993</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.03752504508474</v>
+      </c>
+      <c r="P4">
+        <v>13.22294340830683</v>
+      </c>
+      <c r="Q4">
+        <v>15.87866821399281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.428603239263319</v>
+        <v>7.88672400637678</v>
       </c>
       <c r="D5">
-        <v>6.871329883233146</v>
+        <v>5.843557037586414</v>
       </c>
       <c r="E5">
-        <v>7.750171010942491</v>
+        <v>8.438211235721498</v>
       </c>
       <c r="F5">
-        <v>42.38447541520196</v>
+        <v>21.62696919610536</v>
       </c>
       <c r="G5">
-        <v>67.4221124810113</v>
+        <v>24.09451045553094</v>
       </c>
       <c r="H5">
-        <v>17.4735171435006</v>
+        <v>2.793567099667932</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.074414520020577</v>
       </c>
       <c r="J5">
-        <v>5.014640579624757</v>
+        <v>9.681007888290983</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.81104672083606</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.140385050970869</v>
       </c>
       <c r="M5">
-        <v>32.73932366055323</v>
+        <v>14.5972339080771</v>
       </c>
       <c r="N5">
-        <v>16.55068120757445</v>
+        <v>5.783135924390757</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.85030816575002</v>
+      </c>
+      <c r="P5">
+        <v>13.2304826732663</v>
+      </c>
+      <c r="Q5">
+        <v>15.85913123336967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.403157518996857</v>
+        <v>7.861652669945984</v>
       </c>
       <c r="D6">
-        <v>6.853518900065538</v>
+        <v>5.83591202061916</v>
       </c>
       <c r="E6">
-        <v>7.744206325206967</v>
+        <v>8.430325934661584</v>
       </c>
       <c r="F6">
-        <v>42.25108002990673</v>
+        <v>21.60801277715289</v>
       </c>
       <c r="G6">
-        <v>67.17841756558727</v>
+        <v>24.06584857889868</v>
       </c>
       <c r="H6">
-        <v>17.4257067640672</v>
+        <v>2.802404993781397</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.085863632044967</v>
       </c>
       <c r="J6">
-        <v>5.019685243545155</v>
+        <v>9.679539386251561</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.79675981574488</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.138015408733858</v>
       </c>
       <c r="M6">
-        <v>32.61748279593192</v>
+        <v>14.54495609478215</v>
       </c>
       <c r="N6">
-        <v>16.5225889938248</v>
+        <v>5.783535892240566</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.81614869722611</v>
+      </c>
+      <c r="P6">
+        <v>13.23267255557003</v>
+      </c>
+      <c r="Q6">
+        <v>15.85135278044307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.578512253860951</v>
+        <v>7.944626544865709</v>
       </c>
       <c r="D7">
-        <v>6.976607755731965</v>
+        <v>5.891537179795225</v>
       </c>
       <c r="E7">
-        <v>7.785640523078243</v>
+        <v>8.472834649145417</v>
       </c>
       <c r="F7">
-        <v>43.17610656209247</v>
+        <v>21.68183659073827</v>
       </c>
       <c r="G7">
-        <v>68.86411332938638</v>
+        <v>24.16662234451765</v>
       </c>
       <c r="H7">
-        <v>17.75784716817481</v>
+        <v>2.745303193679521</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.039248991565521</v>
       </c>
       <c r="J7">
-        <v>4.984764209377091</v>
+        <v>9.674298099741083</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.83565932032531</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.149033472303964</v>
       </c>
       <c r="M7">
-        <v>33.45562517851492</v>
+        <v>14.87816982306732</v>
       </c>
       <c r="N7">
-        <v>16.71694488237765</v>
+        <v>5.788325129078588</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.0275120824396</v>
+      </c>
+      <c r="P7">
+        <v>13.22553799874266</v>
+      </c>
+      <c r="Q7">
+        <v>15.86583027700731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.322261985563094</v>
+        <v>8.317982955069567</v>
       </c>
       <c r="D8">
-        <v>7.50697153742871</v>
+        <v>6.132022271343367</v>
       </c>
       <c r="E8">
-        <v>7.96934201346617</v>
+        <v>8.659986539770529</v>
       </c>
       <c r="F8">
-        <v>47.23755535044553</v>
+        <v>22.03706193995929</v>
       </c>
       <c r="G8">
-        <v>76.16450514731774</v>
+        <v>24.65715235928755</v>
       </c>
       <c r="H8">
-        <v>19.23092817868842</v>
+        <v>2.502042524633778</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.834597052450309</v>
       </c>
       <c r="J8">
-        <v>4.832686180555792</v>
+        <v>9.661798213219498</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.03115005524778</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.197293855865133</v>
       </c>
       <c r="M8">
-        <v>36.97067264470356</v>
+        <v>16.26819413208276</v>
       </c>
       <c r="N8">
-        <v>17.55734345786796</v>
+        <v>5.808149952796911</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.92609925246105</v>
+      </c>
+      <c r="P8">
+        <v>13.19768365758543</v>
+      </c>
+      <c r="Q8">
+        <v>15.9533216570635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.687570399486667</v>
+        <v>9.020859925374699</v>
       </c>
       <c r="D9">
-        <v>8.509356833118684</v>
+        <v>6.583410539626425</v>
       </c>
       <c r="E9">
-        <v>8.333970627360985</v>
+        <v>9.017334744840783</v>
       </c>
       <c r="F9">
-        <v>55.44574899437414</v>
+        <v>22.80543531491084</v>
       </c>
       <c r="G9">
-        <v>90.28134551380305</v>
+        <v>25.72626047162342</v>
       </c>
       <c r="H9">
-        <v>22.52239403851478</v>
+        <v>2.057676709059562</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.50223430377872</v>
       </c>
       <c r="J9">
-        <v>4.538073473449677</v>
+        <v>9.668231167043137</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.46674242049993</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.287760457603355</v>
       </c>
       <c r="M9">
-        <v>43.24725391114808</v>
+        <v>18.68970025853605</v>
       </c>
       <c r="N9">
-        <v>19.13089577167202</v>
+        <v>5.846507909858844</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.54165407972165</v>
+      </c>
+      <c r="P9">
+        <v>13.16071772094726</v>
+      </c>
+      <c r="Q9">
+        <v>16.1900072591522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.652155373805213</v>
+        <v>9.425931513637954</v>
       </c>
       <c r="D10">
-        <v>9.23589832377003</v>
+        <v>6.863556983373194</v>
       </c>
       <c r="E10">
-        <v>8.60729885487112</v>
+        <v>9.1904535691601</v>
       </c>
       <c r="F10">
-        <v>61.66298491668856</v>
+        <v>23.28109232802726</v>
       </c>
       <c r="G10">
-        <v>100.5596212461596</v>
+        <v>26.39366851319467</v>
       </c>
       <c r="H10">
-        <v>25.06432471103094</v>
+        <v>1.781702671622605</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.750489614991559</v>
       </c>
       <c r="J10">
-        <v>4.31935111985596</v>
+        <v>9.662726460034008</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.72247307199003</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.327670735109306</v>
       </c>
       <c r="M10">
-        <v>47.53589871413899</v>
+        <v>20.25056096106036</v>
       </c>
       <c r="N10">
-        <v>20.23304290313079</v>
+        <v>5.849239816950908</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.5494041529247</v>
+      </c>
+      <c r="P10">
+        <v>13.16571427138219</v>
+      </c>
+      <c r="Q10">
+        <v>16.329230235693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.08819942759293</v>
+        <v>9.144507261410826</v>
       </c>
       <c r="D11">
-        <v>9.568839662287361</v>
+        <v>6.665562918005255</v>
       </c>
       <c r="E11">
-        <v>8.733986403100996</v>
+        <v>8.637708453905452</v>
       </c>
       <c r="F11">
-        <v>64.52736466048439</v>
+        <v>22.58968190573018</v>
       </c>
       <c r="G11">
-        <v>105.277754303063</v>
+        <v>25.51116306501026</v>
       </c>
       <c r="H11">
-        <v>26.23268939983525</v>
+        <v>2.777642370813428</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.825522498336646</v>
       </c>
       <c r="J11">
-        <v>4.218011481307852</v>
+        <v>9.461718797696843</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.24346027277342</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.189210465158892</v>
       </c>
       <c r="M11">
-        <v>49.43299580242519</v>
+        <v>20.71846255143338</v>
       </c>
       <c r="N11">
-        <v>20.72148206614758</v>
+        <v>5.639412409928639</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>16.34997821317868</v>
+      </c>
+      <c r="P11">
+        <v>13.32412595790996</v>
+      </c>
+      <c r="Q11">
+        <v>15.89253882754925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.25356187904361</v>
+        <v>8.861996021013988</v>
       </c>
       <c r="D12">
-        <v>9.695826785621616</v>
+        <v>6.435564114149543</v>
       </c>
       <c r="E12">
-        <v>8.782456445823192</v>
+        <v>8.194905586704767</v>
       </c>
       <c r="F12">
-        <v>65.62178099003522</v>
+        <v>21.91825641093067</v>
       </c>
       <c r="G12">
-        <v>107.0780456908916</v>
+        <v>24.65018643887413</v>
       </c>
       <c r="H12">
-        <v>26.67871393047989</v>
+        <v>4.15901816372884</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.835273051316098</v>
       </c>
       <c r="J12">
-        <v>4.179221115449566</v>
+        <v>9.297102201561723</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.80616262299165</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.111362843449261</v>
       </c>
       <c r="M12">
-        <v>50.14548363116389</v>
+        <v>20.80513861229471</v>
       </c>
       <c r="N12">
-        <v>20.90451488844292</v>
+        <v>5.512459408130781</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.97492423067725</v>
+      </c>
+      <c r="P12">
+        <v>13.46047222116175</v>
+      </c>
+      <c r="Q12">
+        <v>15.50475066793902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.21792508459269</v>
+        <v>8.519773740037634</v>
       </c>
       <c r="D13">
-        <v>9.668426317507908</v>
+        <v>6.164387496735045</v>
       </c>
       <c r="E13">
-        <v>8.771992193003724</v>
+        <v>7.811771429262063</v>
       </c>
       <c r="F13">
-        <v>65.3855564543708</v>
+        <v>21.18842788094583</v>
       </c>
       <c r="G13">
-        <v>106.6895669400937</v>
+        <v>23.69674833114816</v>
       </c>
       <c r="H13">
-        <v>26.58245840205289</v>
+        <v>5.58370791772667</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.800033978027308</v>
       </c>
       <c r="J13">
-        <v>4.187596643689044</v>
+        <v>9.142777077939622</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.34377512993889</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.073180726875556</v>
       </c>
       <c r="M13">
-        <v>49.99226369138541</v>
+        <v>20.59773724021442</v>
       </c>
       <c r="N13">
-        <v>20.86518204977691</v>
+        <v>5.44762851443505</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.42282336194063</v>
+      </c>
+      <c r="P13">
+        <v>13.58840265339849</v>
+      </c>
+      <c r="Q13">
+        <v>15.1101630627362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.10179469975568</v>
+        <v>8.245202920655451</v>
       </c>
       <c r="D14">
-        <v>9.579264828805025</v>
+        <v>5.95466611570439</v>
       </c>
       <c r="E14">
-        <v>8.737962958216668</v>
+        <v>7.585092259797603</v>
       </c>
       <c r="F14">
-        <v>64.6171761987828</v>
+        <v>20.64592779323104</v>
       </c>
       <c r="G14">
-        <v>105.4255399401609</v>
+        <v>22.97694550862308</v>
       </c>
       <c r="H14">
-        <v>26.26929924354318</v>
+        <v>6.593407037097383</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.756225899478237</v>
       </c>
       <c r="J14">
-        <v>4.214829511106901</v>
+        <v>9.038769924888381</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.00438429150203</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.070344232514763</v>
       </c>
       <c r="M14">
-        <v>49.4917183387198</v>
+        <v>20.31471840082161</v>
       </c>
       <c r="N14">
-        <v>20.73657922683516</v>
+        <v>5.438691156121055</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.947357994982</v>
+      </c>
+      <c r="P14">
+        <v>13.67476052666714</v>
+      </c>
+      <c r="Q14">
+        <v>14.82848211265513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.03071519505814</v>
+        <v>8.156502536647837</v>
       </c>
       <c r="D15">
-        <v>9.524789225537639</v>
+        <v>5.895234042200217</v>
       </c>
       <c r="E15">
-        <v>8.717189579053084</v>
+        <v>7.534868362087639</v>
       </c>
       <c r="F15">
-        <v>64.14795035202877</v>
+        <v>20.49729041484307</v>
       </c>
       <c r="G15">
-        <v>104.6533286515575</v>
+        <v>22.77382717185024</v>
       </c>
       <c r="H15">
-        <v>26.0780136064336</v>
+        <v>6.828546904415951</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.737145528913416</v>
       </c>
       <c r="J15">
-        <v>4.231451166762573</v>
+        <v>9.014632297771049</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.91123891159226</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.071887432936883</v>
       </c>
       <c r="M15">
-        <v>49.18441533484548</v>
+        <v>20.17922741137377</v>
       </c>
       <c r="N15">
-        <v>20.65755359259789</v>
+        <v>5.441755293592458</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.79077791691297</v>
+      </c>
+      <c r="P15">
+        <v>13.69384110200581</v>
+      </c>
+      <c r="Q15">
+        <v>14.75562935617882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.623653887121881</v>
+        <v>8.028217187157148</v>
       </c>
       <c r="D16">
-        <v>9.214232399141247</v>
+        <v>5.822604311025693</v>
       </c>
       <c r="E16">
-        <v>8.599078843625687</v>
+        <v>7.533156753128736</v>
       </c>
       <c r="F16">
-        <v>61.47687293574536</v>
+        <v>20.41727391060646</v>
       </c>
       <c r="G16">
-        <v>100.2527247365582</v>
+        <v>22.63622264530565</v>
       </c>
       <c r="H16">
-        <v>24.98835693158583</v>
+        <v>6.629271319306494</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.641047985907457</v>
       </c>
       <c r="J16">
-        <v>4.325924901149952</v>
+        <v>9.044867628731676</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.87941467565342</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.059209778620855</v>
       </c>
       <c r="M16">
-        <v>47.41098099324386</v>
+        <v>19.56551596748583</v>
       </c>
       <c r="N16">
-        <v>20.20085547832505</v>
+        <v>5.451454063312582</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.44658910236151</v>
+      </c>
+      <c r="P16">
+        <v>13.65678414729016</v>
+      </c>
+      <c r="Q16">
+        <v>14.76434666371425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.3736292289533</v>
+        <v>8.076731618466836</v>
       </c>
       <c r="D17">
-        <v>9.024681169160869</v>
+        <v>5.880813513770313</v>
       </c>
       <c r="E17">
-        <v>8.527316347624392</v>
+        <v>7.644202388089477</v>
       </c>
       <c r="F17">
-        <v>59.85029501310171</v>
+        <v>20.64779537040696</v>
       </c>
       <c r="G17">
-        <v>97.56861876691035</v>
+        <v>22.92027751394656</v>
       </c>
       <c r="H17">
-        <v>24.3241129183255</v>
+        <v>5.909575278249445</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.590728488786065</v>
       </c>
       <c r="J17">
-        <v>4.383314924847959</v>
+        <v>9.123414287923936</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.03621410157468</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.047174557113553</v>
       </c>
       <c r="M17">
-        <v>46.3103989967121</v>
+        <v>19.24194391650832</v>
       </c>
       <c r="N17">
-        <v>19.91731555659949</v>
+        <v>5.459397556292046</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.44233730319289</v>
+      </c>
+      <c r="P17">
+        <v>13.58397978132585</v>
+      </c>
+      <c r="Q17">
+        <v>14.9216575245873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.229515804305235</v>
+        <v>8.30646618352676</v>
       </c>
       <c r="D18">
-        <v>8.91584288801649</v>
+        <v>6.058035773269064</v>
       </c>
       <c r="E18">
-        <v>8.486248968209892</v>
+        <v>7.908334921370798</v>
       </c>
       <c r="F18">
-        <v>58.91778662658829</v>
+        <v>21.18151508633336</v>
       </c>
       <c r="G18">
-        <v>96.0282247419007</v>
+        <v>23.61605132424711</v>
       </c>
       <c r="H18">
-        <v>23.94304886837001</v>
+        <v>4.690242528877581</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.571534728929788</v>
       </c>
       <c r="J18">
-        <v>4.41616177380123</v>
+        <v>9.255022198438297</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.3859974903512</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.058151339942118</v>
       </c>
       <c r="M18">
-        <v>45.67217119550085</v>
+        <v>19.14662397236896</v>
       </c>
       <c r="N18">
-        <v>19.75301591325652</v>
+        <v>5.496375495466485</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.73760091028578</v>
+      </c>
+      <c r="P18">
+        <v>13.47210857583923</v>
+      </c>
+      <c r="Q18">
+        <v>15.23145861510221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.180652382219314</v>
+        <v>8.624981984226149</v>
       </c>
       <c r="D19">
-        <v>8.87901004151704</v>
+        <v>6.318342279324544</v>
       </c>
       <c r="E19">
-        <v>8.472376276400805</v>
+        <v>8.326984441626815</v>
       </c>
       <c r="F19">
-        <v>58.60246493895635</v>
+        <v>21.88736483377507</v>
       </c>
       <c r="G19">
-        <v>95.50707141167226</v>
+        <v>24.53417824128931</v>
       </c>
       <c r="H19">
-        <v>23.81415008415564</v>
+        <v>3.269824818156923</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.590562923063565</v>
       </c>
       <c r="J19">
-        <v>4.427259212070735</v>
+        <v>9.411363685095777</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.83413562662543</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.120157361359201</v>
       </c>
       <c r="M19">
-        <v>45.45513702003538</v>
+        <v>19.231567653252</v>
       </c>
       <c r="N19">
-        <v>19.69718076436707</v>
+        <v>5.596905197292921</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.23310656345685</v>
+      </c>
+      <c r="P19">
+        <v>13.34725842890704</v>
+      </c>
+      <c r="Q19">
+        <v>15.61950823615781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.400272395391632</v>
+        <v>9.244767399262141</v>
       </c>
       <c r="D20">
-        <v>9.044836449896039</v>
+        <v>6.791591834803181</v>
       </c>
       <c r="E20">
-        <v>8.534933069276216</v>
+        <v>9.131634218070278</v>
       </c>
       <c r="F20">
-        <v>60.02310245640145</v>
+        <v>23.09710163559087</v>
       </c>
       <c r="G20">
-        <v>97.85394416509438</v>
+        <v>26.12139180690215</v>
       </c>
       <c r="H20">
-        <v>24.39470861290811</v>
+        <v>1.855198004849848</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.697232816634848</v>
       </c>
       <c r="J20">
-        <v>4.37722342551152</v>
+        <v>9.647179914974622</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.59553744768862</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.311831081203604</v>
       </c>
       <c r="M20">
-        <v>46.42808458638392</v>
+        <v>19.8327218102437</v>
       </c>
       <c r="N20">
-        <v>19.94762519999292</v>
+        <v>5.854098621237023</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.2690030280449</v>
+      </c>
+      <c r="P20">
+        <v>13.17308667709478</v>
+      </c>
+      <c r="Q20">
+        <v>16.25063541623968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.13589239181396</v>
+        <v>9.633993151773421</v>
       </c>
       <c r="D21">
-        <v>9.605423589489508</v>
+        <v>7.058883103791953</v>
       </c>
       <c r="E21">
-        <v>8.747943088075365</v>
+        <v>9.382059541868482</v>
       </c>
       <c r="F21">
-        <v>64.84255985232399</v>
+        <v>23.63866544638663</v>
       </c>
       <c r="G21">
-        <v>105.7963726709292</v>
+        <v>26.86766783212332</v>
       </c>
       <c r="H21">
-        <v>26.36116627336807</v>
+        <v>1.604940646970766</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.888187542962585</v>
       </c>
       <c r="J21">
-        <v>4.206843239320836</v>
+        <v>9.685516836119421</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.90923147673786</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.375635871609556</v>
       </c>
       <c r="M21">
-        <v>49.63888335188498</v>
+        <v>21.01017422340212</v>
       </c>
       <c r="N21">
-        <v>20.77440573571858</v>
+        <v>5.900626010303787</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.12625042652948</v>
+      </c>
+      <c r="P21">
+        <v>13.15536778724103</v>
+      </c>
+      <c r="Q21">
+        <v>16.46154697048793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.61852658565327</v>
+        <v>9.883089293928093</v>
       </c>
       <c r="D22">
-        <v>9.97752120377784</v>
+        <v>7.210078206873989</v>
       </c>
       <c r="E22">
-        <v>8.890181078767229</v>
+        <v>9.508387138999192</v>
       </c>
       <c r="F22">
-        <v>68.05247706352515</v>
+        <v>23.96482339627279</v>
       </c>
       <c r="G22">
-        <v>111.0722203777113</v>
+        <v>27.32707997511781</v>
       </c>
       <c r="H22">
-        <v>27.66865802349603</v>
+        <v>1.661264610271924</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.004014718917919</v>
       </c>
       <c r="J22">
-        <v>4.09296532329269</v>
+        <v>9.708322767785402</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.10499680681488</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.407487095869572</v>
       </c>
       <c r="M22">
-        <v>51.70423680472831</v>
+        <v>21.74090307384736</v>
       </c>
       <c r="N22">
-        <v>21.30350300765278</v>
+        <v>5.913563797202787</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.63630747506492</v>
+      </c>
+      <c r="P22">
+        <v>13.15095849833662</v>
+      </c>
+      <c r="Q22">
+        <v>16.59142931121237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.36049935251584</v>
+        <v>9.77862521929899</v>
       </c>
       <c r="D23">
-        <v>9.778161045674413</v>
+        <v>7.128841066748932</v>
       </c>
       <c r="E23">
-        <v>8.813916823206592</v>
+        <v>9.445095151278592</v>
       </c>
       <c r="F23">
-        <v>66.33184138310754</v>
+        <v>23.81011310319689</v>
       </c>
       <c r="G23">
-        <v>108.2454231793513</v>
+        <v>27.11433740481505</v>
       </c>
       <c r="H23">
-        <v>26.96799185539199</v>
+        <v>1.585830602752631</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.938319700292183</v>
       </c>
       <c r="J23">
-        <v>4.15403688906143</v>
+        <v>9.701541589515477</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.02129255108431</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.392301960363614</v>
       </c>
       <c r="M23">
-        <v>50.60417905541986</v>
+        <v>21.36106543190582</v>
       </c>
       <c r="N23">
-        <v>21.02215844251506</v>
+        <v>5.903875669278378</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.37281274453651</v>
+      </c>
+      <c r="P23">
+        <v>13.14949310228043</v>
+      </c>
+      <c r="Q23">
+        <v>16.53570632430457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.388228220504107</v>
+        <v>9.32134627426238</v>
       </c>
       <c r="D24">
-        <v>9.035723859346341</v>
+        <v>6.815780052159605</v>
       </c>
       <c r="E24">
-        <v>8.531488969034882</v>
+        <v>9.19472312160678</v>
       </c>
       <c r="F24">
-        <v>59.94496833091512</v>
+        <v>23.20035170970976</v>
       </c>
       <c r="G24">
-        <v>97.72494056800734</v>
+        <v>26.26645139603261</v>
       </c>
       <c r="H24">
-        <v>24.36278988079957</v>
+        <v>1.836069320144073</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.690599668534679</v>
       </c>
       <c r="J24">
-        <v>4.37997784086007</v>
+        <v>9.672968215986137</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.67524005118976</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.330619673415809</v>
       </c>
       <c r="M24">
-        <v>46.37489615759771</v>
+        <v>19.84238991557487</v>
       </c>
       <c r="N24">
-        <v>19.93392621885534</v>
+        <v>5.872410612887581</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.32413152231806</v>
+      </c>
+      <c r="P24">
+        <v>13.15547011442643</v>
+      </c>
+      <c r="Q24">
+        <v>16.3135993766842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.326538895485342</v>
+        <v>8.793087550747408</v>
       </c>
       <c r="D25">
-        <v>8.241124909853095</v>
+        <v>6.465050089128739</v>
       </c>
       <c r="E25">
-        <v>8.234652306761047</v>
+        <v>8.916144928729876</v>
       </c>
       <c r="F25">
-        <v>53.16508207442385</v>
+        <v>22.56195859899327</v>
       </c>
       <c r="G25">
-        <v>86.49528507599621</v>
+        <v>25.37847823973251</v>
       </c>
       <c r="H25">
-        <v>21.58744657646055</v>
+        <v>2.176184978683691</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.572722750293229</v>
       </c>
       <c r="J25">
-        <v>4.617794177358349</v>
+        <v>9.655230507135364</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.31374375532464</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.261211644827873</v>
       </c>
       <c r="M25">
-        <v>41.61046140164399</v>
+        <v>18.05623815266335</v>
       </c>
       <c r="N25">
-        <v>18.71416699357379</v>
+        <v>5.839942097988845</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.1105524560275</v>
+      </c>
+      <c r="P25">
+        <v>13.17328539769549</v>
+      </c>
+      <c r="Q25">
+        <v>16.09906224178322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.451988540391147</v>
+        <v>7.278802097000939</v>
       </c>
       <c r="D2">
-        <v>6.19488190354279</v>
+        <v>6.22926162942176</v>
       </c>
       <c r="E2">
-        <v>8.714794738024745</v>
+        <v>8.574458260978393</v>
       </c>
       <c r="F2">
-        <v>22.16134069267589</v>
+        <v>21.48133063788611</v>
       </c>
       <c r="G2">
-        <v>24.83649884599365</v>
+        <v>23.23024292231726</v>
       </c>
       <c r="H2">
-        <v>2.436921387712393</v>
+        <v>2.369992151622732</v>
       </c>
       <c r="I2">
-        <v>2.768087943899042</v>
+        <v>2.664518704906285</v>
       </c>
       <c r="J2">
-        <v>9.66678208907399</v>
+        <v>9.778657731555326</v>
       </c>
       <c r="K2">
-        <v>17.11183268572762</v>
+        <v>16.30754424584712</v>
       </c>
       <c r="L2">
-        <v>6.212166255166437</v>
+        <v>13.64773235444578</v>
       </c>
       <c r="M2">
-        <v>16.63373456140346</v>
+        <v>10.56303716199528</v>
       </c>
       <c r="N2">
-        <v>5.810462305838145</v>
+        <v>6.126807080606301</v>
       </c>
       <c r="O2">
-        <v>14.16897573093973</v>
+        <v>16.45925220558314</v>
       </c>
       <c r="P2">
-        <v>13.18786637174508</v>
+        <v>6.032709401232494</v>
       </c>
       <c r="Q2">
-        <v>15.99741277815049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.92741954994433</v>
+      </c>
+      <c r="R2">
+        <v>13.22273325271694</v>
+      </c>
+      <c r="S2">
+        <v>15.49431885506527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.161643878209011</v>
+        <v>7.063542227092426</v>
       </c>
       <c r="D3">
-        <v>6.008079521018008</v>
+        <v>6.042250523577835</v>
       </c>
       <c r="E3">
-        <v>8.568732457167952</v>
+        <v>8.444551073902232</v>
       </c>
       <c r="F3">
-        <v>21.87295050827383</v>
+        <v>21.24917442898871</v>
       </c>
       <c r="G3">
-        <v>24.43719395160778</v>
+        <v>22.95606837862827</v>
       </c>
       <c r="H3">
-        <v>2.624079014544363</v>
+        <v>2.542780106657812</v>
       </c>
       <c r="I3">
-        <v>2.926505616181703</v>
+        <v>2.80342168998293</v>
       </c>
       <c r="J3">
-        <v>9.672797149312167</v>
+        <v>9.766823950849206</v>
       </c>
       <c r="K3">
-        <v>16.95134487740172</v>
+        <v>16.20188562347501</v>
       </c>
       <c r="L3">
-        <v>6.174728008259058</v>
+        <v>13.69681927685737</v>
       </c>
       <c r="M3">
-        <v>15.57825120060559</v>
+        <v>10.36039878634728</v>
       </c>
       <c r="N3">
-        <v>5.795031536480546</v>
+        <v>6.094408065455337</v>
       </c>
       <c r="O3">
-        <v>13.47988182360163</v>
+        <v>15.43619454715372</v>
       </c>
       <c r="P3">
-        <v>13.20789736146618</v>
+        <v>6.017335851790516</v>
       </c>
       <c r="Q3">
-        <v>15.9205654794958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.2587502737207</v>
+      </c>
+      <c r="R3">
+        <v>13.22049523586762</v>
+      </c>
+      <c r="S3">
+        <v>15.45380570021159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.974012144684322</v>
+        <v>6.922700324297572</v>
       </c>
       <c r="D4">
-        <v>5.891331133948165</v>
+        <v>5.925504460770404</v>
       </c>
       <c r="E4">
-        <v>8.477135951458854</v>
+        <v>8.363024468503182</v>
       </c>
       <c r="F4">
-        <v>21.70112707955492</v>
+        <v>21.11105831587586</v>
       </c>
       <c r="G4">
-        <v>24.19905659329489</v>
+        <v>22.79689120843429</v>
       </c>
       <c r="H4">
-        <v>2.743435020015942</v>
+        <v>2.653029147638468</v>
       </c>
       <c r="I4">
-        <v>3.028633060960228</v>
+        <v>2.893361357490686</v>
       </c>
       <c r="J4">
-        <v>9.679205662971716</v>
+        <v>9.76056461343652</v>
       </c>
       <c r="K4">
-        <v>16.85527020476061</v>
+        <v>16.13841522695765</v>
       </c>
       <c r="L4">
-        <v>6.150847919572659</v>
+        <v>13.72541230011748</v>
       </c>
       <c r="M4">
-        <v>14.89016666799083</v>
+        <v>10.253504412604</v>
       </c>
       <c r="N4">
-        <v>5.786000324381993</v>
+        <v>6.073637392371381</v>
       </c>
       <c r="O4">
-        <v>13.03752504508474</v>
+        <v>14.76934162148926</v>
       </c>
       <c r="P4">
-        <v>13.22294340830683</v>
+        <v>6.008781822290858</v>
       </c>
       <c r="Q4">
-        <v>15.87866821399281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.82906428548758</v>
+      </c>
+      <c r="R4">
+        <v>13.22209414354414</v>
+      </c>
+      <c r="S4">
+        <v>15.43327393508324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.88672400637678</v>
+        <v>6.854913357705672</v>
       </c>
       <c r="D5">
-        <v>5.843557037586414</v>
+        <v>5.877772278484943</v>
       </c>
       <c r="E5">
-        <v>8.438211235721498</v>
+        <v>8.328263052819379</v>
       </c>
       <c r="F5">
-        <v>21.62696919610536</v>
+        <v>21.05048444715613</v>
       </c>
       <c r="G5">
-        <v>24.09451045553094</v>
+        <v>22.72510246907251</v>
       </c>
       <c r="H5">
-        <v>2.793567099667932</v>
+        <v>2.699359881555657</v>
       </c>
       <c r="I5">
-        <v>3.074414520020577</v>
+        <v>2.934620000739197</v>
       </c>
       <c r="J5">
-        <v>9.681007888290983</v>
+        <v>9.756767457653735</v>
       </c>
       <c r="K5">
-        <v>16.81104672083606</v>
+        <v>16.10735858985561</v>
       </c>
       <c r="L5">
-        <v>6.140385050970869</v>
+        <v>13.73177147308471</v>
       </c>
       <c r="M5">
-        <v>14.5972339080771</v>
+        <v>10.21104339282218</v>
       </c>
       <c r="N5">
-        <v>5.783135924390757</v>
+        <v>6.064474688364773</v>
       </c>
       <c r="O5">
-        <v>12.85030816575002</v>
+        <v>14.48542779325879</v>
       </c>
       <c r="P5">
-        <v>13.2304826732663</v>
+        <v>6.006293115470068</v>
       </c>
       <c r="Q5">
-        <v>15.85913123336967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.64702983550468</v>
+      </c>
+      <c r="R5">
+        <v>13.22425099920902</v>
+      </c>
+      <c r="S5">
+        <v>15.42228344912257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.861652669945984</v>
+        <v>6.833475536440177</v>
       </c>
       <c r="D6">
-        <v>5.83591202061916</v>
+        <v>5.87014330102182</v>
       </c>
       <c r="E6">
-        <v>8.430325934661584</v>
+        <v>8.3211032472112</v>
       </c>
       <c r="F6">
-        <v>21.60801277715289</v>
+        <v>21.03386213592961</v>
       </c>
       <c r="G6">
-        <v>24.06584857889868</v>
+        <v>22.70205369165134</v>
       </c>
       <c r="H6">
-        <v>2.802404993781397</v>
+        <v>2.707541030925364</v>
       </c>
       <c r="I6">
-        <v>3.085863632044967</v>
+        <v>2.945971936860599</v>
       </c>
       <c r="J6">
-        <v>9.679539386251561</v>
+        <v>9.754321992750505</v>
       </c>
       <c r="K6">
-        <v>16.79675981574488</v>
+        <v>16.09543977665357</v>
       </c>
       <c r="L6">
-        <v>6.138015408733858</v>
+        <v>13.72682204742718</v>
       </c>
       <c r="M6">
-        <v>14.54495609478215</v>
+        <v>10.19998959568324</v>
       </c>
       <c r="N6">
-        <v>5.783535892240566</v>
+        <v>6.06235754776181</v>
       </c>
       <c r="O6">
-        <v>12.81614869722611</v>
+        <v>14.43469909398032</v>
       </c>
       <c r="P6">
-        <v>13.23267255557003</v>
+        <v>6.006848759108141</v>
       </c>
       <c r="Q6">
-        <v>15.85135278044307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.61373108272602</v>
+      </c>
+      <c r="R6">
+        <v>13.22559871589925</v>
+      </c>
+      <c r="S6">
+        <v>15.41600922224065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.944626544865709</v>
+        <v>6.897519901498182</v>
       </c>
       <c r="D7">
-        <v>5.891537179795225</v>
+        <v>5.928413279444517</v>
       </c>
       <c r="E7">
-        <v>8.472834649145417</v>
+        <v>8.359645928847295</v>
       </c>
       <c r="F7">
-        <v>21.68183659073827</v>
+        <v>21.08230396218555</v>
       </c>
       <c r="G7">
-        <v>24.16662234451765</v>
+        <v>22.84292636066103</v>
       </c>
       <c r="H7">
-        <v>2.745303193679521</v>
+        <v>2.655288083148422</v>
       </c>
       <c r="I7">
-        <v>3.039248991565521</v>
+        <v>2.906127818543003</v>
       </c>
       <c r="J7">
-        <v>9.674298099741083</v>
+        <v>9.722304243973106</v>
       </c>
       <c r="K7">
-        <v>16.83565932032531</v>
+        <v>16.11320902623807</v>
       </c>
       <c r="L7">
-        <v>6.149033472303964</v>
+        <v>13.70404843341004</v>
       </c>
       <c r="M7">
-        <v>14.87816982306732</v>
+        <v>10.2367301509262</v>
       </c>
       <c r="N7">
-        <v>5.788325129078588</v>
+        <v>6.071722824493011</v>
       </c>
       <c r="O7">
-        <v>13.0275120824396</v>
+        <v>14.75223977117499</v>
       </c>
       <c r="P7">
-        <v>13.22553799874266</v>
+        <v>6.011290164426876</v>
       </c>
       <c r="Q7">
-        <v>15.86583027700731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.81701860380009</v>
+      </c>
+      <c r="R7">
+        <v>13.22629418960786</v>
+      </c>
+      <c r="S7">
+        <v>15.41333002529257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.317982955069567</v>
+        <v>7.181276120552865</v>
       </c>
       <c r="D8">
-        <v>6.132022271343367</v>
+        <v>6.174971938500774</v>
       </c>
       <c r="E8">
-        <v>8.659986539770529</v>
+        <v>8.527921992768579</v>
       </c>
       <c r="F8">
-        <v>22.03706193995929</v>
+        <v>21.34461692511589</v>
       </c>
       <c r="G8">
-        <v>24.65715235928755</v>
+        <v>23.34947139354655</v>
       </c>
       <c r="H8">
-        <v>2.502042524633778</v>
+        <v>2.431678807978731</v>
       </c>
       <c r="I8">
-        <v>2.834597052450309</v>
+        <v>2.728051187057016</v>
       </c>
       <c r="J8">
-        <v>9.661798213219498</v>
+        <v>9.659469605439092</v>
       </c>
       <c r="K8">
-        <v>17.03115005524778</v>
+        <v>16.22610424523776</v>
       </c>
       <c r="L8">
-        <v>6.197293855865133</v>
+        <v>13.62847323750728</v>
       </c>
       <c r="M8">
-        <v>16.26819413208276</v>
+        <v>10.45771767160383</v>
       </c>
       <c r="N8">
-        <v>5.808149952796911</v>
+        <v>6.113141699542235</v>
       </c>
       <c r="O8">
-        <v>13.92609925246105</v>
+        <v>16.08841662382568</v>
       </c>
       <c r="P8">
-        <v>13.19768365758543</v>
+        <v>6.03049287893315</v>
       </c>
       <c r="Q8">
-        <v>15.9533216570635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.68496196935557</v>
+      </c>
+      <c r="R8">
+        <v>13.23042707151966</v>
+      </c>
+      <c r="S8">
+        <v>15.4386586432895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.020859925374699</v>
+        <v>7.702843274288529</v>
       </c>
       <c r="D9">
-        <v>6.583410539626425</v>
+        <v>6.629211310034154</v>
       </c>
       <c r="E9">
-        <v>9.017334744840783</v>
+        <v>8.846584761021957</v>
       </c>
       <c r="F9">
-        <v>22.80543531491084</v>
+        <v>21.96110912050725</v>
       </c>
       <c r="G9">
-        <v>25.72626047162342</v>
+        <v>24.18112626666825</v>
       </c>
       <c r="H9">
-        <v>2.057676709059562</v>
+        <v>2.021969713993073</v>
       </c>
       <c r="I9">
-        <v>2.50223430377872</v>
+        <v>2.568766971850338</v>
       </c>
       <c r="J9">
-        <v>9.668231167043137</v>
+        <v>9.671504175490742</v>
       </c>
       <c r="K9">
-        <v>17.46674242049993</v>
+        <v>16.51398294916009</v>
       </c>
       <c r="L9">
-        <v>6.287760457603355</v>
+        <v>13.51399819717663</v>
       </c>
       <c r="M9">
-        <v>18.68970025853605</v>
+        <v>11.05998066302567</v>
       </c>
       <c r="N9">
-        <v>5.846507909858844</v>
+        <v>6.190923628564716</v>
       </c>
       <c r="O9">
-        <v>15.54165407972165</v>
+        <v>18.43378866982346</v>
       </c>
       <c r="P9">
-        <v>13.16071772094726</v>
+        <v>6.070887927424605</v>
       </c>
       <c r="Q9">
-        <v>16.1900072591522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.2496620080803</v>
+      </c>
+      <c r="R9">
+        <v>13.25202885702089</v>
+      </c>
+      <c r="S9">
+        <v>15.57298659787489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.425931513637954</v>
+        <v>8.007463701682333</v>
       </c>
       <c r="D10">
-        <v>6.863556983373194</v>
+        <v>6.925192426194886</v>
       </c>
       <c r="E10">
-        <v>9.1904535691601</v>
+        <v>8.999816353695504</v>
       </c>
       <c r="F10">
-        <v>23.28109232802726</v>
+        <v>22.2773699762076</v>
       </c>
       <c r="G10">
-        <v>26.39366851319467</v>
+        <v>25.12693505900005</v>
       </c>
       <c r="H10">
-        <v>1.781702671622605</v>
+        <v>1.771966214683898</v>
       </c>
       <c r="I10">
-        <v>2.750489614991559</v>
+        <v>2.785928888905172</v>
       </c>
       <c r="J10">
-        <v>9.662726460034008</v>
+        <v>9.483475110487198</v>
       </c>
       <c r="K10">
-        <v>17.72247307199003</v>
+        <v>16.63179570415115</v>
       </c>
       <c r="L10">
-        <v>6.327670735109306</v>
+        <v>13.35084750474918</v>
       </c>
       <c r="M10">
-        <v>20.25056096106036</v>
+        <v>11.48625004867159</v>
       </c>
       <c r="N10">
-        <v>5.849239816950908</v>
+        <v>6.223516456982442</v>
       </c>
       <c r="O10">
-        <v>16.5494041529247</v>
+        <v>19.9231820975997</v>
       </c>
       <c r="P10">
-        <v>13.16571427138219</v>
+        <v>6.072666943564085</v>
       </c>
       <c r="Q10">
-        <v>16.329230235693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.21369875162587</v>
+      </c>
+      <c r="R10">
+        <v>13.31161076809209</v>
+      </c>
+      <c r="S10">
+        <v>15.59682876673442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.144507261410826</v>
+        <v>7.80507949085391</v>
       </c>
       <c r="D11">
-        <v>6.665562918005255</v>
+        <v>6.753761643400784</v>
       </c>
       <c r="E11">
-        <v>8.637708453905452</v>
+        <v>8.470172072608127</v>
       </c>
       <c r="F11">
-        <v>22.58968190573018</v>
+        <v>21.49243232323632</v>
       </c>
       <c r="G11">
-        <v>25.51116306501026</v>
+        <v>25.19499801898972</v>
       </c>
       <c r="H11">
-        <v>2.777642370813428</v>
+        <v>2.777951220869181</v>
       </c>
       <c r="I11">
-        <v>2.825522498336646</v>
+        <v>2.851303220318147</v>
       </c>
       <c r="J11">
-        <v>9.461718797696843</v>
+        <v>8.965955969543812</v>
       </c>
       <c r="K11">
-        <v>17.24346027277342</v>
+        <v>16.10970649221683</v>
       </c>
       <c r="L11">
-        <v>6.189210465158892</v>
+        <v>12.87213118152495</v>
       </c>
       <c r="M11">
-        <v>20.71846255143338</v>
+        <v>11.21389159999869</v>
       </c>
       <c r="N11">
-        <v>5.639412409928639</v>
+        <v>6.105420948811155</v>
       </c>
       <c r="O11">
-        <v>16.34997821317868</v>
+        <v>20.33976343144565</v>
       </c>
       <c r="P11">
-        <v>13.32412595790996</v>
+        <v>5.820966122882966</v>
       </c>
       <c r="Q11">
-        <v>15.89253882754925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.99696483895312</v>
+      </c>
+      <c r="R11">
+        <v>13.51450435936969</v>
+      </c>
+      <c r="S11">
+        <v>15.08955811705994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.861996021013988</v>
+        <v>7.599991170584279</v>
       </c>
       <c r="D12">
-        <v>6.435564114149543</v>
+        <v>6.533738640636584</v>
       </c>
       <c r="E12">
-        <v>8.194905586704767</v>
+        <v>8.048132902528977</v>
       </c>
       <c r="F12">
-        <v>21.91825641093067</v>
+        <v>20.81170263114876</v>
       </c>
       <c r="G12">
-        <v>24.65018643887413</v>
+        <v>24.80927724355714</v>
       </c>
       <c r="H12">
-        <v>4.15901816372884</v>
+        <v>4.160201311115457</v>
       </c>
       <c r="I12">
-        <v>2.835273051316098</v>
+        <v>2.85839495225338</v>
       </c>
       <c r="J12">
-        <v>9.297102201561723</v>
+        <v>8.705085788925436</v>
       </c>
       <c r="K12">
-        <v>16.80616262299165</v>
+        <v>15.68878356624082</v>
       </c>
       <c r="L12">
-        <v>6.111362843449261</v>
+        <v>12.54259099879591</v>
       </c>
       <c r="M12">
-        <v>20.80513861229471</v>
+        <v>10.9210211299852</v>
       </c>
       <c r="N12">
-        <v>5.512459408130781</v>
+        <v>6.047012621042919</v>
       </c>
       <c r="O12">
-        <v>15.97492423067725</v>
+        <v>20.41195836325237</v>
       </c>
       <c r="P12">
-        <v>13.46047222116175</v>
+        <v>5.655696995786291</v>
       </c>
       <c r="Q12">
-        <v>15.50475066793902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.62277870615663</v>
+      </c>
+      <c r="R12">
+        <v>13.67007917876237</v>
+      </c>
+      <c r="S12">
+        <v>14.69526509380873</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.519773740037634</v>
+        <v>7.336786568943935</v>
       </c>
       <c r="D13">
-        <v>6.164387496735045</v>
+        <v>6.254901866846875</v>
       </c>
       <c r="E13">
-        <v>7.811771429262063</v>
+        <v>7.685456863186977</v>
       </c>
       <c r="F13">
-        <v>21.18842788094583</v>
+        <v>20.15927925716991</v>
       </c>
       <c r="G13">
-        <v>23.69674833114816</v>
+        <v>23.8014019233359</v>
       </c>
       <c r="H13">
-        <v>5.58370791772667</v>
+        <v>5.58311859871448</v>
       </c>
       <c r="I13">
-        <v>2.800033978027308</v>
+        <v>2.828100591404296</v>
       </c>
       <c r="J13">
-        <v>9.142777077939622</v>
+        <v>8.639157326599099</v>
       </c>
       <c r="K13">
-        <v>16.34377512993889</v>
+        <v>15.30413323069001</v>
       </c>
       <c r="L13">
-        <v>6.073180726875556</v>
+        <v>12.2878833129777</v>
       </c>
       <c r="M13">
-        <v>20.59773724021442</v>
+        <v>10.58449381276059</v>
       </c>
       <c r="N13">
-        <v>5.44762851443505</v>
+        <v>6.028084691808924</v>
       </c>
       <c r="O13">
-        <v>15.42282336194063</v>
+        <v>20.22750480670666</v>
       </c>
       <c r="P13">
-        <v>13.58840265339849</v>
+        <v>5.555962626093964</v>
       </c>
       <c r="Q13">
-        <v>15.1101630627362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.08990508383709</v>
+      </c>
+      <c r="R13">
+        <v>13.79208207732547</v>
+      </c>
+      <c r="S13">
+        <v>14.36023848302541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.245202920655451</v>
+        <v>7.120073124357411</v>
       </c>
       <c r="D14">
-        <v>5.95466611570439</v>
+        <v>6.032422608993331</v>
       </c>
       <c r="E14">
-        <v>7.585092259797603</v>
+        <v>7.474276927129732</v>
       </c>
       <c r="F14">
-        <v>20.64592779323104</v>
+        <v>19.70792900666963</v>
       </c>
       <c r="G14">
-        <v>22.97694550862308</v>
+        <v>22.81767206820824</v>
       </c>
       <c r="H14">
-        <v>6.593407037097383</v>
+        <v>6.591120018684957</v>
       </c>
       <c r="I14">
-        <v>2.756225899478237</v>
+        <v>2.791515656781747</v>
       </c>
       <c r="J14">
-        <v>9.038769924888381</v>
+        <v>8.666847601739844</v>
       </c>
       <c r="K14">
-        <v>16.00438429150203</v>
+        <v>15.04512838146974</v>
       </c>
       <c r="L14">
-        <v>6.070344232514763</v>
+        <v>12.13607582392289</v>
       </c>
       <c r="M14">
-        <v>20.31471840082161</v>
+        <v>10.32601849465093</v>
       </c>
       <c r="N14">
-        <v>5.438691156121055</v>
+        <v>6.038015914647475</v>
       </c>
       <c r="O14">
-        <v>14.947357994982</v>
+        <v>19.97742192320719</v>
       </c>
       <c r="P14">
-        <v>13.67476052666714</v>
+        <v>5.525568211492392</v>
       </c>
       <c r="Q14">
-        <v>14.82848211265513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.63612002312736</v>
+      </c>
+      <c r="R14">
+        <v>13.86256669210889</v>
+      </c>
+      <c r="S14">
+        <v>14.14778971937666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.156502536647837</v>
+        <v>7.047220853884776</v>
       </c>
       <c r="D15">
-        <v>5.895234042200217</v>
+        <v>5.966840101530798</v>
       </c>
       <c r="E15">
-        <v>7.534868362087639</v>
+        <v>7.428320162147978</v>
       </c>
       <c r="F15">
-        <v>20.49729041484307</v>
+        <v>19.59717809152289</v>
       </c>
       <c r="G15">
-        <v>22.77382717185024</v>
+        <v>22.45636853723863</v>
       </c>
       <c r="H15">
-        <v>6.828546904415951</v>
+        <v>6.825483345007679</v>
       </c>
       <c r="I15">
-        <v>2.737145528913416</v>
+        <v>2.7763596275188</v>
       </c>
       <c r="J15">
-        <v>9.014632297771049</v>
+        <v>8.70529076845207</v>
       </c>
       <c r="K15">
-        <v>15.91123891159226</v>
+        <v>14.98275186993007</v>
       </c>
       <c r="L15">
-        <v>6.071887432936883</v>
+        <v>12.10789746626009</v>
       </c>
       <c r="M15">
-        <v>20.17922741137377</v>
+        <v>10.24977203340989</v>
       </c>
       <c r="N15">
-        <v>5.441755293592458</v>
+        <v>6.042515677965781</v>
       </c>
       <c r="O15">
-        <v>14.79077791691297</v>
+        <v>19.85735393489721</v>
       </c>
       <c r="P15">
-        <v>13.69384110200581</v>
+        <v>5.524908771178418</v>
       </c>
       <c r="Q15">
-        <v>14.75562935617882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.48838607839005</v>
+      </c>
+      <c r="R15">
+        <v>13.87277672215204</v>
+      </c>
+      <c r="S15">
+        <v>14.10348630711317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.028217187157148</v>
+        <v>6.928618978230164</v>
       </c>
       <c r="D16">
-        <v>5.822604311025693</v>
+        <v>5.869196344458165</v>
       </c>
       <c r="E16">
-        <v>7.533156753128736</v>
+        <v>7.429147042635418</v>
       </c>
       <c r="F16">
-        <v>20.41727391060646</v>
+        <v>19.64759029756236</v>
       </c>
       <c r="G16">
-        <v>22.63622264530565</v>
+        <v>21.56333191330688</v>
       </c>
       <c r="H16">
-        <v>6.629271319306494</v>
+        <v>6.621847336000849</v>
       </c>
       <c r="I16">
-        <v>2.641047985907457</v>
+        <v>2.69622067603821</v>
       </c>
       <c r="J16">
-        <v>9.044867628731676</v>
+        <v>9.002743212593286</v>
       </c>
       <c r="K16">
-        <v>15.87941467565342</v>
+        <v>15.04282741910708</v>
       </c>
       <c r="L16">
-        <v>6.059209778620855</v>
+        <v>12.23005064943979</v>
       </c>
       <c r="M16">
-        <v>19.56551596748583</v>
+        <v>10.17039160063501</v>
       </c>
       <c r="N16">
-        <v>5.451454063312582</v>
+        <v>6.028622415766895</v>
       </c>
       <c r="O16">
-        <v>14.44658910236151</v>
+        <v>19.30656154426484</v>
       </c>
       <c r="P16">
-        <v>13.65678414729016</v>
+        <v>5.54655405528133</v>
       </c>
       <c r="Q16">
-        <v>14.76434666371425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.1745205600166</v>
+      </c>
+      <c r="R16">
+        <v>13.79304080940413</v>
+      </c>
+      <c r="S16">
+        <v>14.20879902135647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.076731618466836</v>
+        <v>6.956027700764237</v>
       </c>
       <c r="D17">
-        <v>5.880813513770313</v>
+        <v>5.918101694606652</v>
       </c>
       <c r="E17">
-        <v>7.644202388089477</v>
+        <v>7.532810694897464</v>
       </c>
       <c r="F17">
-        <v>20.64779537040696</v>
+        <v>19.91741670924504</v>
       </c>
       <c r="G17">
-        <v>22.92027751394656</v>
+        <v>21.51906264985371</v>
       </c>
       <c r="H17">
-        <v>5.909575278249445</v>
+        <v>5.898693792116362</v>
       </c>
       <c r="I17">
-        <v>2.590728488786065</v>
+        <v>2.653924646376267</v>
       </c>
       <c r="J17">
-        <v>9.123414287923936</v>
+        <v>9.19424986943025</v>
       </c>
       <c r="K17">
-        <v>16.03621410157468</v>
+        <v>15.22013617631834</v>
       </c>
       <c r="L17">
-        <v>6.047174557113553</v>
+        <v>12.40523054448087</v>
       </c>
       <c r="M17">
-        <v>19.24194391650832</v>
+        <v>10.23998952522982</v>
       </c>
       <c r="N17">
-        <v>5.459397556292046</v>
+        <v>6.00922059294563</v>
       </c>
       <c r="O17">
-        <v>14.44233730319289</v>
+        <v>19.00728684185732</v>
       </c>
       <c r="P17">
-        <v>13.58397978132585</v>
+        <v>5.57395976705249</v>
       </c>
       <c r="Q17">
-        <v>14.9216575245873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.17928180355386</v>
+      </c>
+      <c r="R17">
+        <v>13.70038161056482</v>
+      </c>
+      <c r="S17">
+        <v>14.39444642454191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.30646618352676</v>
+        <v>7.129534125497107</v>
       </c>
       <c r="D18">
-        <v>6.058035773269064</v>
+        <v>6.093199566581808</v>
       </c>
       <c r="E18">
-        <v>7.908334921370798</v>
+        <v>7.779692405452525</v>
       </c>
       <c r="F18">
-        <v>21.18151508633336</v>
+        <v>20.43720744591329</v>
       </c>
       <c r="G18">
-        <v>23.61605132424711</v>
+        <v>22.04038013473312</v>
       </c>
       <c r="H18">
-        <v>4.690242528877581</v>
+        <v>4.675675930079506</v>
       </c>
       <c r="I18">
-        <v>2.571534728929788</v>
+        <v>2.635971020407726</v>
       </c>
       <c r="J18">
-        <v>9.255022198438297</v>
+        <v>9.3636689175223</v>
       </c>
       <c r="K18">
-        <v>16.3859974903512</v>
+        <v>15.54436030909985</v>
       </c>
       <c r="L18">
-        <v>6.058151339942118</v>
+        <v>12.66806833698041</v>
       </c>
       <c r="M18">
-        <v>19.14662397236896</v>
+        <v>10.46043648142934</v>
       </c>
       <c r="N18">
-        <v>5.496375495466485</v>
+        <v>6.006389653978177</v>
       </c>
       <c r="O18">
-        <v>14.73760091028578</v>
+        <v>18.91385643328392</v>
       </c>
       <c r="P18">
-        <v>13.47210857583923</v>
+        <v>5.638903522610529</v>
       </c>
       <c r="Q18">
-        <v>15.23145861510221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.46992318509289</v>
+      </c>
+      <c r="R18">
+        <v>13.5803520146327</v>
+      </c>
+      <c r="S18">
+        <v>14.69327676610516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.624981984226149</v>
+        <v>7.370561017288193</v>
       </c>
       <c r="D19">
-        <v>6.318342279324544</v>
+        <v>6.355242914092998</v>
       </c>
       <c r="E19">
-        <v>8.326984441626815</v>
+        <v>8.175457163127042</v>
       </c>
       <c r="F19">
-        <v>21.88736483377507</v>
+        <v>21.09649941259984</v>
       </c>
       <c r="G19">
-        <v>24.53417824128931</v>
+        <v>22.85331493143046</v>
       </c>
       <c r="H19">
-        <v>3.269824818156923</v>
+        <v>3.250660088980681</v>
       </c>
       <c r="I19">
-        <v>2.590562923063565</v>
+        <v>2.653297128295233</v>
       </c>
       <c r="J19">
-        <v>9.411363685095777</v>
+        <v>9.516869334892069</v>
       </c>
       <c r="K19">
-        <v>16.83413562662543</v>
+        <v>15.93856484505318</v>
       </c>
       <c r="L19">
-        <v>6.120157361359201</v>
+        <v>12.96522378492931</v>
       </c>
       <c r="M19">
-        <v>19.231567653252</v>
+        <v>10.76378393539672</v>
       </c>
       <c r="N19">
-        <v>5.596905197292921</v>
+        <v>6.050039209599166</v>
       </c>
       <c r="O19">
-        <v>15.23310656345685</v>
+        <v>18.98643441900475</v>
       </c>
       <c r="P19">
-        <v>13.34725842890704</v>
+        <v>5.773196663336918</v>
       </c>
       <c r="Q19">
-        <v>15.61950823615781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.95193906044128</v>
+      </c>
+      <c r="R19">
+        <v>13.45481168855023</v>
+      </c>
+      <c r="S19">
+        <v>15.04665235127509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.244767399262141</v>
+        <v>7.849551672825076</v>
       </c>
       <c r="D20">
-        <v>6.791591834803181</v>
+        <v>6.840587928122297</v>
       </c>
       <c r="E20">
-        <v>9.131634218070278</v>
+        <v>8.943747880564</v>
       </c>
       <c r="F20">
-        <v>23.09710163559087</v>
+        <v>22.17000709948867</v>
       </c>
       <c r="G20">
-        <v>26.12139180690215</v>
+        <v>24.51669938677146</v>
       </c>
       <c r="H20">
-        <v>1.855198004849848</v>
+        <v>1.837138305770487</v>
       </c>
       <c r="I20">
-        <v>2.697232816634848</v>
+        <v>2.745685042761695</v>
       </c>
       <c r="J20">
-        <v>9.647179914974622</v>
+        <v>9.628551837335152</v>
       </c>
       <c r="K20">
-        <v>17.59553744768862</v>
+        <v>16.5655003570191</v>
       </c>
       <c r="L20">
-        <v>6.311831081203604</v>
+        <v>13.36811886343672</v>
       </c>
       <c r="M20">
-        <v>19.8327218102437</v>
+        <v>11.34304129783571</v>
       </c>
       <c r="N20">
-        <v>5.854098621237023</v>
+        <v>6.210698019500504</v>
       </c>
       <c r="O20">
-        <v>16.2690030280449</v>
+        <v>19.53861811694055</v>
       </c>
       <c r="P20">
-        <v>13.17308667709478</v>
+        <v>6.078665429471418</v>
       </c>
       <c r="Q20">
-        <v>16.25063541623968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.950992669427</v>
+      </c>
+      <c r="R20">
+        <v>13.29853158905225</v>
+      </c>
+      <c r="S20">
+        <v>15.57640570083417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.633993151773421</v>
+        <v>8.191141254237372</v>
       </c>
       <c r="D21">
-        <v>7.058883103791953</v>
+        <v>7.165292104927376</v>
       </c>
       <c r="E21">
-        <v>9.382059541868482</v>
+        <v>9.190410839025668</v>
       </c>
       <c r="F21">
-        <v>23.63866544638663</v>
+        <v>22.40202932084216</v>
       </c>
       <c r="G21">
-        <v>26.86766783212332</v>
+        <v>26.87001362903354</v>
       </c>
       <c r="H21">
-        <v>1.604940646970766</v>
+        <v>1.614016689668296</v>
       </c>
       <c r="I21">
-        <v>2.888187542962585</v>
+        <v>2.905481283670382</v>
       </c>
       <c r="J21">
-        <v>9.685516836119421</v>
+        <v>8.980984834440944</v>
       </c>
       <c r="K21">
-        <v>17.90923147673786</v>
+        <v>16.64574350506778</v>
       </c>
       <c r="L21">
-        <v>6.375635871609556</v>
+        <v>13.23688247561122</v>
       </c>
       <c r="M21">
-        <v>21.01017422340212</v>
+        <v>11.67335963158293</v>
       </c>
       <c r="N21">
-        <v>5.900626010303787</v>
+        <v>6.261618749283109</v>
       </c>
       <c r="O21">
-        <v>17.12625042652948</v>
+        <v>20.58514014642599</v>
       </c>
       <c r="P21">
-        <v>13.15536778724103</v>
+        <v>6.131313635176869</v>
       </c>
       <c r="Q21">
-        <v>16.46154697048793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.7401478562799</v>
+      </c>
+      <c r="R21">
+        <v>13.3584120215081</v>
+      </c>
+      <c r="S21">
+        <v>15.55035932651658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.883089293928093</v>
+        <v>8.41814252964728</v>
       </c>
       <c r="D22">
-        <v>7.210078206873989</v>
+        <v>7.356841406323341</v>
       </c>
       <c r="E22">
-        <v>9.508387138999192</v>
+        <v>9.317870875808763</v>
       </c>
       <c r="F22">
-        <v>23.96482339627279</v>
+        <v>22.5158001605936</v>
       </c>
       <c r="G22">
-        <v>27.32707997511781</v>
+        <v>28.50760283303264</v>
       </c>
       <c r="H22">
-        <v>1.661264610271924</v>
+        <v>1.63562347223475</v>
       </c>
       <c r="I22">
-        <v>3.004014718917919</v>
+        <v>3.000286667031556</v>
       </c>
       <c r="J22">
-        <v>9.708322767785402</v>
+        <v>8.578708840810949</v>
       </c>
       <c r="K22">
-        <v>18.10499680681488</v>
+        <v>16.68246845412849</v>
       </c>
       <c r="L22">
-        <v>6.407487095869572</v>
+        <v>13.14016709725606</v>
       </c>
       <c r="M22">
-        <v>21.74090307384736</v>
+        <v>11.88218048687438</v>
       </c>
       <c r="N22">
-        <v>5.913563797202787</v>
+        <v>6.286396959661998</v>
       </c>
       <c r="O22">
-        <v>17.63630747506492</v>
+        <v>21.22999824853624</v>
       </c>
       <c r="P22">
-        <v>13.15095849833662</v>
+        <v>6.146063291928004</v>
       </c>
       <c r="Q22">
-        <v>16.59142931121237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.2056113627959</v>
+      </c>
+      <c r="R22">
+        <v>13.40885556139908</v>
+      </c>
+      <c r="S22">
+        <v>15.51489387664918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.77862521929899</v>
+        <v>8.316875081834784</v>
       </c>
       <c r="D23">
-        <v>7.128841066748932</v>
+        <v>7.247787969692637</v>
       </c>
       <c r="E23">
-        <v>9.445095151278592</v>
+        <v>9.25151622776049</v>
       </c>
       <c r="F23">
-        <v>23.81011310319689</v>
+        <v>22.49844352765257</v>
       </c>
       <c r="G23">
-        <v>27.11433740481505</v>
+        <v>27.46619207950274</v>
       </c>
       <c r="H23">
-        <v>1.585830602752631</v>
+        <v>1.569845257710627</v>
       </c>
       <c r="I23">
-        <v>2.938319700292183</v>
+        <v>2.945064418552732</v>
       </c>
       <c r="J23">
-        <v>9.701541589515477</v>
+        <v>8.855008176918192</v>
       </c>
       <c r="K23">
-        <v>18.02129255108431</v>
+        <v>16.69851285102725</v>
       </c>
       <c r="L23">
-        <v>6.392301960363614</v>
+        <v>13.2164297671549</v>
       </c>
       <c r="M23">
-        <v>21.36106543190582</v>
+        <v>11.79975008461207</v>
       </c>
       <c r="N23">
-        <v>5.903875669278378</v>
+        <v>6.275171546856412</v>
       </c>
       <c r="O23">
-        <v>17.37281274453651</v>
+        <v>20.90584613395862</v>
       </c>
       <c r="P23">
-        <v>13.14949310228043</v>
+        <v>6.135022557972428</v>
       </c>
       <c r="Q23">
-        <v>16.53570632430457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.97020347966188</v>
+      </c>
+      <c r="R23">
+        <v>13.37270635896238</v>
+      </c>
+      <c r="S23">
+        <v>15.56635272660789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.32134627426238</v>
+        <v>7.915247174114922</v>
       </c>
       <c r="D24">
-        <v>6.815780052159605</v>
+        <v>6.864562254220955</v>
       </c>
       <c r="E24">
-        <v>9.19472312160678</v>
+        <v>9.004601935785294</v>
       </c>
       <c r="F24">
-        <v>23.20035170970976</v>
+        <v>22.26975262246648</v>
       </c>
       <c r="G24">
-        <v>26.26645139603261</v>
+        <v>24.64115596909805</v>
       </c>
       <c r="H24">
-        <v>1.836069320144073</v>
+        <v>1.818111504511013</v>
       </c>
       <c r="I24">
-        <v>2.690599668534679</v>
+        <v>2.736674781370386</v>
       </c>
       <c r="J24">
-        <v>9.672968215986137</v>
+        <v>9.65769667898169</v>
       </c>
       <c r="K24">
-        <v>17.67524005118976</v>
+        <v>16.6396112450504</v>
       </c>
       <c r="L24">
-        <v>6.330619673415809</v>
+        <v>13.42513262226804</v>
       </c>
       <c r="M24">
-        <v>19.84238991557487</v>
+        <v>11.39848065050825</v>
       </c>
       <c r="N24">
-        <v>5.872410612887581</v>
+        <v>6.227234325600732</v>
       </c>
       <c r="O24">
-        <v>16.32413152231806</v>
+        <v>19.54778243547995</v>
       </c>
       <c r="P24">
-        <v>13.15547011442643</v>
+        <v>6.099823350683348</v>
       </c>
       <c r="Q24">
-        <v>16.3135993766842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.00514980726519</v>
+      </c>
+      <c r="R24">
+        <v>13.27979381997093</v>
+      </c>
+      <c r="S24">
+        <v>15.63643876795711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.793087550747408</v>
+        <v>7.52244246971424</v>
       </c>
       <c r="D25">
-        <v>6.465050089128739</v>
+        <v>6.506491051641079</v>
       </c>
       <c r="E25">
-        <v>8.916144928729876</v>
+        <v>8.754734162209555</v>
       </c>
       <c r="F25">
-        <v>22.56195859899327</v>
+        <v>21.77335136510038</v>
       </c>
       <c r="G25">
-        <v>25.37847823973251</v>
+        <v>23.78821405681824</v>
       </c>
       <c r="H25">
-        <v>2.176184978683691</v>
+        <v>2.13060660659745</v>
       </c>
       <c r="I25">
-        <v>2.572722750293229</v>
+        <v>2.502642267438423</v>
       </c>
       <c r="J25">
-        <v>9.655230507135364</v>
+        <v>9.704683437125661</v>
       </c>
       <c r="K25">
-        <v>17.31374375532464</v>
+        <v>16.41172072734505</v>
       </c>
       <c r="L25">
-        <v>6.261211644827873</v>
+        <v>13.52849944494487</v>
       </c>
       <c r="M25">
-        <v>18.05623815266335</v>
+        <v>10.86660553240304</v>
       </c>
       <c r="N25">
-        <v>5.839942097988845</v>
+        <v>6.168279234720023</v>
       </c>
       <c r="O25">
-        <v>15.1105524560275</v>
+        <v>17.826375727889</v>
       </c>
       <c r="P25">
-        <v>13.17328539769549</v>
+        <v>6.064015646196669</v>
       </c>
       <c r="Q25">
-        <v>16.09906224178322</v>
+        <v>14.83476673882869</v>
+      </c>
+      <c r="R25">
+        <v>13.24641549926918</v>
+      </c>
+      <c r="S25">
+        <v>15.52166502895247</v>
       </c>
     </row>
   </sheetData>
